--- a/backend/data/Competitors.xlsx
+++ b/backend/data/Competitors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors-Male" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="219">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
@@ -75,7 +75,13 @@
     <t xml:space="preserve">Years since turning pro</t>
   </si>
   <si>
-    <t xml:space="preserve">Former top 10</t>
+    <t xml:space="preserve">CurrentTop10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FormerTop10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CurrentAllTimeHigh</t>
   </si>
   <si>
     <t xml:space="preserve">Coach</t>
@@ -282,9 +288,6 @@
     <t xml:space="preserve">Samuel Ribeiro</t>
   </si>
   <si>
-    <t xml:space="preserve">Rising</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maxime Cressy</t>
   </si>
   <si>
@@ -676,9 +679,6 @@
   </si>
   <si>
     <t xml:space="preserve">Raemon Sluiter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildcard</t>
   </si>
   <si>
     <t xml:space="preserve">Styles</t>
@@ -688,15 +688,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -717,6 +719,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -761,7 +764,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -771,6 +774,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -791,6 +798,81 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -799,17 +881,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:W1021"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.45"/>
@@ -817,8 +899,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="15.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="24.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,7 +910,7 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -885,16 +967,22 @@
       <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>22</v>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>27</v>
@@ -903,25 +991,29 @@
         <v>198</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="2" t="b">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>2022</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>2014</v>
@@ -930,23 +1022,39 @@
         <f aca="false">2023-O2</f>
         <v>9</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="b">
+        <f aca="false">IF(B2&lt;11,TRUE(),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="n">
         <f aca="false">IF(M2&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="R2" s="0" t="s">
-        <v>28</v>
+      <c r="S2" s="2" t="n">
+        <f aca="false">IF(B2=M2,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="0" t="str">
+        <f aca="false">IF(B2=M2,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V2" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>30</v>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>22</v>
@@ -955,28 +1063,32 @@
         <v>193</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="2" t="b">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>2022</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>2017</v>
@@ -986,22 +1098,38 @@
         <v>6</v>
       </c>
       <c r="Q3" s="2" t="n">
+        <f aca="false">IF(B3&lt;11,TRUE(),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="n">
         <f aca="false">IF(M3&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="R3" s="0" t="s">
-        <v>35</v>
+      <c r="S3" s="2" t="n">
+        <f aca="false">IF(B3=M3,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="0" t="str">
+        <f aca="false">IF(B3=M3,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>22</v>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>26</v>
@@ -1010,28 +1138,32 @@
         <v>188</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="2" t="b">
+        <v>41</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>12</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>2013</v>
@@ -1041,22 +1173,38 @@
         <v>10</v>
       </c>
       <c r="Q4" s="2" t="n">
+        <f aca="false">IF(B4&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
         <f aca="false">IF(M4&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
+      <c r="S4" s="2" t="n">
+        <f aca="false">IF(B4=M4,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="0" t="str">
+        <f aca="false">IF(B4=M4,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>22</v>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>24</v>
@@ -1065,28 +1213,32 @@
         <v>183</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="2" t="b">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>15</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>2021</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>2015</v>
@@ -1096,22 +1248,38 @@
         <v>8</v>
       </c>
       <c r="Q5" s="2" t="n">
+        <f aca="false">IF(B5&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
         <f aca="false">IF(M5&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R5" s="0" t="s">
-        <v>45</v>
+      <c r="S5" s="2" t="n">
+        <f aca="false">IF(B5=M5,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="0" t="str">
+        <f aca="false">IF(B5=M5,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>22</v>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>31</v>
@@ -1120,28 +1288,32 @@
         <v>188</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="2" t="b">
+        <v>51</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>2009</v>
@@ -1151,22 +1323,38 @@
         <v>14</v>
       </c>
       <c r="Q6" s="2" t="n">
+        <f aca="false">IF(B6&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
         <f aca="false">IF(M6&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="R6" s="0" t="s">
-        <v>50</v>
+      <c r="S6" s="2" t="n">
+        <f aca="false">IF(B6=M6,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="0" t="str">
+        <f aca="false">IF(B6=M6,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>30</v>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>34</v>
@@ -1175,28 +1363,32 @@
         <v>198</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="2" t="b">
+        <v>56</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="O7" s="0" t="n">
         <v>2005</v>
@@ -1206,22 +1398,38 @@
         <v>18</v>
       </c>
       <c r="Q7" s="2" t="n">
+        <f aca="false">IF(B7&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
         <f aca="false">IF(M7&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="R7" s="0" t="s">
-        <v>55</v>
+      <c r="S7" s="2" t="n">
+        <f aca="false">IF(B7=M7,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" s="0" t="str">
+        <f aca="false">IF(B7=M7,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>22</v>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>35</v>
@@ -1230,22 +1438,22 @@
         <v>193</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>9</v>
@@ -1261,22 +1469,40 @@
         <v>18</v>
       </c>
       <c r="Q8" s="2" t="n">
+        <f aca="false">IF(B8&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="n">
         <f aca="false">IF(M8&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="R8" s="0" t="s">
-        <v>59</v>
+      <c r="S8" s="2" t="n">
+        <f aca="false">IF(B8=M8,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" s="0" t="str">
+        <f aca="false">IF(B8=M8,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>2014</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>61</v>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>27</v>
@@ -1285,24 +1511,25 @@
         <v>191</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="2" t="b">
+        <v>66</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M9" s="0" t="n">
@@ -1319,22 +1546,38 @@
         <v>7</v>
       </c>
       <c r="Q9" s="2" t="n">
+        <f aca="false">IF(B9&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
         <f aca="false">IF(M9&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R9" s="0" t="s">
-        <v>65</v>
+      <c r="S9" s="2" t="n">
+        <f aca="false">IF(B9=M9,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="U9" s="0" t="str">
+        <f aca="false">IF(B9=M9,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V9" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>67</v>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>32</v>
@@ -1343,22 +1586,22 @@
         <v>196</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>3</v>
@@ -1374,25 +1617,37 @@
         <v>15</v>
       </c>
       <c r="Q10" s="2" t="n">
+        <f aca="false">IF(B10&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
         <f aca="false">IF(M10&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="R10" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>71</v>
+      <c r="S10" s="2" t="n">
+        <f aca="false">IF(B10=M10,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>30</v>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>26</v>
@@ -1401,24 +1656,25 @@
         <v>188</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M11" s="0" t="n">
@@ -1435,22 +1691,38 @@
         <v>8</v>
       </c>
       <c r="Q11" s="2" t="n">
+        <f aca="false">IF(B11&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="n">
         <f aca="false">IF(M11&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R11" s="0" t="s">
-        <v>75</v>
+      <c r="S11" s="2" t="n">
+        <f aca="false">IF(B11=M11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="U11" s="0" t="str">
+        <f aca="false">IF(B11=M11,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V11" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>30</v>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>23</v>
@@ -1459,24 +1731,25 @@
         <v>183</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="2" t="b">
+        <v>81</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M12" s="0" t="n">
@@ -1493,22 +1766,38 @@
         <v>6</v>
       </c>
       <c r="Q12" s="2" t="n">
+        <f aca="false">IF(B12&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="n">
         <f aca="false">IF(M12&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R12" s="0" t="s">
-        <v>80</v>
+      <c r="S12" s="2" t="n">
+        <f aca="false">IF(B12=M12,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="U12" s="0" t="str">
+        <f aca="false">IF(B12=M12,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>30</v>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>26</v>
@@ -1517,24 +1806,25 @@
         <v>183</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="2" t="b">
+        <v>85</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M13" s="0" t="n">
@@ -1551,25 +1841,38 @@
         <v>8</v>
       </c>
       <c r="Q13" s="2" t="n">
+        <f aca="false">IF(B13&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="n">
         <f aca="false">IF(M13&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R13" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="S13" s="0" t="s">
-        <v>85</v>
+      <c r="S13" s="3" t="b">
+        <f aca="false">IF(B13=M13,TRUE(),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" s="0" t="str">
+        <f aca="false">IF(B13=M13,"All time high","")</f>
+        <v>All time high</v>
+      </c>
+      <c r="V13" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>67</v>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>26</v>
@@ -1578,24 +1881,25 @@
         <v>201</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="2" t="b">
+        <v>90</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M14" s="0" t="n">
@@ -1612,22 +1916,38 @@
         <v>4</v>
       </c>
       <c r="Q14" s="2" t="n">
+        <f aca="false">IF(B14&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="n">
         <f aca="false">IF(M14&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>90</v>
+      <c r="S14" s="2" t="n">
+        <f aca="false">IF(B14=M14,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U14" s="0" t="str">
+        <f aca="false">IF(B14=M14,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V14" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>30</v>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>24</v>
@@ -1636,24 +1956,25 @@
         <v>188</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="K15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L15" s="2" t="b">
+      <c r="K15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M15" s="0" t="n">
@@ -1670,22 +1991,38 @@
         <v>5</v>
       </c>
       <c r="Q15" s="2" t="n">
+        <f aca="false">IF(B15&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="n">
         <f aca="false">IF(M15&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R15" s="0" t="s">
-        <v>95</v>
+      <c r="S15" s="2" t="n">
+        <f aca="false">IF(B15=M15,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="U15" s="0" t="str">
+        <f aca="false">IF(B15=M15,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V15" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>22</v>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>34</v>
@@ -1694,24 +2031,25 @@
         <v>180</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="2" t="b">
+        <v>102</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M16" s="0" t="n">
@@ -1728,28 +2066,41 @@
         <v>19</v>
       </c>
       <c r="Q16" s="2" t="n">
+        <f aca="false">IF(B16&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="n">
         <f aca="false">IF(M16&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R16" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="T16" s="2" t="b">
+      <c r="S16" s="2" t="n">
+        <f aca="false">IF(B16=M16,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="U16" s="0" t="str">
+        <f aca="false">IF(B16=M16,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V16" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>61</v>
+      <c r="C17" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>21</v>
@@ -1758,24 +2109,25 @@
         <v>188</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" s="2" t="b">
+        <v>106</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M17" s="0" t="n">
@@ -1792,22 +2144,38 @@
         <v>4</v>
       </c>
       <c r="Q17" s="2" t="n">
+        <f aca="false">IF(B17&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="2" t="n">
         <f aca="false">IF(M17&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R17" s="0" t="s">
-        <v>106</v>
+      <c r="S17" s="2" t="n">
+        <f aca="false">IF(B17=M17,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="U17" s="0" t="str">
+        <f aca="false">IF(B17=M17,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V17" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>61</v>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>25</v>
@@ -1816,24 +2184,25 @@
         <v>196</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" s="2" t="b">
+        <v>111</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M18" s="0" t="n">
@@ -1850,22 +2219,38 @@
         <v>7</v>
       </c>
       <c r="Q18" s="2" t="n">
+        <f aca="false">IF(B18&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="n">
         <f aca="false">IF(M18&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R18" s="0" t="s">
-        <v>111</v>
+      <c r="S18" s="2" t="n">
+        <f aca="false">IF(B18=M18,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="U18" s="0" t="str">
+        <f aca="false">IF(B18=M18,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V18" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>30</v>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>24</v>
@@ -1874,24 +2259,25 @@
         <v>188</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L19" s="2" t="b">
+        <v>115</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M19" s="0" t="n">
@@ -1908,22 +2294,38 @@
         <v>7</v>
       </c>
       <c r="Q19" s="2" t="n">
+        <f aca="false">IF(B19&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="n">
         <f aca="false">IF(M19&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R19" s="0" t="s">
-        <v>115</v>
+      <c r="S19" s="2" t="n">
+        <f aca="false">IF(B19=M19,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="U19" s="0" t="str">
+        <f aca="false">IF(B19=M19,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V19" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>22</v>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>24</v>
@@ -1932,24 +2334,25 @@
         <v>183</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="2" t="b">
+        <v>120</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M20" s="0" t="n">
@@ -1966,22 +2369,38 @@
         <v>8</v>
       </c>
       <c r="Q20" s="2" t="n">
+        <f aca="false">IF(B20&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="n">
         <f aca="false">IF(M20&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R20" s="0" t="s">
-        <v>120</v>
+      <c r="S20" s="2" t="n">
+        <f aca="false">IF(B20=M20,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="U20" s="0" t="str">
+        <f aca="false">IF(B20=M20,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V20" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>30</v>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>26</v>
@@ -1990,24 +2409,25 @@
         <v>188</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="L21" s="2" t="b">
+        <v>125</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="M21" s="0" t="n">
@@ -2024,21 +2444,42 @@
         <v>8</v>
       </c>
       <c r="Q21" s="2" t="n">
+        <f aca="false">IF(B21&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="n">
         <f aca="false">IF(M21&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R21" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="T21" s="2" t="b">
+      <c r="S21" s="2" t="n">
+        <f aca="false">IF(B21=M21,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="U21" s="0" t="str">
+        <f aca="false">IF(B21=M21,"All time high","")</f>
+        <v/>
+      </c>
+      <c r="V21" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>2022</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
@@ -2061,8 +2502,3003 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C223" s="1"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C224" s="1"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C229" s="1"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C234" s="1"/>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C235" s="1"/>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C236" s="1"/>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C239" s="1"/>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C240" s="1"/>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C241" s="1"/>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C242" s="1"/>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C243" s="1"/>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C244" s="1"/>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C245" s="1"/>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C246" s="1"/>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C247" s="1"/>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C248" s="1"/>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C249" s="1"/>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C250" s="1"/>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C251" s="1"/>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C252" s="1"/>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C254" s="1"/>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C255" s="1"/>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C256" s="1"/>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C257" s="1"/>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C258" s="1"/>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C259" s="1"/>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C261" s="1"/>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C262" s="1"/>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C263" s="1"/>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C264" s="1"/>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C265" s="1"/>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C266" s="1"/>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C267" s="1"/>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C268" s="1"/>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C269" s="1"/>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C270" s="1"/>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C271" s="1"/>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C272" s="1"/>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C273" s="1"/>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C274" s="1"/>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C275" s="1"/>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C276" s="1"/>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C277" s="1"/>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C278" s="1"/>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C279" s="1"/>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C280" s="1"/>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C281" s="1"/>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C282" s="1"/>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C283" s="1"/>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C284" s="1"/>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C285" s="1"/>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C286" s="1"/>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C287" s="1"/>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C288" s="1"/>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C289" s="1"/>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C290" s="1"/>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C291" s="1"/>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C292" s="1"/>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C293" s="1"/>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C294" s="1"/>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C295" s="1"/>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C296" s="1"/>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C297" s="1"/>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C298" s="1"/>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C299" s="1"/>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C300" s="1"/>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C301" s="1"/>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C302" s="1"/>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C303" s="1"/>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C304" s="1"/>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C305" s="1"/>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C306" s="1"/>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C307" s="1"/>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C308" s="1"/>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C309" s="1"/>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C310" s="1"/>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C311" s="1"/>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C312" s="1"/>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C313" s="1"/>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C314" s="1"/>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C315" s="1"/>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C316" s="1"/>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C317" s="1"/>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C318" s="1"/>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C319" s="1"/>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C320" s="1"/>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C321" s="1"/>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C322" s="1"/>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C323" s="1"/>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C324" s="1"/>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C325" s="1"/>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C326" s="1"/>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C327" s="1"/>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C328" s="1"/>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C329" s="1"/>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C330" s="1"/>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C331" s="1"/>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C332" s="1"/>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C333" s="1"/>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C334" s="1"/>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C335" s="1"/>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C336" s="1"/>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C337" s="1"/>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C338" s="1"/>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C339" s="1"/>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C340" s="1"/>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C341" s="1"/>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C342" s="1"/>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C343" s="1"/>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C344" s="1"/>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C345" s="1"/>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C346" s="1"/>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C347" s="1"/>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C348" s="1"/>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C349" s="1"/>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C350" s="1"/>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C351" s="1"/>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C352" s="1"/>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C353" s="1"/>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C354" s="1"/>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C355" s="1"/>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C356" s="1"/>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C357" s="1"/>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C358" s="1"/>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C359" s="1"/>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C360" s="1"/>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C361" s="1"/>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C362" s="1"/>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C363" s="1"/>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C364" s="1"/>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C365" s="1"/>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C366" s="1"/>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C367" s="1"/>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C368" s="1"/>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C369" s="1"/>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C370" s="1"/>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C371" s="1"/>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C372" s="1"/>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C373" s="1"/>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C374" s="1"/>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C375" s="1"/>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C376" s="1"/>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C377" s="1"/>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C378" s="1"/>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C379" s="1"/>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C380" s="1"/>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C381" s="1"/>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C382" s="1"/>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C383" s="1"/>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C384" s="1"/>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C385" s="1"/>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C386" s="1"/>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C387" s="1"/>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C388" s="1"/>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C389" s="1"/>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C390" s="1"/>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C391" s="1"/>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C392" s="1"/>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C393" s="1"/>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C394" s="1"/>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C395" s="1"/>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C396" s="1"/>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C397" s="1"/>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C398" s="1"/>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C399" s="1"/>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C400" s="1"/>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C401" s="1"/>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C402" s="1"/>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C403" s="1"/>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C404" s="1"/>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C405" s="1"/>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C406" s="1"/>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C407" s="1"/>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C408" s="1"/>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C409" s="1"/>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C410" s="1"/>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C411" s="1"/>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C412" s="1"/>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C413" s="1"/>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C414" s="1"/>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C415" s="1"/>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C416" s="1"/>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C417" s="1"/>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C418" s="1"/>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C419" s="1"/>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C420" s="1"/>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C421" s="1"/>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C422" s="1"/>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C423" s="1"/>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C424" s="1"/>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C425" s="1"/>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C426" s="1"/>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C427" s="1"/>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C428" s="1"/>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C429" s="1"/>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C430" s="1"/>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C431" s="1"/>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C432" s="1"/>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C433" s="1"/>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C434" s="1"/>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C435" s="1"/>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C436" s="1"/>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C437" s="1"/>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C438" s="1"/>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C439" s="1"/>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C440" s="1"/>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C441" s="1"/>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C442" s="1"/>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C443" s="1"/>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C444" s="1"/>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C445" s="1"/>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C446" s="1"/>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C447" s="1"/>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C448" s="1"/>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C449" s="1"/>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C450" s="1"/>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C451" s="1"/>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C452" s="1"/>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C453" s="1"/>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C454" s="1"/>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C455" s="1"/>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C456" s="1"/>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C457" s="1"/>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C458" s="1"/>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C459" s="1"/>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C460" s="1"/>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C461" s="1"/>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C462" s="1"/>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C463" s="1"/>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C464" s="1"/>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C465" s="1"/>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C466" s="1"/>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C467" s="1"/>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C468" s="1"/>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C469" s="1"/>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C470" s="1"/>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C471" s="1"/>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C472" s="1"/>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C473" s="1"/>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C474" s="1"/>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C475" s="1"/>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C476" s="1"/>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C477" s="1"/>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C478" s="1"/>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C479" s="1"/>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C480" s="1"/>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C481" s="1"/>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C482" s="1"/>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C483" s="1"/>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C484" s="1"/>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C485" s="1"/>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C486" s="1"/>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C487" s="1"/>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C488" s="1"/>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C489" s="1"/>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C490" s="1"/>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C491" s="1"/>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C492" s="1"/>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C493" s="1"/>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C494" s="1"/>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C495" s="1"/>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C496" s="1"/>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C497" s="1"/>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C498" s="1"/>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C499" s="1"/>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C500" s="1"/>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C501" s="1"/>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C502" s="1"/>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C503" s="1"/>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C504" s="1"/>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C505" s="1"/>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C506" s="1"/>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C507" s="1"/>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C508" s="1"/>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C509" s="1"/>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C510" s="1"/>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C511" s="1"/>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C512" s="1"/>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C513" s="1"/>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C514" s="1"/>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C515" s="1"/>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C516" s="1"/>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C517" s="1"/>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C518" s="1"/>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C519" s="1"/>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C520" s="1"/>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C521" s="1"/>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C522" s="1"/>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C523" s="1"/>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C524" s="1"/>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C525" s="1"/>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C526" s="1"/>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C527" s="1"/>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C528" s="1"/>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C529" s="1"/>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C530" s="1"/>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C531" s="1"/>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C532" s="1"/>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C533" s="1"/>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C534" s="1"/>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C535" s="1"/>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C536" s="1"/>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C537" s="1"/>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C538" s="1"/>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C539" s="1"/>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C540" s="1"/>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C541" s="1"/>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C542" s="1"/>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C543" s="1"/>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C544" s="1"/>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C545" s="1"/>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C546" s="1"/>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C547" s="1"/>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C548" s="1"/>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C549" s="1"/>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C550" s="1"/>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C551" s="1"/>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C552" s="1"/>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C553" s="1"/>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C554" s="1"/>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C555" s="1"/>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C556" s="1"/>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C557" s="1"/>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C558" s="1"/>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C559" s="1"/>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C560" s="1"/>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C561" s="1"/>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C562" s="1"/>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C563" s="1"/>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C564" s="1"/>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C565" s="1"/>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C566" s="1"/>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C567" s="1"/>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C568" s="1"/>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C569" s="1"/>
+    </row>
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C570" s="1"/>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C571" s="1"/>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C572" s="1"/>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C573" s="1"/>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C574" s="1"/>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C575" s="1"/>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C576" s="1"/>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C577" s="1"/>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C578" s="1"/>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C579" s="1"/>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C580" s="1"/>
+    </row>
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C581" s="1"/>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C582" s="1"/>
+    </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C583" s="1"/>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C584" s="1"/>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C585" s="1"/>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C586" s="1"/>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C587" s="1"/>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C588" s="1"/>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C589" s="1"/>
+    </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C590" s="1"/>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C591" s="1"/>
+    </row>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C592" s="1"/>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C593" s="1"/>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C594" s="1"/>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C595" s="1"/>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C596" s="1"/>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C597" s="1"/>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C598" s="1"/>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C599" s="1"/>
+    </row>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C600" s="1"/>
+    </row>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C601" s="1"/>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C602" s="1"/>
+    </row>
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C603" s="1"/>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C604" s="1"/>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C605" s="1"/>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C606" s="1"/>
+    </row>
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C607" s="1"/>
+    </row>
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C608" s="1"/>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C609" s="1"/>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C610" s="1"/>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C611" s="1"/>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C612" s="1"/>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C613" s="1"/>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C614" s="1"/>
+    </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C615" s="1"/>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C616" s="1"/>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C617" s="1"/>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C618" s="1"/>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C619" s="1"/>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C620" s="1"/>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C621" s="1"/>
+    </row>
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C622" s="1"/>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C623" s="1"/>
+    </row>
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C624" s="1"/>
+    </row>
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C625" s="1"/>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C626" s="1"/>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C627" s="1"/>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C628" s="1"/>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C629" s="1"/>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C630" s="1"/>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C631" s="1"/>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C632" s="1"/>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C633" s="1"/>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C634" s="1"/>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C635" s="1"/>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C636" s="1"/>
+    </row>
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C637" s="1"/>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C638" s="1"/>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C639" s="1"/>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C640" s="1"/>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C641" s="1"/>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C642" s="1"/>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C643" s="1"/>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C644" s="1"/>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C645" s="1"/>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C646" s="1"/>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C647" s="1"/>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C648" s="1"/>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C649" s="1"/>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C650" s="1"/>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C651" s="1"/>
+    </row>
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C652" s="1"/>
+    </row>
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C653" s="1"/>
+    </row>
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C654" s="1"/>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C655" s="1"/>
+    </row>
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C656" s="1"/>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C657" s="1"/>
+    </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C658" s="1"/>
+    </row>
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C659" s="1"/>
+    </row>
+    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C660" s="1"/>
+    </row>
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C661" s="1"/>
+    </row>
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C662" s="1"/>
+    </row>
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C663" s="1"/>
+    </row>
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C664" s="1"/>
+    </row>
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C665" s="1"/>
+    </row>
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C666" s="1"/>
+    </row>
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C667" s="1"/>
+    </row>
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C668" s="1"/>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C669" s="1"/>
+    </row>
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C670" s="1"/>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C671" s="1"/>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C672" s="1"/>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C673" s="1"/>
+    </row>
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C674" s="1"/>
+    </row>
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C675" s="1"/>
+    </row>
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C676" s="1"/>
+    </row>
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C677" s="1"/>
+    </row>
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C678" s="1"/>
+    </row>
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C679" s="1"/>
+    </row>
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C680" s="1"/>
+    </row>
+    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C681" s="1"/>
+    </row>
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C682" s="1"/>
+    </row>
+    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C683" s="1"/>
+    </row>
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C684" s="1"/>
+    </row>
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C685" s="1"/>
+    </row>
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C686" s="1"/>
+    </row>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C687" s="1"/>
+    </row>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C688" s="1"/>
+    </row>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C689" s="1"/>
+    </row>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C690" s="1"/>
+    </row>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C691" s="1"/>
+    </row>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C692" s="1"/>
+    </row>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C693" s="1"/>
+    </row>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C694" s="1"/>
+    </row>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C695" s="1"/>
+    </row>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C696" s="1"/>
+    </row>
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C697" s="1"/>
+    </row>
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C698" s="1"/>
+    </row>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C699" s="1"/>
+    </row>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C700" s="1"/>
+    </row>
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C701" s="1"/>
+    </row>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C702" s="1"/>
+    </row>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C703" s="1"/>
+    </row>
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C704" s="1"/>
+    </row>
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C705" s="1"/>
+    </row>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C706" s="1"/>
+    </row>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C707" s="1"/>
+    </row>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C708" s="1"/>
+    </row>
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C709" s="1"/>
+    </row>
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C710" s="1"/>
+    </row>
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C711" s="1"/>
+    </row>
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C712" s="1"/>
+    </row>
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C713" s="1"/>
+    </row>
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C714" s="1"/>
+    </row>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C715" s="1"/>
+    </row>
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C716" s="1"/>
+    </row>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C717" s="1"/>
+    </row>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C718" s="1"/>
+    </row>
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C719" s="1"/>
+    </row>
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C720" s="1"/>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C721" s="1"/>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C722" s="1"/>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C723" s="1"/>
+    </row>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C724" s="1"/>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C725" s="1"/>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C726" s="1"/>
+    </row>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C727" s="1"/>
+    </row>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C728" s="1"/>
+    </row>
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C729" s="1"/>
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C730" s="1"/>
+    </row>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C731" s="1"/>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C732" s="1"/>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C733" s="1"/>
+    </row>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C734" s="1"/>
+    </row>
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C735" s="1"/>
+    </row>
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C736" s="1"/>
+    </row>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C737" s="1"/>
+    </row>
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C738" s="1"/>
+    </row>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C739" s="1"/>
+    </row>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C740" s="1"/>
+    </row>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C741" s="1"/>
+    </row>
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C742" s="1"/>
+    </row>
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C743" s="1"/>
+    </row>
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C744" s="1"/>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C745" s="1"/>
+    </row>
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C746" s="1"/>
+    </row>
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C747" s="1"/>
+    </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C748" s="1"/>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C749" s="1"/>
+    </row>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C750" s="1"/>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C751" s="1"/>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C752" s="1"/>
+    </row>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C753" s="1"/>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C754" s="1"/>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C755" s="1"/>
+    </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C756" s="1"/>
+    </row>
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C757" s="1"/>
+    </row>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C758" s="1"/>
+    </row>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C759" s="1"/>
+    </row>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C760" s="1"/>
+    </row>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C761" s="1"/>
+    </row>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C762" s="1"/>
+    </row>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C763" s="1"/>
+    </row>
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C764" s="1"/>
+    </row>
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C765" s="1"/>
+    </row>
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C766" s="1"/>
+    </row>
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C767" s="1"/>
+    </row>
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C768" s="1"/>
+    </row>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C769" s="1"/>
+    </row>
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C770" s="1"/>
+    </row>
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C771" s="1"/>
+    </row>
+    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C772" s="1"/>
+    </row>
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C773" s="1"/>
+    </row>
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C774" s="1"/>
+    </row>
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C775" s="1"/>
+    </row>
+    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C776" s="1"/>
+    </row>
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C777" s="1"/>
+    </row>
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C778" s="1"/>
+    </row>
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C779" s="1"/>
+    </row>
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C780" s="1"/>
+    </row>
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C781" s="1"/>
+    </row>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C782" s="1"/>
+    </row>
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C783" s="1"/>
+    </row>
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C784" s="1"/>
+    </row>
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C785" s="1"/>
+    </row>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C786" s="1"/>
+    </row>
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C787" s="1"/>
+    </row>
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C788" s="1"/>
+    </row>
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C789" s="1"/>
+    </row>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C790" s="1"/>
+    </row>
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C791" s="1"/>
+    </row>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C792" s="1"/>
+    </row>
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C793" s="1"/>
+    </row>
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C794" s="1"/>
+    </row>
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C795" s="1"/>
+    </row>
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C796" s="1"/>
+    </row>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C797" s="1"/>
+    </row>
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C798" s="1"/>
+    </row>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C799" s="1"/>
+    </row>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C800" s="1"/>
+    </row>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C801" s="1"/>
+    </row>
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C802" s="1"/>
+    </row>
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C803" s="1"/>
+    </row>
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C804" s="1"/>
+    </row>
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C805" s="1"/>
+    </row>
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C806" s="1"/>
+    </row>
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C807" s="1"/>
+    </row>
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C808" s="1"/>
+    </row>
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C809" s="1"/>
+    </row>
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C810" s="1"/>
+    </row>
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C811" s="1"/>
+    </row>
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C812" s="1"/>
+    </row>
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C813" s="1"/>
+    </row>
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C814" s="1"/>
+    </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C815" s="1"/>
+    </row>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C816" s="1"/>
+    </row>
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C817" s="1"/>
+    </row>
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C818" s="1"/>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C819" s="1"/>
+    </row>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C820" s="1"/>
+    </row>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C821" s="1"/>
+    </row>
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C822" s="1"/>
+    </row>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C823" s="1"/>
+    </row>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C824" s="1"/>
+    </row>
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C825" s="1"/>
+    </row>
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C826" s="1"/>
+    </row>
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C827" s="1"/>
+    </row>
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C828" s="1"/>
+    </row>
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C829" s="1"/>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C830" s="1"/>
+    </row>
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C831" s="1"/>
+    </row>
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C832" s="1"/>
+    </row>
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C833" s="1"/>
+    </row>
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C834" s="1"/>
+    </row>
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C835" s="1"/>
+    </row>
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C836" s="1"/>
+    </row>
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C837" s="1"/>
+    </row>
+    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C838" s="1"/>
+    </row>
+    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C839" s="1"/>
+    </row>
+    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C840" s="1"/>
+    </row>
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C841" s="1"/>
+    </row>
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C842" s="1"/>
+    </row>
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C843" s="1"/>
+    </row>
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C844" s="1"/>
+    </row>
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C845" s="1"/>
+    </row>
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C846" s="1"/>
+    </row>
+    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C847" s="1"/>
+    </row>
+    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C848" s="1"/>
+    </row>
+    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C849" s="1"/>
+    </row>
+    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C850" s="1"/>
+    </row>
+    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C851" s="1"/>
+    </row>
+    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C852" s="1"/>
+    </row>
+    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C853" s="1"/>
+    </row>
+    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C854" s="1"/>
+    </row>
+    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C855" s="1"/>
+    </row>
+    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C856" s="1"/>
+    </row>
+    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C857" s="1"/>
+    </row>
+    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C858" s="1"/>
+    </row>
+    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C859" s="1"/>
+    </row>
+    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C860" s="1"/>
+    </row>
+    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C861" s="1"/>
+    </row>
+    <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C862" s="1"/>
+    </row>
+    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C863" s="1"/>
+    </row>
+    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C864" s="1"/>
+    </row>
+    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C865" s="1"/>
+    </row>
+    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C866" s="1"/>
+    </row>
+    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C867" s="1"/>
+    </row>
+    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C868" s="1"/>
+    </row>
+    <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C869" s="1"/>
+    </row>
+    <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C870" s="1"/>
+    </row>
+    <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C871" s="1"/>
+    </row>
+    <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C872" s="1"/>
+    </row>
+    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C873" s="1"/>
+    </row>
+    <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C874" s="1"/>
+    </row>
+    <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C875" s="1"/>
+    </row>
+    <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C876" s="1"/>
+    </row>
+    <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C877" s="1"/>
+    </row>
+    <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C878" s="1"/>
+    </row>
+    <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C879" s="1"/>
+    </row>
+    <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C880" s="1"/>
+    </row>
+    <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C881" s="1"/>
+    </row>
+    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C882" s="1"/>
+    </row>
+    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C883" s="1"/>
+    </row>
+    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C884" s="1"/>
+    </row>
+    <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C885" s="1"/>
+    </row>
+    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C886" s="1"/>
+    </row>
+    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C887" s="1"/>
+    </row>
+    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C888" s="1"/>
+    </row>
+    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C889" s="1"/>
+    </row>
+    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C890" s="1"/>
+    </row>
+    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C891" s="1"/>
+    </row>
+    <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C892" s="1"/>
+    </row>
+    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C893" s="1"/>
+    </row>
+    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C894" s="1"/>
+    </row>
+    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C895" s="1"/>
+    </row>
+    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C896" s="1"/>
+    </row>
+    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C897" s="1"/>
+    </row>
+    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C898" s="1"/>
+    </row>
+    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C899" s="1"/>
+    </row>
+    <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C900" s="1"/>
+    </row>
+    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C901" s="1"/>
+    </row>
+    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C902" s="1"/>
+    </row>
+    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C903" s="1"/>
+    </row>
+    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C904" s="1"/>
+    </row>
+    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C905" s="1"/>
+    </row>
+    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C906" s="1"/>
+    </row>
+    <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C907" s="1"/>
+    </row>
+    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C908" s="1"/>
+    </row>
+    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C909" s="1"/>
+    </row>
+    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C910" s="1"/>
+    </row>
+    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C911" s="1"/>
+    </row>
+    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C912" s="1"/>
+    </row>
+    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C913" s="1"/>
+    </row>
+    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C914" s="1"/>
+    </row>
+    <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C915" s="1"/>
+    </row>
+    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C916" s="1"/>
+    </row>
+    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C917" s="1"/>
+    </row>
+    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C918" s="1"/>
+    </row>
+    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C919" s="1"/>
+    </row>
+    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C920" s="1"/>
+    </row>
+    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C921" s="1"/>
+    </row>
+    <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C922" s="1"/>
+    </row>
+    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C923" s="1"/>
+    </row>
+    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C924" s="1"/>
+    </row>
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C925" s="1"/>
+    </row>
+    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C926" s="1"/>
+    </row>
+    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C927" s="1"/>
+    </row>
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C928" s="1"/>
+    </row>
+    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C929" s="1"/>
+    </row>
+    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C930" s="1"/>
+    </row>
+    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C931" s="1"/>
+    </row>
+    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C932" s="1"/>
+    </row>
+    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C933" s="1"/>
+    </row>
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C934" s="1"/>
+    </row>
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C935" s="1"/>
+    </row>
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C936" s="1"/>
+    </row>
+    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C937" s="1"/>
+    </row>
+    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C938" s="1"/>
+    </row>
+    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C939" s="1"/>
+    </row>
+    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C940" s="1"/>
+    </row>
+    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C941" s="1"/>
+    </row>
+    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C942" s="1"/>
+    </row>
+    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C943" s="1"/>
+    </row>
+    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C944" s="1"/>
+    </row>
+    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C945" s="1"/>
+    </row>
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C946" s="1"/>
+    </row>
+    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C947" s="1"/>
+    </row>
+    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C948" s="1"/>
+    </row>
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C949" s="1"/>
+    </row>
+    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C950" s="1"/>
+    </row>
+    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C951" s="1"/>
+    </row>
+    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C952" s="1"/>
+    </row>
+    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C953" s="1"/>
+    </row>
+    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C954" s="1"/>
+    </row>
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C955" s="1"/>
+    </row>
+    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C956" s="1"/>
+    </row>
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C957" s="1"/>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C958" s="1"/>
+    </row>
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C959" s="1"/>
+    </row>
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C960" s="1"/>
+    </row>
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C961" s="1"/>
+    </row>
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C962" s="1"/>
+    </row>
+    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C963" s="1"/>
+    </row>
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C964" s="1"/>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C965" s="1"/>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C966" s="1"/>
+    </row>
+    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C967" s="1"/>
+    </row>
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C968" s="1"/>
+    </row>
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C969" s="1"/>
+    </row>
+    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C970" s="1"/>
+    </row>
+    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C971" s="1"/>
+    </row>
+    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C972" s="1"/>
+    </row>
+    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C973" s="1"/>
+    </row>
+    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C974" s="1"/>
+    </row>
+    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C975" s="1"/>
+    </row>
+    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C976" s="1"/>
+    </row>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C977" s="1"/>
+    </row>
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C978" s="1"/>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C979" s="1"/>
+    </row>
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C980" s="1"/>
+    </row>
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C981" s="1"/>
+    </row>
+    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C982" s="1"/>
+    </row>
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C983" s="1"/>
+    </row>
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C984" s="1"/>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C985" s="1"/>
+    </row>
+    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C986" s="1"/>
+    </row>
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C987" s="1"/>
+    </row>
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C988" s="1"/>
+    </row>
+    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C989" s="1"/>
+    </row>
+    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C990" s="1"/>
+    </row>
+    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C991" s="1"/>
+    </row>
+    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C992" s="1"/>
+    </row>
+    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C993" s="1"/>
+    </row>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C994" s="1"/>
+    </row>
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C995" s="1"/>
+    </row>
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C996" s="1"/>
+    </row>
+    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C997" s="1"/>
+    </row>
+    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C998" s="1"/>
+    </row>
+    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C999" s="1"/>
+    </row>
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1000" s="1"/>
+    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1001" s="1"/>
+    </row>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1002" s="1"/>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1003" s="1"/>
+    </row>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1004" s="1"/>
+    </row>
+    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1005" s="1"/>
+    </row>
+    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1006" s="1"/>
+    </row>
+    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1007" s="1"/>
+    </row>
+    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1008" s="1"/>
+    </row>
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1009" s="1"/>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1010" s="1"/>
+    </row>
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1011" s="1"/>
+    </row>
+    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1012" s="1"/>
+    </row>
+    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1013" s="1"/>
+    </row>
+    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1014" s="1"/>
+    </row>
+    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1015" s="1"/>
+    </row>
+    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1016" s="1"/>
+    </row>
+    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1017" s="1"/>
+    </row>
+    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1018" s="1"/>
+    </row>
+    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1019" s="1"/>
+    </row>
+    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1020" s="1"/>
+    </row>
+    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1021" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:AMJ1048576">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>TRUE()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C24 C26:C1021" type="list">
       <formula1>Styles</formula1>
@@ -2084,15 +5520,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ23"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.46"/>
   </cols>
@@ -2104,7 +5542,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2144,31 +5582,33 @@
         <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AMJ1" s="0"/>
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>22</v>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>26</v>
@@ -2177,21 +5617,22 @@
         <v>175</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="2" t="b">
+        <v>130</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L2" s="0" t="n">
@@ -2207,20 +5648,31 @@
         <f aca="false">2023-N2</f>
         <v>12</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="Q2" s="3" t="b">
+        <f aca="false">IF(B2&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="b">
         <f aca="false">IF(L2&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
+      <c r="S2" s="3" t="b">
+        <f aca="false">IF(B2=L2,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>130</v>
+      <c r="A3" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>30</v>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>26</v>
@@ -2229,16 +5681,16 @@
         <v>175</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>2</v>
@@ -2253,23 +5705,34 @@
         <f aca="false">2023-N3</f>
         <v>11</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q3" s="3" t="b">
+        <f aca="false">IF(B3&lt;11,TRUE(),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="b">
         <f aca="false">IF(L3&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="0" t="s">
-        <v>133</v>
+      <c r="S3" s="3" t="b">
+        <f aca="false">IF(B3=L3,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>134</v>
+      <c r="A4" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>30</v>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>24</v>
@@ -2278,16 +5741,16 @@
         <v>182</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>12</v>
@@ -2302,23 +5765,31 @@
         <f aca="false">2023-N4</f>
         <v>10</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="Q4" s="3" t="b">
+        <f aca="false">IF(B4&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="3" t="b">
         <f aca="false">IF(L4&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R4" s="0" t="s">
-        <v>85</v>
+      <c r="S4" s="3" t="b">
+        <f aca="false">IF(B4=L4,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>137</v>
+      <c r="A5" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>22</v>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>33</v>
@@ -2330,15 +5801,16 @@
         <v>8</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="K5" s="2" t="b">
+        <v>140</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L5" s="0" t="n">
@@ -2354,23 +5826,34 @@
         <f aca="false">2023-N5</f>
         <v>20</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="3" t="b">
+        <f aca="false">IF(B5&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="b">
         <f aca="false">IF(L5&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>140</v>
+      <c r="S5" s="3" t="b">
+        <f aca="false">IF(B5=L5,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>141</v>
+      <c r="A6" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>61</v>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>20</v>
@@ -2379,16 +5862,16 @@
         <v>178</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>19</v>
@@ -2403,26 +5886,34 @@
         <f aca="false">2023-N6</f>
         <v>5</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q6" s="3" t="b">
+        <f aca="false">IF(B6&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="b">
         <f aca="false">IF(L6&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>85</v>
+      <c r="S6" s="3" t="b">
+        <f aca="false">IF(B6=L6,TRUE(),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="T6" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>146</v>
+      <c r="A7" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>30</v>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>28</v>
@@ -2431,18 +5922,19 @@
         <v>175</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" s="2" t="b">
+        <v>149</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L7" s="0" t="n">
@@ -2458,32 +5950,38 @@
         <f aca="false">2023-N7</f>
         <v>12</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="3" t="b">
+        <f aca="false">IF(B7&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="b">
         <f aca="false">IF(L7&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="S7" s="2" t="b">
+      <c r="S7" s="3" t="b">
+        <f aca="false">IF(B7=L7,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>2022</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>150</v>
+      <c r="A8" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>22</v>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>27</v>
@@ -2492,19 +5990,19 @@
         <v>179</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>1</v>
@@ -2519,23 +6017,34 @@
         <f aca="false">2023-N8</f>
         <v>13</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="3" t="b">
+        <f aca="false">IF(B8&lt;11,TRUE(),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="b">
         <f aca="false">IF(L8&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>154</v>
+      <c r="S8" s="3" t="b">
+        <f aca="false">IF(B8=L8,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>155</v>
+      <c r="A9" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>22</v>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>32</v>
@@ -2544,21 +6053,22 @@
         <v>181</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="K9" s="2" t="b">
+        <v>158</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L9" s="0" t="n">
@@ -2574,23 +6084,34 @@
         <f aca="false">2023-N9</f>
         <v>18</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q9" s="3" t="b">
+        <f aca="false">IF(B9&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="b">
         <f aca="false">IF(L9&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="0" t="s">
-        <v>158</v>
+      <c r="S9" s="3" t="b">
+        <f aca="false">IF(B9=L9,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>159</v>
+      <c r="A10" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>61</v>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>22</v>
@@ -2599,19 +6120,19 @@
         <v>170</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>4</v>
@@ -2626,23 +6147,34 @@
         <f aca="false">2023-N10</f>
         <v>8</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q10" s="3" t="b">
+        <f aca="false">IF(B10&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="b">
         <f aca="false">IF(L10&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="0" t="s">
-        <v>162</v>
+      <c r="S10" s="3" t="b">
+        <f aca="false">IF(B10=L10,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>163</v>
+      <c r="A11" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>30</v>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>30</v>
@@ -2651,21 +6183,22 @@
         <v>175</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="K11" s="2" t="b">
+        <v>166</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L11" s="0" t="n">
@@ -2681,23 +6214,34 @@
         <f aca="false">2023-N11</f>
         <v>14</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q11" s="3" t="b">
+        <f aca="false">IF(B11&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="3" t="b">
         <f aca="false">IF(L11&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="0" t="s">
-        <v>166</v>
+      <c r="S11" s="3" t="b">
+        <f aca="false">IF(B11=L11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>167</v>
+      <c r="A12" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>30</v>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>25</v>
@@ -2706,19 +6250,19 @@
         <v>180</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>2</v>
@@ -2733,23 +6277,34 @@
         <f aca="false">2023-N12</f>
         <v>11</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q12" s="3" t="b">
+        <f aca="false">IF(B12&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="b">
         <f aca="false">IF(L12&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="Q12" s="0" t="s">
-        <v>170</v>
+      <c r="S12" s="3" t="b">
+        <f aca="false">IF(B12=L12,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>171</v>
+      <c r="A13" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>22</v>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>24</v>
@@ -2758,19 +6313,19 @@
         <v>180</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>24</v>
@@ -2785,23 +6340,34 @@
         <f aca="false">2023-N13</f>
         <v>10</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q13" s="3" t="b">
+        <f aca="false">IF(B13&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="3" t="b">
         <f aca="false">IF(L13&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="0" t="s">
-        <v>175</v>
+      <c r="S13" s="3" t="b">
+        <f aca="false">IF(B13=L13,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>176</v>
+      <c r="A14" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>61</v>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>29</v>
@@ -2810,18 +6376,19 @@
         <v>174</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="K14" s="2" t="b">
+        <v>180</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L14" s="0" t="n">
@@ -2837,23 +6404,34 @@
         <f aca="false">2023-N14</f>
         <v>14</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q14" s="3" t="b">
+        <f aca="false">IF(B14&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="b">
         <f aca="false">IF(L14&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>180</v>
+      <c r="S14" s="3" t="b">
+        <f aca="false">IF(B14=L14,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>181</v>
+      <c r="A15" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>30</v>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>22</v>
@@ -2862,13 +6440,13 @@
         <v>178</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>43</v>
@@ -2883,26 +6461,34 @@
         <f aca="false">2023-N15</f>
         <v>7</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q15" s="3" t="b">
+        <f aca="false">IF(B15&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="b">
         <f aca="false">IF(L15&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>85</v>
+      <c r="S15" s="3" t="b">
+        <f aca="false">IF(B15=L15,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>185</v>
+      <c r="A16" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>61</v>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>26</v>
@@ -2911,19 +6497,19 @@
         <v>180</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>19</v>
@@ -2938,23 +6524,34 @@
         <f aca="false">2023-N16</f>
         <v>10</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q16" s="3" t="b">
+        <f aca="false">IF(B16&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="3" t="b">
         <f aca="false">IF(L16&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="3" t="s">
-        <v>188</v>
+      <c r="S16" s="3" t="b">
+        <f aca="false">IF(B16=L16,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>189</v>
+      <c r="A17" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>61</v>
+      <c r="C17" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>21</v>
@@ -2963,19 +6560,19 @@
         <v>181</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>11</v>
@@ -2990,23 +6587,34 @@
         <f aca="false">2023-N17</f>
         <v>7</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q17" s="3" t="b">
+        <f aca="false">IF(B17&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="b">
         <f aca="false">IF(L17&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="0" t="s">
-        <v>192</v>
+      <c r="S17" s="3" t="b">
+        <f aca="false">IF(B17=L17,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>193</v>
+      <c r="A18" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>30</v>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>24</v>
@@ -3015,15 +6623,16 @@
         <v>179</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="J18" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K18" s="2" t="b">
+      <c r="J18" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L18" s="0" t="n">
@@ -3039,23 +6648,34 @@
         <f aca="false">2023-N18</f>
         <v>8</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q18" s="3" t="b">
+        <f aca="false">IF(B18&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="b">
         <f aca="false">IF(L18&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="0" t="s">
-        <v>184</v>
+      <c r="S18" s="3" t="b">
+        <f aca="false">IF(B18=L18,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>196</v>
+      <c r="A19" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>319</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>22</v>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>34</v>
@@ -3064,15 +6684,16 @@
         <v>170</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="J19" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="K19" s="2" t="b">
+      <c r="J19" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L19" s="0" t="n">
@@ -3088,23 +6709,34 @@
         <f aca="false">2023-N19</f>
         <v>19</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q19" s="3" t="b">
+        <f aca="false">IF(B19&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="3" t="b">
         <f aca="false">IF(L19&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="3" t="s">
-        <v>199</v>
+      <c r="S19" s="3" t="b">
+        <f aca="false">IF(B19=L19,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>200</v>
+      <c r="A20" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>61</v>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>32</v>
@@ -3113,21 +6745,22 @@
         <v>175</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="K20" s="2" t="b">
+        <v>203</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L20" s="0" t="n">
@@ -3143,29 +6776,38 @@
         <f aca="false">2023-N20</f>
         <v>19</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q20" s="3" t="b">
+        <f aca="false">IF(B20&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="b">
         <f aca="false">IF(L20&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="S20" s="2" t="b">
+      <c r="S20" s="3" t="b">
+        <f aca="false">IF(B20=L20,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>204</v>
+      <c r="A21" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>22</v>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>28</v>
@@ -3174,18 +6816,19 @@
         <v>178</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="K21" s="2" t="b">
+        <v>207</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L21" s="0" t="n">
@@ -3201,26 +6844,34 @@
         <f aca="false">2023-N21</f>
         <v>14</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q21" s="3" t="b">
+        <f aca="false">IF(B21&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="3" t="b">
         <f aca="false">IF(L21&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="R21" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>208</v>
+      <c r="S21" s="3" t="b">
+        <f aca="false">IF(B21=L21,TRUE(),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="T21" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>22</v>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>27</v>
@@ -3229,19 +6880,19 @@
         <v>173</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>43</v>
@@ -3256,23 +6907,34 @@
         <f aca="false">2023-N22</f>
         <v>14</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q22" s="3" t="b">
+        <f aca="false">IF(B22&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="b">
         <f aca="false">IF(L22&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>211</v>
+      <c r="S22" s="3" t="b">
+        <f aca="false">IF(B22=L22,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>212</v>
+      <c r="A23" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>508</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>22</v>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>28</v>
@@ -3281,19 +6943,19 @@
         <v>174</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>3</v>
@@ -3308,18 +6970,35 @@
         <f aca="false">2023-N23</f>
         <v>15</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q23" s="3" t="b">
+        <f aca="false">IF(B23&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="3" t="b">
         <f aca="false">IF(L23&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="R23" s="0" t="s">
-        <v>217</v>
+      <c r="S23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="T23">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AMJ1048576">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>TRUE()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1" type="list">
       <formula1>Styles</formula1>
@@ -3347,11 +7026,11 @@
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.45"/>
   </cols>
@@ -3363,22 +7042,22 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/Competitors.xlsx
+++ b/backend/data/Competitors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors-Male" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="265">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
@@ -96,6 +96,12 @@
     <t xml:space="preserve">Libema Winning Year</t>
   </si>
   <si>
+    <t xml:space="preserve">ImageURL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daniil Medvedev</t>
   </si>
   <si>
@@ -120,6 +126,12 @@
     <t xml:space="preserve">Gilles Cervara</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/medvedev-full-2022-may.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
     <t xml:space="preserve">Felix Auger-Aliassime</t>
   </si>
   <si>
@@ -141,6 +153,9 @@
     <t xml:space="preserve">Frederic Fontang, Toni Nadal</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/auger-aliassime-full-2022-may-new.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Borna Coric</t>
   </si>
   <si>
@@ -156,6 +171,9 @@
     <t xml:space="preserve">Mate Delic</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/coric-full-2022-may.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alex de Minaur</t>
   </si>
   <si>
@@ -171,6 +189,9 @@
     <t xml:space="preserve">Adolfo Gutierrez</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/deminaur-full-2022-june-final.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pablo Carreno Busta</t>
   </si>
   <si>
@@ -186,6 +207,9 @@
     <t xml:space="preserve">Samuel Lopez, Jose Antonio Sanchez-de Luna</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/carreno-busta-full-2022-may.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marin Cilic</t>
   </si>
   <si>
@@ -201,6 +225,27 @@
     <t xml:space="preserve">Ivan Cinkus, Vilim Visak</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://libema-open.nl/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/wp-content/uploads/2023/05/cilic-full-2022-may.png</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Roberto Bautista Agut</t>
   </si>
   <si>
@@ -213,6 +258,27 @@
     <t xml:space="preserve">Daniel Gimeno-Traver, Felix Mantilla</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://libema-open.nl/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wp-content/uploads/2023/05/bautista-agut-full-2022-may.png</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Botic van de Zandschulp</t>
   </si>
   <si>
@@ -231,6 +297,27 @@
     <t xml:space="preserve">Peter Lucassen</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://libema-open.nl/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wp-content/uploads/2023/05/van-de-zandschulp-full-2022-may.png</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Milos Raonic</t>
   </si>
   <si>
@@ -249,6 +336,9 @@
     <t xml:space="preserve">Comeback</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/raonic_full_ao20.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tallon Griekspoor</t>
   </si>
   <si>
@@ -261,6 +351,9 @@
     <t xml:space="preserve">Kristof Vliegen</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/griekspoor-full-2022-may.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Miomir Kecmanovic</t>
   </si>
   <si>
@@ -276,6 +369,9 @@
     <t xml:space="preserve">Wayne Black, Ivan Cinkus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/kecmanovic_full_2022_october-1.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bernabe Zapata Miralles</t>
   </si>
   <si>
@@ -288,6 +384,9 @@
     <t xml:space="preserve">Samuel Ribeiro</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/zapata_miralles_full_2022.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maxime Cressy</t>
   </si>
   <si>
@@ -303,6 +402,9 @@
     <t xml:space="preserve">Alexandre Sidorenko, Juanjo Climent, Andrew Mawire </t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/cressy-full-2022-june.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emil Ruusuvuori</t>
   </si>
   <si>
@@ -318,6 +420,9 @@
     <t xml:space="preserve">Federico Ricci</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/ruusuvuori_full_2023.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adrian Mannarino</t>
   </si>
   <si>
@@ -339,6 +444,9 @@
     <t xml:space="preserve">Erwann Tortuyaux</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/mannarino-full-2022-may.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brandon Nakashima</t>
   </si>
   <si>
@@ -351,6 +459,9 @@
     <t xml:space="preserve">Edwardo Infantino</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/nakashima-full-2022-may.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alexander Bublik</t>
   </si>
   <si>
@@ -366,6 +477,9 @@
     <t xml:space="preserve">Artem Suprunov</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/bublik_full_2023_update.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ugo Humbert</t>
   </si>
   <si>
@@ -378,6 +492,9 @@
     <t xml:space="preserve">Jeremy Chardy</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/humbert-full-2022-june.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mikael Ymer</t>
   </si>
   <si>
@@ -393,6 +510,9 @@
     <t xml:space="preserve">Daniel Berta</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/ymer_m_full_ao20.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tim van Rijthoven</t>
   </si>
   <si>
@@ -408,6 +528,9 @@
     <t xml:space="preserve">Igor Sijsling</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2022/05/van_rijthoven_tim_head_pp19.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Belinda Bencic</t>
   </si>
   <si>
@@ -420,6 +543,12 @@
     <t xml:space="preserve">Bencic possesses a versatile game marked by excellent court coverage and an ability to change direction of the ball with ease. Her smart tactical sense allows her to construct points effectively, often outmaneuvering her opponents with precise shot placement.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Bencic_Hero-Smile.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
     <t xml:space="preserve">Veronika Kudermetova</t>
   </si>
   <si>
@@ -432,6 +561,9 @@
     <t xml:space="preserve">Sergey Demekhine, Vladimir Platenik</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Kudermetova_Hero-Smile.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liudmila Samsonova</t>
   </si>
   <si>
@@ -441,6 +573,9 @@
     <t xml:space="preserve">Samsonova is known for her aggressive game. She has powerful groundstrokes from both wings and a strong serve, which allows her to dictate play and keep opponents on the back foot.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Samsonova_Crop.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Victoria Azarenka</t>
   </si>
   <si>
@@ -453,6 +588,9 @@
     <t xml:space="preserve">Maxime Tchoutakian</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/azarenka.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Qinwen Zheng</t>
   </si>
   <si>
@@ -468,6 +606,9 @@
     <t xml:space="preserve">Pedro Riba Madrid</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Zheng-Torso_328120.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ekaterina Alexandrova</t>
   </si>
   <si>
@@ -480,6 +621,9 @@
     <t xml:space="preserve">Evgeny Alexandrova</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Alexandrova_Hero-Smile.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elise Mertens</t>
   </si>
   <si>
@@ -495,6 +639,9 @@
     <t xml:space="preserve">Alexander Kneepkens</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Mertens_Hero-Smile.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Petra Martic</t>
   </si>
   <si>
@@ -507,6 +654,9 @@
     <t xml:space="preserve">Michael Geserer</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Martic_Hero-Smile.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bianca Andreescu</t>
   </si>
   <si>
@@ -519,6 +669,9 @@
     <t xml:space="preserve">Christphe Lambert</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Andreescu_crop.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shelby Rogers</t>
   </si>
   <si>
@@ -531,16 +684,7 @@
     <t xml:space="preserve">Piotr Sierzputowski</t>
   </si>
   <si>
-    <t xml:space="preserve">Paula Badosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fighter, personality (magazines, TV shows, etc.), groundstrokes, consistency, serve, aggressive, footwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badosa is a consistent baseline player with a strong forehand. She has a patient game style, often waiting for the right opportunity to attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Garcia</t>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Rogers-Torso_317421.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Marie Bouzkova</t>
@@ -558,6 +702,9 @@
     <t xml:space="preserve">Cristian Requeni, Milan Bouzek</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/QcvLKQRa.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aliaksandra Sasnovich</t>
   </si>
   <si>
@@ -573,6 +720,9 @@
     <t xml:space="preserve">Dzmitry Klimenko</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/MLBGcqtM.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Varvara Gracheva</t>
   </si>
   <si>
@@ -585,6 +735,9 @@
     <t xml:space="preserve">Xavier Pujo</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Gracheva_crop.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Karolina Muchova</t>
   </si>
   <si>
@@ -597,6 +750,9 @@
     <t xml:space="preserve">David Kotyza</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Muchova_Hero-Smile.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Caty Mcnally</t>
   </si>
   <si>
@@ -609,6 +765,9 @@
     <t xml:space="preserve">Kevin O’Neill</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/McNally_Crop.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anna Blinkova</t>
   </si>
   <si>
@@ -618,6 +777,9 @@
     <t xml:space="preserve">Anna Blinkova is a solid all-court player known for her powerful groundstrokes. Her aggressive style of play often sees her taking the ball on the rise and aiming for the lines. Blinkova has shown that she can compete at the top level and has recorded victories against higher-ranked opponents. Her ability to generate power from both wings and her willingness to attack and dictate play are key elements of her game.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/LiQQMObq.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Evgeniya Rodina</t>
   </si>
   <si>
@@ -630,6 +792,9 @@
     <t xml:space="preserve">Oxana Mishikova</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/KxenXejL.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alison Riske-Amritraj</t>
   </si>
   <si>
@@ -642,6 +807,9 @@
     <t xml:space="preserve">Thomas Gutteridge</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/SuWqgWYb.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ysaline Bonaventure</t>
   </si>
   <si>
@@ -654,6 +822,9 @@
     <t xml:space="preserve">Hugo Guerriero</t>
   </si>
   <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/fNpQoEOl.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rebecca Peterson</t>
   </si>
   <si>
@@ -664,6 +835,27 @@
   </si>
   <si>
     <t xml:space="preserve">Mart Peterson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/ODTCCbpp.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna-Lena Friedsam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">groundstrokes, aggressive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna-Lena Friedsam is an aggressive baseliner who relies on her powerful groundstrokes to dictate play. She looks to take control of the rallies by hitting aggressive shots and going for winners. At the same time, she has the ability to defend and counter-punch effectively, adjusting her game according to the situation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrice Hopfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Friedsam_Crop.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Elina Svitolina</t>
@@ -693,7 +885,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -714,6 +906,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -764,7 +963,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -781,11 +980,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -881,14 +1084,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W1021"/>
+  <dimension ref="A1:Y1021"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="bottomRight" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -901,6 +1104,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,16 +1177,22 @@
       <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>27</v>
@@ -991,19 +1201,19 @@
         <v>198</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1035,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U2" s="0" t="str">
         <f aca="false">IF(B2=M2,"All time high","")</f>
@@ -1045,16 +1255,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>22</v>
@@ -1063,22 +1279,22 @@
         <v>193</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1110,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U3" s="0" t="str">
         <f aca="false">IF(B3=M3,"All time high","")</f>
@@ -1120,16 +1336,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>26</v>
@@ -1138,22 +1360,22 @@
         <v>188</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1185,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="U4" s="0" t="str">
         <f aca="false">IF(B4=M4,"All time high","")</f>
@@ -1195,16 +1417,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>24</v>
@@ -1213,22 +1441,22 @@
         <v>183</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L5" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -1260,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="U5" s="0" t="str">
         <f aca="false">IF(B5=M5,"All time high","")</f>
@@ -1270,16 +1498,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>31</v>
@@ -1288,22 +1522,22 @@
         <v>188</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1335,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="U6" s="0" t="str">
         <f aca="false">IF(B6=M6,"All time high","")</f>
@@ -1345,16 +1579,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>34</v>
@@ -1363,22 +1603,22 @@
         <v>198</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L7" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -1410,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="U7" s="0" t="str">
         <f aca="false">IF(B7=M7,"All time high","")</f>
@@ -1420,16 +1660,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>35</v>
@@ -1438,22 +1684,22 @@
         <v>193</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>9</v>
@@ -1481,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="U8" s="0" t="str">
         <f aca="false">IF(B8=M8,"All time high","")</f>
@@ -1493,16 +1739,22 @@
       <c r="W8" s="0" t="n">
         <v>2014</v>
       </c>
+      <c r="X8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>27</v>
@@ -1511,22 +1763,22 @@
         <v>191</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="L9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1558,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="U9" s="0" t="str">
         <f aca="false">IF(B9=M9,"All time high","")</f>
@@ -1568,16 +1820,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>32</v>
@@ -1586,22 +1844,22 @@
         <v>196</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>3</v>
@@ -1629,25 +1887,31 @@
         <v>0</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="V10" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>26</v>
@@ -1656,22 +1920,22 @@
         <v>188</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="L11" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1703,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="U11" s="0" t="str">
         <f aca="false">IF(B11=M11,"All time high","")</f>
@@ -1713,16 +1977,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>23</v>
@@ -1731,22 +2001,22 @@
         <v>183</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="L12" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1778,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="U12" s="0" t="str">
         <f aca="false">IF(B12=M12,"All time high","")</f>
@@ -1788,16 +2058,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>26</v>
@@ -1806,22 +2082,22 @@
         <v>183</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="L13" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1853,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="U13" s="0" t="str">
         <f aca="false">IF(B13=M13,"All time high","")</f>
@@ -1863,16 +2139,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>26</v>
@@ -1881,22 +2163,22 @@
         <v>201</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="L14" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -1927,8 +2209,8 @@
         <f aca="false">IF(B14=M14,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T14" s="4" t="s">
-        <v>91</v>
+      <c r="T14" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="U14" s="0" t="str">
         <f aca="false">IF(B14=M14,"All time high","")</f>
@@ -1938,16 +2220,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>24</v>
@@ -1956,22 +2244,22 @@
         <v>188</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>95</v>
+        <v>110</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="L15" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -2003,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="U15" s="0" t="str">
         <f aca="false">IF(B15=M15,"All time high","")</f>
@@ -2013,16 +2301,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>34</v>
@@ -2031,22 +2325,22 @@
         <v>180</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="L16" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -2078,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="U16" s="0" t="str">
         <f aca="false">IF(B16=M16,"All time high","")</f>
@@ -2091,16 +2385,22 @@
       <c r="W16" s="0" t="n">
         <v>2019</v>
       </c>
+      <c r="X16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>21</v>
@@ -2109,22 +2409,22 @@
         <v>188</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="L17" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -2156,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="U17" s="0" t="str">
         <f aca="false">IF(B17=M17,"All time high","")</f>
@@ -2166,16 +2466,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>25</v>
@@ -2184,22 +2490,22 @@
         <v>196</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="L18" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -2231,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="U18" s="0" t="str">
         <f aca="false">IF(B18=M18,"All time high","")</f>
@@ -2241,16 +2547,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>24</v>
@@ -2259,22 +2571,22 @@
         <v>188</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="L19" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -2306,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="U19" s="0" t="str">
         <f aca="false">IF(B19=M19,"All time high","")</f>
@@ -2316,16 +2628,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>24</v>
@@ -2334,22 +2652,22 @@
         <v>183</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="L20" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -2381,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="U20" s="0" t="str">
         <f aca="false">IF(B20=M20,"All time high","")</f>
@@ -2391,16 +2709,22 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="X20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>157</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>26</v>
@@ -2409,22 +2733,22 @@
         <v>188</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="L21" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -2456,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="U21" s="0" t="str">
         <f aca="false">IF(B21=M21,"All time high","")</f>
@@ -2468,6 +2792,12 @@
       </c>
       <c r="W21" s="0" t="n">
         <v>2022</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5505,6 +5835,24 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="X6" r:id="rId1" display="https://libema-open.nl/wp-content/uploads/2023/05/carreno-busta-full-2022-may.png"/>
+    <hyperlink ref="X7" r:id="rId2" display="https://libema-open.nl/"/>
+    <hyperlink ref="X8" r:id="rId3" display="https://libema-open.nl/"/>
+    <hyperlink ref="X9" r:id="rId4" display="https://libema-open.nl/"/>
+    <hyperlink ref="X10" r:id="rId5" display="https://libema-open.nl/wp-content/uploads/2023/05/raonic_full_ao20.png"/>
+    <hyperlink ref="X11" r:id="rId6" display="https://libema-open.nl/wp-content/uploads/2023/05/griekspoor-full-2022-may.png"/>
+    <hyperlink ref="X12" r:id="rId7" display="https://libema-open.nl/wp-content/uploads/2023/05/kecmanovic_full_2022_october-1.png"/>
+    <hyperlink ref="X13" r:id="rId8" display="https://libema-open.nl/wp-content/uploads/2023/05/zapata_miralles_full_2022.png"/>
+    <hyperlink ref="X14" r:id="rId9" display="https://libema-open.nl/wp-content/uploads/2023/05/cressy-full-2022-june.png"/>
+    <hyperlink ref="X15" r:id="rId10" display="https://libema-open.nl/wp-content/uploads/2023/05/ruusuvuori_full_2023.png"/>
+    <hyperlink ref="X16" r:id="rId11" display="https://libema-open.nl/wp-content/uploads/2023/05/mannarino-full-2022-may.png"/>
+    <hyperlink ref="X17" r:id="rId12" display="https://libema-open.nl/wp-content/uploads/2023/05/nakashima-full-2022-may.png"/>
+    <hyperlink ref="X18" r:id="rId13" display="https://libema-open.nl/wp-content/uploads/2023/05/bublik_full_2023_update.png"/>
+    <hyperlink ref="X19" r:id="rId14" display="https://libema-open.nl/wp-content/uploads/2023/05/humbert-full-2022-june.png"/>
+    <hyperlink ref="X20" r:id="rId15" display="https://libema-open.nl/wp-content/uploads/2023/05/ymer_m_full_ao20.png"/>
+    <hyperlink ref="X21" r:id="rId16" display="https://libema-open.nl/wp-content/uploads/2022/05/van_rijthoven_tim_head_pp19.png"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5520,19 +5868,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="V3" activeCellId="0" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.34"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5599,16 +5948,22 @@
       <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="V1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>26</v>
@@ -5617,19 +5972,19 @@
         <v>175</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="K2" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -5663,16 +6018,22 @@
       <c r="T2" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="V2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>131</v>
+      <c r="A3" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>26</v>
@@ -5681,16 +6042,16 @@
         <v>175</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>2</v>
@@ -5706,7 +6067,7 @@
         <v>11</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="Q3" s="3" t="b">
         <f aca="false">IF(B3&lt;11,TRUE(),FALSE())</f>
@@ -5723,16 +6084,22 @@
       <c r="T3" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="V3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>135</v>
+      <c r="A4" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>24</v>
@@ -5741,16 +6108,16 @@
         <v>182</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>12</v>
@@ -5780,16 +6147,22 @@
       <c r="T4" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="V4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>138</v>
+      <c r="A5" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>33</v>
@@ -5801,13 +6174,13 @@
         <v>8</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="K5" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -5826,8 +6199,8 @@
         <f aca="false">2023-N5</f>
         <v>20</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>141</v>
+      <c r="P5" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="Q5" s="3" t="b">
         <f aca="false">IF(B5&lt;11,TRUE(),FALSE())</f>
@@ -5844,16 +6217,22 @@
       <c r="T5" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="V5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>142</v>
+      <c r="A6" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>20</v>
@@ -5862,16 +6241,16 @@
         <v>178</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>19</v>
@@ -5886,8 +6265,8 @@
         <f aca="false">2023-N6</f>
         <v>5</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>146</v>
+      <c r="P6" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="Q6" s="3" t="b">
         <f aca="false">IF(B6&lt;11,TRUE(),FALSE())</f>
@@ -5904,16 +6283,22 @@
       <c r="T6" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="V6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>147</v>
+      <c r="A7" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>28</v>
@@ -5922,16 +6307,16 @@
         <v>175</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="K7" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -5951,7 +6336,7 @@
         <v>12</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="3" t="b">
         <f aca="false">IF(B7&lt;11,TRUE(),FALSE())</f>
@@ -5972,16 +6357,22 @@
       <c r="U7" s="0" t="n">
         <v>2022</v>
       </c>
+      <c r="V7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>151</v>
+      <c r="A8" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>27</v>
@@ -5990,19 +6381,19 @@
         <v>179</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>1</v>
@@ -6017,8 +6408,8 @@
         <f aca="false">2023-N8</f>
         <v>13</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>155</v>
+      <c r="P8" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="Q8" s="3" t="b">
         <f aca="false">IF(B8&lt;11,TRUE(),FALSE())</f>
@@ -6035,16 +6426,22 @@
       <c r="T8" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="V8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>156</v>
+      <c r="A9" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>32</v>
@@ -6053,19 +6450,19 @@
         <v>181</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="K9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -6085,7 +6482,7 @@
         <v>18</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="Q9" s="3" t="b">
         <f aca="false">IF(B9&lt;11,TRUE(),FALSE())</f>
@@ -6102,16 +6499,22 @@
       <c r="T9" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="V9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>160</v>
+      <c r="A10" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>22</v>
@@ -6120,19 +6523,19 @@
         <v>170</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>4</v>
@@ -6148,7 +6551,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="3" t="b">
         <f aca="false">IF(B10&lt;11,TRUE(),FALSE())</f>
@@ -6165,16 +6568,22 @@
       <c r="T10" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="V10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>164</v>
+      <c r="A11" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>30</v>
@@ -6183,19 +6592,19 @@
         <v>175</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="K11" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -6215,7 +6624,7 @@
         <v>14</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="3" t="b">
         <f aca="false">IF(B11&lt;11,TRUE(),FALSE())</f>
@@ -6232,53 +6641,59 @@
       <c r="T11" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="V11" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>168</v>
+      <c r="A12" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>180</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="O12" s="0" t="n">
         <f aca="false">2023-N12</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="Q12" s="3" t="b">
         <f aca="false">IF(B12&lt;11,TRUE(),FALSE())</f>
@@ -6286,7 +6701,7 @@
       </c>
       <c r="R12" s="3" t="b">
         <f aca="false">IF(L12&lt;11,TRUE(),FALSE())</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3" t="b">
         <f aca="false">IF(B12=L12,TRUE(),FALSE())</f>
@@ -6295,53 +6710,60 @@
       <c r="T12" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>172</v>
+      <c r="V12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>175</v>
+        <v>211</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="O13" s="0" t="n">
         <f aca="false">2023-N13</f>
-        <v>10</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>176</v>
+        <v>14</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="Q13" s="3" t="b">
         <f aca="false">IF(B13&lt;11,TRUE(),FALSE())</f>
@@ -6358,54 +6780,53 @@
       <c r="T13" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="V13" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>177</v>
+      <c r="A14" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>174</v>
-      </c>
-      <c r="G14" s="0" t="s">
         <v>178</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="O14" s="0" t="n">
         <f aca="false">2023-N14</f>
-        <v>14</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>181</v>
+        <v>7</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>217</v>
       </c>
       <c r="Q14" s="3" t="b">
         <f aca="false">IF(B14&lt;11,TRUE(),FALSE())</f>
@@ -6422,47 +6843,59 @@
       <c r="T14" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="V14" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>182</v>
+      <c r="A15" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="O15" s="0" t="n">
         <f aca="false">2023-N15</f>
-        <v>7</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>185</v>
+        <v>10</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="Q15" s="3" t="b">
         <f aca="false">IF(B15&lt;11,TRUE(),FALSE())</f>
@@ -6479,53 +6912,59 @@
       <c r="T15" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>186</v>
+      <c r="V15" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="O16" s="0" t="n">
         <f aca="false">2023-N16</f>
-        <v>10</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>189</v>
+        <v>7</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>227</v>
       </c>
       <c r="Q16" s="3" t="b">
         <f aca="false">IF(B16&lt;11,TRUE(),FALSE())</f>
@@ -6542,53 +6981,57 @@
       <c r="T16" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="V16" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>190</v>
+      <c r="A17" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>181</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>192</v>
+        <v>230</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="O17" s="0" t="n">
         <f aca="false">2023-N17</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="3" t="b">
         <f aca="false">IF(B17&lt;11,TRUE(),FALSE())</f>
@@ -6605,51 +7048,57 @@
       <c r="T17" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>194</v>
+      <c r="V17" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>66</v>
+        <v>319</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>196</v>
+        <v>234</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="K18" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="O18" s="0" t="n">
         <f aca="false">2023-N18</f>
-        <v>8</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>185</v>
+        <v>19</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="Q18" s="3" t="b">
         <f aca="false">IF(B18&lt;11,TRUE(),FALSE())</f>
@@ -6666,38 +7115,50 @@
       <c r="T18" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="V18" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>197</v>
+      <c r="A19" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>319</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>170</v>
+        <v>175</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>199</v>
+        <v>239</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>240</v>
       </c>
       <c r="K19" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>2019</v>
@@ -6709,8 +7170,8 @@
         <f aca="false">2023-N19</f>
         <v>19</v>
       </c>
-      <c r="P19" s="4" t="s">
-        <v>200</v>
+      <c r="P19" s="0" t="s">
+        <v>241</v>
       </c>
       <c r="Q19" s="3" t="b">
         <f aca="false">IF(B19&lt;11,TRUE(),FALSE())</f>
@@ -6724,60 +7185,67 @@
         <f aca="false">IF(B19=L19,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T19" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>175</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="K20" s="2" t="n">
+      <c r="T19" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
+      <c r="U19" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
       <c r="L20" s="0" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="O20" s="0" t="n">
         <f aca="false">2023-N20</f>
-        <v>19</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>204</v>
+        <v>14</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="Q20" s="3" t="b">
         <f aca="false">IF(B20&lt;11,TRUE(),FALSE())</f>
@@ -6789,53 +7257,57 @@
       </c>
       <c r="S20" s="3" t="b">
         <f aca="false">IF(B20=L20,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="2" t="n">
-        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="T20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="K21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="M21" s="0" t="n">
         <v>2019</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>178</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>2023</v>
       </c>
       <c r="N21" s="0" t="n">
         <v>2009</v>
@@ -6844,8 +7316,8 @@
         <f aca="false">2023-N21</f>
         <v>14</v>
       </c>
-      <c r="P21" s="4" t="s">
-        <v>208</v>
+      <c r="P21" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="Q21" s="3" t="b">
         <f aca="false">IF(B21&lt;11,TRUE(),FALSE())</f>
@@ -6857,58 +7329,64 @@
       </c>
       <c r="S21" s="3" t="b">
         <f aca="false">IF(B21=L21,TRUE(),FALSE())</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>209</v>
+      <c r="V21" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>211</v>
+        <v>256</v>
+      </c>
+      <c r="K22" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="O22" s="0" t="n">
         <f aca="false">2023-N22</f>
-        <v>14</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>212</v>
+        <v>12</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="Q22" s="3" t="b">
         <f aca="false">IF(B22&lt;11,TRUE(),FALSE())</f>
@@ -6925,16 +7403,22 @@
       <c r="T22" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="V22" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>213</v>
+      <c r="A23" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>508</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>28</v>
@@ -6943,19 +7427,19 @@
         <v>174</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>3</v>
@@ -6971,7 +7455,7 @@
         <v>15</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="3" t="b">
         <f aca="false">IF(B23&lt;11,TRUE(),FALSE())</f>
@@ -6986,6 +7470,12 @@
       </c>
       <c r="T23" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -7009,6 +7499,30 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="V2" r:id="rId1" display="https://libema-open.nl/wp-content/uploads/2023/05/Bencic_Hero-Smile.webp"/>
+    <hyperlink ref="V3" r:id="rId2" display="https://libema-open.nl/wp-content/uploads/2023/05/Kudermetova_Hero-Smile.webp"/>
+    <hyperlink ref="V4" r:id="rId3" display="https://libema-open.nl/wp-content/uploads/2023/05/Samsonova_Crop.webp"/>
+    <hyperlink ref="V5" r:id="rId4" display="https://libema-open.nl/wp-content/uploads/2023/05/azarenka.webp"/>
+    <hyperlink ref="V6" r:id="rId5" display="https://libema-open.nl/wp-content/uploads/2023/05/Zheng-Torso_328120.webp"/>
+    <hyperlink ref="V7" r:id="rId6" display="https://libema-open.nl/wp-content/uploads/2023/05/Alexandrova_Hero-Smile.webp"/>
+    <hyperlink ref="V8" r:id="rId7" display="https://libema-open.nl/wp-content/uploads/2023/05/Mertens_Hero-Smile.webp"/>
+    <hyperlink ref="V9" r:id="rId8" display="https://libema-open.nl/wp-content/uploads/2023/05/Martic_Hero-Smile.webp"/>
+    <hyperlink ref="V10" r:id="rId9" display="https://libema-open.nl/wp-content/uploads/2023/05/Andreescu_crop.webp"/>
+    <hyperlink ref="V11" r:id="rId10" display="https://libema-open.nl/wp-content/uploads/2023/05/Rogers-Torso_317421.webp"/>
+    <hyperlink ref="V12" r:id="rId11" display="https://libema-open.nl/wp-content/uploads/2023/05/QcvLKQRa.webp"/>
+    <hyperlink ref="V13" r:id="rId12" display="https://libema-open.nl/wp-content/uploads/2023/05/MLBGcqtM.webp"/>
+    <hyperlink ref="V14" r:id="rId13" display="https://libema-open.nl/wp-content/uploads/2023/05/Gracheva_crop.webp"/>
+    <hyperlink ref="V15" r:id="rId14" display="https://libema-open.nl/wp-content/uploads/2023/05/Muchova_Hero-Smile.webp"/>
+    <hyperlink ref="V16" r:id="rId15" display="https://libema-open.nl/wp-content/uploads/2023/05/McNally_Crop.webp"/>
+    <hyperlink ref="V17" r:id="rId16" display="https://libema-open.nl/wp-content/uploads/2023/05/LiQQMObq.webp"/>
+    <hyperlink ref="V18" r:id="rId17" display="https://libema-open.nl/wp-content/uploads/2023/05/KxenXejL.webp"/>
+    <hyperlink ref="V19" r:id="rId18" display="https://libema-open.nl/wp-content/uploads/2023/05/SuWqgWYb.webp"/>
+    <hyperlink ref="V20" r:id="rId19" display="https://libema-open.nl/wp-content/uploads/2023/05/fNpQoEOl.webp"/>
+    <hyperlink ref="V21" r:id="rId20" display="https://libema-open.nl/wp-content/uploads/2023/05/ODTCCbpp.webp"/>
+    <hyperlink ref="V22" r:id="rId21" display="https://libema-open.nl/wp-content/uploads/2023/05/Friedsam_Crop.webp"/>
+    <hyperlink ref="V23" r:id="rId22" display="https://libema-open.nl/wp-content/uploads/2023/05/ODTCCbpp.webp"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7037,27 +7551,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/Competitors.xlsx
+++ b/backend/data/Competitors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors-Male" sheetId="1" state="visible" r:id="rId2"/>
@@ -120,7 +120,7 @@
     <t xml:space="preserve">Funny, outspoken, Analytical, Unorthodox, Defensive Baseliner</t>
   </si>
   <si>
-    <t xml:space="preserve">Medvedev is known for his counter-punching style and excellent defensive play. His flat and deep shots, combined with his exceptional court coverage, make him a tough player to beat. He's also known for his tactical intelligence, often adjusting his game plan mid-match to exploit his opponents' weaknesses.</t>
+    <t xml:space="preserve">“Medvedev is known for his counter-punching style and excellent defensive play. His flat and deep shots, combined with his exceptional court coverage, make him a tough player to beat. He's also known for his tactical intelligence, often adjusting his game plan mid-match to exploit his opponents' weaknesses."</t>
   </si>
   <si>
     <t xml:space="preserve">Gilles Cervara</t>
@@ -147,7 +147,7 @@
     <t xml:space="preserve">Mr. Nice Guy, powerful serve, powerful forehand, Athletic, Powerful, Emotiona</t>
   </si>
   <si>
-    <t xml:space="preserve">Auger-Aliassime is an athletic player with a complete game. His serve and forehand are his biggest weapons, but he's also known for his speed and agility, allowing him to defend well. He's still maturing in terms of strategy, but his raw talent and physical attributes make him a serious threat.</t>
+    <t xml:space="preserve">“Auger-Aliassime is an athletic player with a complete game. His serve and forehand are his biggest weapons, but he's also known for his speed and agility, allowing him to defend well. He's still maturing in terms of strategy, but his raw talent and physical attributes make him a serious threat."</t>
   </si>
   <si>
     <t xml:space="preserve">Frederic Fontang, Toni Nadal</t>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">Hard worker, physical, good looking, Defensive Baseliner, Mentally Tough</t>
   </si>
   <si>
-    <t xml:space="preserve"> Coric is a steady baseliner known for his mental toughness and solid groundstrokes. He's not the most aggressive player, but his consistency and ability to absorb and redirect pace can frustrate opponents. His game is characterized by strategic point construction and patience.</t>
+    <t xml:space="preserve">“Coric is a steady baseliner known for his mental toughness and solid groundstrokes. He's not the most aggressive player, but his consistency and ability to absorb and redirect pace can frustrate opponents. His game is characterized by strategic point construction and patience."</t>
   </si>
   <si>
     <t xml:space="preserve">Mate Delic</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Energetic, fighter, runs like crazy on every ball, Speedy, Defensive Baseliner, Counterpuncher, agile</t>
   </si>
   <si>
-    <t xml:space="preserve">De Minaur is known for his exceptional speed and relentless defense. He's a counterpuncher who excels at turning defense into offense. While he may lack the raw power of some players, his precise shot placement and ability to hit on the run often put opponents on the back foot.</t>
+    <t xml:space="preserve">“De Minaur is known for his exceptional speed and relentless defense. He's a counterpuncher who excels at turning defense into offense. While he may lack the raw power of some players, his precise shot placement and ability to hit on the run often put opponents on the back foot."</t>
   </si>
   <si>
     <t xml:space="preserve">Adolfo Gutierrez</t>
@@ -201,7 +201,7 @@
     <t xml:space="preserve">Heated when angry, hard worker, patient, consistent, strategic, groundstroke</t>
   </si>
   <si>
-    <t xml:space="preserve">Carreno Busta is a consistent player who excels on all surfaces. He doesn't possess the biggest shots, but his solid baseline game, combined with his tactical intelligence and patience, make him a difficult opponent. He's known for his ability to construct points and wait for the right moment to attack.</t>
+    <t xml:space="preserve">“Carreno Busta is a consistent player who excels on all surfaces. He doesn't possess the biggest shots, but his solid baseline game, combined with his tactical intelligence and patience, make him a difficult opponent. He's known for his ability to construct points and wait for the right moment to attack."</t>
   </si>
   <si>
     <t xml:space="preserve">Samuel Lopez, Jose Antonio Sanchez-de Luna</t>
@@ -219,31 +219,13 @@
     <t xml:space="preserve">humble, quiet, powerful, aggressive, focused, powerful serve</t>
   </si>
   <si>
-    <t xml:space="preserve">Cilic's game is centered around his powerful serve and aggressive groundstrokes. He looks to dictate play from the baseline and finish points at the net when possible. His aggressive game style has led him to success, including a Grand Slam title at the US Open in 2014.</t>
+    <t xml:space="preserve">“Cilic's game is centered around his powerful serve and aggressive groundstrokes. He looks to dictate play from the baseline and finish points at the net when possible. His aggressive game style has led him to success, including a Grand Slam title at the US Open in 2014."</t>
   </si>
   <si>
     <t xml:space="preserve">Ivan Cinkus, Vilim Visak</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://libema-open.nl/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/wp-content/uploads/2023/05/cilic-full-2022-may.png</t>
-    </r>
+    <t xml:space="preserve">https://libema-open.nl//wp-content/uploads/2023/05/cilic-full-2022-may.png</t>
   </si>
   <si>
     <t xml:space="preserve">Roberto Bautista Agut</t>
@@ -252,31 +234,13 @@
     <t xml:space="preserve">Feisty, fighter, focused, endurance, calm</t>
   </si>
   <si>
-    <t xml:space="preserve">Bautista Agut is a grinder on the court. He's not the most powerful player, but his consistency from the baseline, excellent footwork, and mental toughness make him a tough opponent. He's known for his ability to sustain long rallies and wear down opponents.</t>
+    <t xml:space="preserve">“Bautista Agut is a grinder on the court. He's not the most powerful player, but his consistency from the baseline, excellent footwork, and mental toughness make him a tough opponent. He's known for his ability to sustain long rallies and wear down opponents."</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel Gimeno-Traver, Felix Mantilla</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://libema-open.nl/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">wp-content/uploads/2023/05/bautista-agut-full-2022-may.png</t>
-    </r>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/bautista-agut-full-2022-may.png</t>
   </si>
   <si>
     <t xml:space="preserve">Botic van de Zandschulp</t>
@@ -291,31 +255,13 @@
     <t xml:space="preserve">Local hero, shy, quiet, aggressive, fighting spirit</t>
   </si>
   <si>
-    <t xml:space="preserve">An aggressive player with a solid serve and forehand. He is known for his fighting spirit on court.</t>
+    <t xml:space="preserve">“An aggressive player with a solid serve and forehand. He is known for his fighting spirit on court."</t>
   </si>
   <si>
     <t xml:space="preserve">Peter Lucassen</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://libema-open.nl/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">wp-content/uploads/2023/05/van-de-zandschulp-full-2022-may.png</t>
-    </r>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/van-de-zandschulp-full-2022-may.png</t>
   </si>
   <si>
     <t xml:space="preserve">Milos Raonic</t>
@@ -327,7 +273,7 @@
     <t xml:space="preserve">Big serve, Mr. Nice Guy, powerful serve, aggressive, composed</t>
   </si>
   <si>
-    <t xml:space="preserve">Raonic's game is built around his powerful serve, which is one of the best in the men's game. He also has powerful groundstrokes and seeks to play aggressively, often looking to finish points at the net. He's worked to improve his mobility and baseline game throughout his career.</t>
+    <t xml:space="preserve">“Raonic's game is built around his powerful serve, which is one of the best in the men's game. He also has powerful groundstrokes and seeks to play aggressively, often looking to finish points at the net. He's worked to improve his mobility and baseline game throughout his career."</t>
   </si>
   <si>
     <t xml:space="preserve">Mario Tudor</t>
@@ -345,7 +291,7 @@
     <t xml:space="preserve">Outspoken, interactive, local hero, powerful serve</t>
   </si>
   <si>
-    <t xml:space="preserve">Known for his powerful serve and aggressive baseline play. </t>
+    <t xml:space="preserve">“Known for his powerful serve and aggressive baseline play. "</t>
   </si>
   <si>
     <t xml:space="preserve">Kristof Vliegen</t>
@@ -363,7 +309,7 @@
     <t xml:space="preserve">consistent, fighting spirit, groundstroke</t>
   </si>
   <si>
-    <t xml:space="preserve">Kecmanovic is a steady baseliner with solid groundstrokes from both wings. He has a well-rounded game, with no significant weaknesses, and he's known for his fighting spirit and ability to maintain a high level of play under pressure.</t>
+    <t xml:space="preserve">“Kecmanovic is a steady baseliner with solid groundstrokes from both wings. He has a well-rounded game, with no significant weaknesses, and he's known for his fighting spirit and ability to maintain a high level of play under pressure."</t>
   </si>
   <si>
     <t xml:space="preserve">Wayne Black, Ivan Cinkus</t>
@@ -378,7 +324,7 @@
     <t xml:space="preserve">Emotional, funny, interactive, patient, clay-court specialist</t>
   </si>
   <si>
-    <t xml:space="preserve">A Spanish tennis player, Miralles is known for his clay-court skills, which are typical of many Spanish players. His game is characterised by heavy topspin from the baseline, particularly on the forehand side, and a patient approach, often waiting for his opponent to make errors rather than going for outright winners.</t>
+    <t xml:space="preserve">“A Spanish tennis player, Miralles is known for his clay-court skills, which are typical of many Spanish players. His game is characterised by heavy topspin from the baseline, particularly on the forehand side, and a patient approach, often waiting for his opponent to make errors rather than going for outright winners."</t>
   </si>
   <si>
     <t xml:space="preserve">Samuel Ribeiro</t>
@@ -396,7 +342,7 @@
     <t xml:space="preserve">Focused, shy, quiet, energetic</t>
   </si>
   <si>
-    <t xml:space="preserve">A player with an aggressive playing style, Cressy is notable for his serve-and-volley tactics, a relatively rare strategy in modern tennis. He possesses a powerful serve and isn't afraid to approach the net, looking to finish points quickly.</t>
+    <t xml:space="preserve">“A player with an aggressive playing style, Cressy is notable for his serve-and-volley tactics, a relatively rare strategy in modern tennis. He possesses a powerful serve and isn't afraid to approach the net, looking to finish points quickly."</t>
   </si>
   <si>
     <t xml:space="preserve">Alexandre Sidorenko, Juanjo Climent, Andrew Mawire </t>
@@ -414,7 +360,7 @@
     <t xml:space="preserve">Focused, cool, consistent</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ruusuvuori has a solid baseline game, powerful from both wings, with a particular strength in his backhand. He's also known for his fighting spirit and mental toughness on the court. Off the court, he has diverse interests from music to hockey.</t>
+    <t xml:space="preserve">“ Ruusuvuori has a solid baseline game, powerful from both wings, with a particular strength in his backhand. He's also known for his fighting spirit and mental toughness on the court. Off the court, he has diverse interests from music to hockey."</t>
   </si>
   <si>
     <t xml:space="preserve">Federico Ricci</t>
@@ -438,7 +384,7 @@
     <t xml:space="preserve">Creative, focused, quiet, precise, groundstroke, unorthodox</t>
   </si>
   <si>
-    <t xml:space="preserve">Mannarino is known for his unorthodox playing style. He has a flat groundstroke and an excellent sense of timing, often disrupting opponents with unpredictable shot selection. He is also known for his excellent footwork and defensive skills.</t>
+    <t xml:space="preserve">“Mannarino is known for his unorthodox playing style. He has a flat groundstroke and an excellent sense of timing, often disrupting opponents with unpredictable shot selection. He is also known for his excellent footwork and defensive skills."</t>
   </si>
   <si>
     <t xml:space="preserve">Erwann Tortuyaux</t>
@@ -453,7 +399,7 @@
     <t xml:space="preserve">Perfectionist, well-schooled, composed</t>
   </si>
   <si>
-    <t xml:space="preserve">Nakashima has a powerful baseline game, especially his backhand, and is known for his tactical intelligence and composure on court. His serve is also a significant weapon, allowing him to control many points from the onset.</t>
+    <t xml:space="preserve">“Nakashima has a powerful baseline game, especially his backhand, and is known for his tactical intelligence and composure on court. His serve is also a significant weapon, allowing him to control many points from the onset."</t>
   </si>
   <si>
     <t xml:space="preserve">Edwardo Infantino</t>
@@ -471,7 +417,7 @@
     <t xml:space="preserve">Showman, outspoken, interactive, unpredictable, entertaining</t>
   </si>
   <si>
-    <t xml:space="preserve">Bublik is known for his unpredictable and often flashy style of play. He has a powerful serve and isn't afraid to use underarm serves to catch his opponents off guard. He also frequently employs drop shots and has a strong net game.</t>
+    <t xml:space="preserve">“Bublik is known for his unpredictable and often flashy style of play. He has a powerful serve and isn't afraid to use underarm serves to catch his opponents off guard. He also frequently employs drop shots and has a strong net game."</t>
   </si>
   <si>
     <t xml:space="preserve">Artem Suprunov</t>
@@ -486,7 +432,7 @@
     <t xml:space="preserve">aggressive, focused, powerful serve, powerful forehand, quiet</t>
   </si>
   <si>
-    <t xml:space="preserve">A left-handed player, Humbert is known for his aggressive all-court game. He has a strong serve and a potent one-handed backhand, and he likes to take control of points early. He's also known for his ability to vary the pace and spin of his shots, often keeping opponents off balance.</t>
+    <t xml:space="preserve">“A left-handed player, Humbert is known for his aggressive all-court game. He has a strong serve and a potent one-handed backhand, and he likes to take control of points early. He's also known for his ability to vary the pace and spin of his shots, often keeping opponents off balance."</t>
   </si>
   <si>
     <t xml:space="preserve">Jeremy Chardy</t>
@@ -504,7 +450,7 @@
     <t xml:space="preserve">Big serve, local hero, speedy, agile, fighting spirit</t>
   </si>
   <si>
-    <t xml:space="preserve">Ymer is a steady baseline player with a solid two-handed backhand. He's known for his speed and athleticism on the court, often engaging opponents in long rallies and outlasting them with his physicality and endurance.</t>
+    <t xml:space="preserve">“Ymer is a steady baseline player with a solid two-handed backhand. He's known for his speed and athleticism on the court, often engaging opponents in long rallies and outlasting them with his physicality and endurance."</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel Berta</t>
@@ -522,7 +468,7 @@
     <t xml:space="preserve">powerful serve, powerful groundstroke, aggressive</t>
   </si>
   <si>
-    <t xml:space="preserve"> van Rijthoven has a game that is characterized by a strong serve and an aggressive baseline play. He prefers hard courts and isn't afraid to approach the net, often looking to finish points quickly.</t>
+    <t xml:space="preserve">“van Rijthoven has a game that is characterized by a strong serve and an aggressive baseline play. He prefers hard courts and isn't afraid to approach the net, often looking to finish points quickly."</t>
   </si>
   <si>
     <t xml:space="preserve">Igor Sijsling</t>
@@ -540,7 +486,7 @@
     <t xml:space="preserve">Olympian, groundstroke, tactical, defensive, serve, footwork</t>
   </si>
   <si>
-    <t xml:space="preserve">Bencic possesses a versatile game marked by excellent court coverage and an ability to change direction of the ball with ease. Her smart tactical sense allows her to construct points effectively, often outmaneuvering her opponents with precise shot placement.</t>
+    <t xml:space="preserve">“Bencic possesses a versatile game marked by excellent court coverage and an ability to change direction of the ball with ease. Her smart tactical sense allows her to construct points effectively, often outmaneuvering her opponents with precise shot placement."</t>
   </si>
   <si>
     <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Bencic_Hero-Smile.webp</t>
@@ -555,7 +501,7 @@
     <t xml:space="preserve">serve, forehand, net game, backhand</t>
   </si>
   <si>
-    <t xml:space="preserve">Kudermetova has a strong baseline game, characterized by powerful groundstrokes. She has an aggressive style of play, often looking to dictate points with her strong serve and forehand.</t>
+    <t xml:space="preserve">“Kudermetova has a strong baseline game, characterized by powerful groundstrokes. She has an aggressive style of play, often looking to dictate points with her strong serve and forehand."</t>
   </si>
   <si>
     <t xml:space="preserve">Sergey Demekhine, Vladimir Platenik</t>
@@ -570,7 +516,7 @@
     <t xml:space="preserve">Long games, groundstrokes, aggressive, serve, consistent, mental toughness</t>
   </si>
   <si>
-    <t xml:space="preserve">Samsonova is known for her aggressive game. She has powerful groundstrokes from both wings and a strong serve, which allows her to dictate play and keep opponents on the back foot.</t>
+    <t xml:space="preserve">“Samsonova is known for her aggressive game. She has powerful groundstrokes from both wings and a strong serve, which allows her to dictate play and keep opponents on the back foot."</t>
   </si>
   <si>
     <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Samsonova_Crop.webp</t>
@@ -582,7 +528,7 @@
     <t xml:space="preserve">Outspoken, fighter, showman, Consistent, movement, groundstrokes, serve, competitive</t>
   </si>
   <si>
-    <t xml:space="preserve">A former world No. 1, Azarenka's game is characterized by her powerful baseline play and strong return of serve, often taking the ball early and redirecting with pace. She's also noted for her mental toughness and competitive spirit on court.</t>
+    <t xml:space="preserve">“A former world No. 1, Azarenka's game is characterized by her powerful baseline play and strong return of serve, often taking the ball early and redirecting with pace. She's also noted for her mental toughness and competitive spirit on court."</t>
   </si>
   <si>
     <t xml:space="preserve">Maxime Tchoutakian</t>
@@ -600,7 +546,7 @@
     <t xml:space="preserve">Talented, Versatile, strong groundstrokes, powerful serve, aggressive, net play</t>
   </si>
   <si>
-    <t xml:space="preserve">Zheng is a young player known for her aggressive game style, with a powerful serve and strong groundstrokes. She often looks to dictate the play and isn't afraid to go for winners.</t>
+    <t xml:space="preserve">“Zheng is a young player known for her aggressive game style, with a powerful serve and strong groundstrokes. She often looks to dictate the play and isn't afraid to go for winners."</t>
   </si>
   <si>
     <t xml:space="preserve">Pedro Riba Madrid</t>
@@ -615,7 +561,7 @@
     <t xml:space="preserve">Quiet, serve, aggressive, forehand, consistent, mental toughness</t>
   </si>
   <si>
-    <t xml:space="preserve">Alexandrova is known for her aggressive baseline game. She possesses a powerful serve and forehand, often looking to finish points quickly rather than engage in extended rallies.</t>
+    <t xml:space="preserve">“Alexandrova is known for her aggressive baseline game. She possesses a powerful serve and forehand, often looking to finish points quickly rather than engage in extended rallies."</t>
   </si>
   <si>
     <t xml:space="preserve">Evgeny Alexandrova</t>
@@ -633,7 +579,7 @@
     <t xml:space="preserve">Lovely, respectful, interactive, Consistent, footwork, groundstrokes, serve, defensive</t>
   </si>
   <si>
-    <t xml:space="preserve">Mertens has a well-rounded game, marked by solid groundstrokes, good court coverage and tactical intelligence. Her versatile game allows her to adapt to different playing styles and court surfaces.</t>
+    <t xml:space="preserve">“Mertens has a well-rounded game, marked by solid groundstrokes, good court coverage and tactical intelligence. Her versatile game allows her to adapt to different playing styles and court surfaces."</t>
   </si>
   <si>
     <t xml:space="preserve">Alexander Kneepkens</t>
@@ -648,7 +594,7 @@
     <t xml:space="preserve">Well-trained, groundstrokes, tactical, serve, net play, defensive</t>
   </si>
   <si>
-    <t xml:space="preserve">Martic is a strategic player known for her variety, often mixing up pace and spin to disrupt her opponent's rhythm. She has a strong serve and is particularly effective at the net, with good volleying skills.</t>
+    <t xml:space="preserve">“Martic is a strategic player known for her variety, often mixing up pace and spin to disrupt her opponent's rhythm. She has a strong serve and is particularly effective at the net, with good volleying skills."</t>
   </si>
   <si>
     <t xml:space="preserve">Michael Geserer</t>
@@ -663,7 +609,7 @@
     <t xml:space="preserve">Talented, entertaining, fighter, Versatile, groundstrokes, aggressive, serve, competitive</t>
   </si>
   <si>
-    <t xml:space="preserve">Andreescu's game is characterized by its variety and power. She has strong groundstrokes, a potent serve, and isn't afraid to come forward and finish points at the net. She also uses a variety of spins and paces to disrupt her opponents.</t>
+    <t xml:space="preserve">“Andreescu's game is characterized by its variety and power. She has strong groundstrokes, a potent serve, and isn't afraid to come forward and finish points at the net. She also uses a variety of spins and paces to disrupt her opponents."</t>
   </si>
   <si>
     <t xml:space="preserve">Christphe Lambert</t>
@@ -678,7 +624,7 @@
     <t xml:space="preserve">serve, groundstrokes, aggressive, net play, mental toughness</t>
   </si>
   <si>
-    <t xml:space="preserve">Rogers is known for her powerful serve and aggressive baseline play. She has a strong forehand and isn't afraid to attack and dictate the play, often seeking to finish points quickly.</t>
+    <t xml:space="preserve">“Rogers is known for her powerful serve and aggressive baseline play. She has a strong forehand and isn't afraid to attack and dictate the play, often seeking to finish points quickly."</t>
   </si>
   <si>
     <t xml:space="preserve">Piotr Sierzputowski</t>
@@ -696,7 +642,7 @@
     <t xml:space="preserve">Positive, runs a lot, Consistent, groundstrokes, movement, defensive, serve</t>
   </si>
   <si>
-    <t xml:space="preserve">Bouzkova is known for her consistent baseline game and good court coverage. She has solid groundstrokes and a good defensive game, often forcing opponents into errors.</t>
+    <t xml:space="preserve">“Bouzkova is known for her consistent baseline game and good court coverage. She has solid groundstrokes and a good defensive game, often forcing opponents into errors."</t>
   </si>
   <si>
     <t xml:space="preserve">Cristian Requeni, Milan Bouzek</t>
@@ -714,7 +660,7 @@
     <t xml:space="preserve">Versatile, groundstrokes, serve, consistency, tactical</t>
   </si>
   <si>
-    <t xml:space="preserve">Sasnovich is a consistent player with solid groundstrokes from both wings. She often plays a patient game from the baseline, waiting for her opponents to make errors.</t>
+    <t xml:space="preserve">“Sasnovich is a consistent player with solid groundstrokes from both wings. She often plays a patient game from the baseline, waiting for her opponents to make errors."</t>
   </si>
   <si>
     <t xml:space="preserve">Dzmitry Klimenko</t>
@@ -729,7 +675,7 @@
     <t xml:space="preserve">serve, aggressive, groundstrokes, consistent, footwork</t>
   </si>
   <si>
-    <t xml:space="preserve">Gracheva's game is characterized by her solid baseline play and consistent groundstrokes. She has a patient approach to her game, often engaging in long rallies and waiting for her opponent to make errors.</t>
+    <t xml:space="preserve">“Gracheva's game is characterized by her solid baseline play and consistent groundstrokes. She has a patient approach to her game, often engaging in long rallies and waiting for her opponent to make errors."</t>
   </si>
   <si>
     <t xml:space="preserve">Xavier Pujo</t>
@@ -744,7 +690,7 @@
     <t xml:space="preserve">Versatile, serve, groundstrokes, aggressive, net play</t>
   </si>
   <si>
-    <t xml:space="preserve">Muchova has a versatile game, with a good mix of power and finesse. She often employs a variety of shots, including slices and drop shots, to disrupt her opponent's rhythm.</t>
+    <t xml:space="preserve">“Muchova has a versatile game, with a good mix of power and finesse. She often employs a variety of shots, including slices and drop shots, to disrupt her opponent's rhythm."</t>
   </si>
   <si>
     <t xml:space="preserve">David Kotyza</t>
@@ -759,10 +705,10 @@
     <t xml:space="preserve">Aggressive, strong serve, versatile, doubles strength, net game</t>
   </si>
   <si>
-    <t xml:space="preserve">Known for her aggressive style and strong serve, Caty McNally is a versatile player who can excel on various surfaces. She's made a name for herself in doubles, often partnering with fellow American Coco Gauff, and has started to break through in singles as well. With a potent one-two punch of a big serve followed by a heavy groundstroke, McNally can quickly take control of points. She also possesses a rare weapon in the women's game: a strong net game, thanks to her doubles expertise.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin O’Neill</t>
+    <t xml:space="preserve">“Known for her aggressive style and strong serve, Caty McNally is a versatile player who can excel on various surfaces. She's made a name for herself in doubles, often partnering with fellow American Coco Gauff, and has started to break through in singles as well. With a potent one-two punch of a big serve followed by a heavy groundstroke, McNally can quickly take control of points. She also possesses a rare weapon in the women's game: a strong net game, thanks to her doubles expertise.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Kevin O’Neill”</t>
   </si>
   <si>
     <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/McNally_Crop.webp</t>
@@ -774,7 +720,7 @@
     <t xml:space="preserve">Aggressive, all-court player, powerful groundstrokes</t>
   </si>
   <si>
-    <t xml:space="preserve">Anna Blinkova is a solid all-court player known for her powerful groundstrokes. Her aggressive style of play often sees her taking the ball on the rise and aiming for the lines. Blinkova has shown that she can compete at the top level and has recorded victories against higher-ranked opponents. Her ability to generate power from both wings and her willingness to attack and dictate play are key elements of her game.</t>
+    <t xml:space="preserve">“Anna Blinkova is a solid all-court player known for her powerful groundstrokes. Her aggressive style of play often sees her taking the ball on the rise and aiming for the lines. Blinkova has shown that she can compete at the top level and has recorded victories against higher-ranked opponents. Her ability to generate power from both wings and her willingness to attack and dictate play are key elements of her game.”</t>
   </si>
   <si>
     <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/LiQQMObq.webp</t>
@@ -786,7 +732,7 @@
     <t xml:space="preserve">Consistent, tactical, changes pace, court awareness</t>
   </si>
   <si>
-    <t xml:space="preserve">Evgeniya Rodina is a seasoned player with a well-rounded game. Known for her consistency and tactical intelligence, she can change up the pace and spin of her shots to disrupt her opponent's rhythm. While not the most powerful player on tour, Rodina uses her court awareness and shot selection effectively to construct points.</t>
+    <t xml:space="preserve">“Evgeniya Rodina is a seasoned player with a well-rounded game. Known for her consistency and tactical intelligence, she can change up the pace and spin of her shots to disrupt her opponent's rhythm. While not the most powerful player on tour, Rodina uses her court awareness and shot selection effectively to construct points."</t>
   </si>
   <si>
     <t xml:space="preserve">Oxana Mishikova</t>
@@ -801,7 +747,7 @@
     <t xml:space="preserve">Aggressive, positive, powerful groundstrokes, strong serve, net play, tough competitor</t>
   </si>
   <si>
-    <t xml:space="preserve">Alison Riske-Amritraj is known for her aggressive baseline play and powerful groundstrokes. Her strengths include a strong serve and a particularly effective backhand. She also has a knack for coming to the net, showcasing her versatile skill set. Over the years, Riske-Amritraj has developed a reputation for being a tough competitor, often playing her best tennis in tight situations.</t>
+    <t xml:space="preserve">“Alison Riske-Amritraj is known for her aggressive baseline play and powerful groundstrokes. Her strengths include a strong serve and a particularly effective backhand. She also has a knack for coming to the net, showcasing her versatile skill set. Over the years, Riske-Amritraj has developed a reputation for being a tough competitor, often playing her best tennis in tight situations."</t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Gutteridge</t>
@@ -816,7 +762,7 @@
     <t xml:space="preserve">Left-handed, powerful serve, topspin forehand, aggressive, high-risk</t>
   </si>
   <si>
-    <t xml:space="preserve">Ysaline Bonaventure is a left-handed player known for her powerful serve and heavy topspin forehand. Her game is characterized by aggressive shot-making and the ability to generate pace from both wings. While she can be erratic at times, her high-risk style of play can be very effective when she's in form.</t>
+    <t xml:space="preserve">“Ysaline Bonaventure is a left-handed player known for her powerful serve and heavy topspin forehand. Her game is characterized by aggressive shot-making and the ability to generate pace from both wings. While she can be erratic at times, her high-risk style of play can be very effective when she's in form."</t>
   </si>
   <si>
     <t xml:space="preserve">Hugo Guerriero</t>
@@ -831,7 +777,7 @@
     <t xml:space="preserve">Baseline player, consistent, strong groundstrokes, defensive, counterpunching, fighting spirit</t>
   </si>
   <si>
-    <t xml:space="preserve">Rebecca Peterson is a solid baseline player with a consistent game. She uses her strong groundstrokes to construct points and can change direction of the ball effectively. Peterson also has a good defensive game, often turning defense into offense with her counterpunching ability. She's known for her fighting spirit on the court, often grinding out tough matches.</t>
+    <t xml:space="preserve">“Rebecca Peterson is a solid baseline player with a consistent game. She uses her strong groundstrokes to construct points and can change direction of the ball effectively. Peterson also has a good defensive game, often turning defense into offense with her counterpunching ability. She's known for her fighting spirit on the court, often grinding out tough matches."</t>
   </si>
   <si>
     <t xml:space="preserve">Mart Peterson</t>
@@ -849,7 +795,7 @@
     <t xml:space="preserve">groundstrokes, aggressive</t>
   </si>
   <si>
-    <t xml:space="preserve">Anna-Lena Friedsam is an aggressive baseliner who relies on her powerful groundstrokes to dictate play. She looks to take control of the rallies by hitting aggressive shots and going for winners. At the same time, she has the ability to defend and counter-punch effectively, adjusting her game according to the situation.</t>
+    <t xml:space="preserve">“Anna-Lena Friedsam is an aggressive baseliner who relies on her powerful groundstrokes to dictate play. She looks to take control of the rallies by hitting aggressive shots and going for winners. At the same time, she has the ability to defend and counter-punch effectively, adjusting her game according to the situation."</t>
   </si>
   <si>
     <t xml:space="preserve">Patrice Hopfe</t>
@@ -867,7 +813,7 @@
     <t xml:space="preserve">Consistent, excellent movement, defensive skills, solid groundstrokes, mental toughness, competitive spirit</t>
   </si>
   <si>
-    <t xml:space="preserve">Elina Svitolina is one of the most consistent players on the WTA Tour, known for her excellent movement, strong defensive skills, and the ability to turn defense into offense. Her game is based around her solid groundstrokes and her ability to move her opponents around the court. Svitolina is also known for her mental toughness and strong competitive spirit, often elevating her game in important moments.</t>
+    <t xml:space="preserve">“Elina Svitolina is one of the most consistent players on the WTA Tour, known for her excellent movement, strong defensive skills, and the ability to turn defense into offense. Her game is based around her solid groundstrokes and her ability to move her opponents around the court. Svitolina is also known for her mental toughness and strong competitive spirit, often elevating her game in important moments."</t>
   </si>
   <si>
     <t xml:space="preserve">Raemon Sluiter</t>
@@ -1086,15 +1032,15 @@
   </sheetPr>
   <dimension ref="A1:Y1021"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y2" activeCellId="0" sqref="Y2"/>
+      <selection pane="bottomRight" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.45"/>
@@ -1733,7 +1679,8 @@
         <f aca="false">IF(B8=M8,"All time high","")</f>
         <v/>
       </c>
-      <c r="V8" s="2" t="b">
+      <c r="V8" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="W8" s="0" t="n">
@@ -5837,9 +5784,9 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="X6" r:id="rId1" display="https://libema-open.nl/wp-content/uploads/2023/05/carreno-busta-full-2022-may.png"/>
-    <hyperlink ref="X7" r:id="rId2" display="https://libema-open.nl/"/>
-    <hyperlink ref="X8" r:id="rId3" display="https://libema-open.nl/"/>
-    <hyperlink ref="X9" r:id="rId4" display="https://libema-open.nl/"/>
+    <hyperlink ref="X7" r:id="rId2" display="https://libema-open.nl//wp-content/uploads/2023/05/cilic-full-2022-may.png"/>
+    <hyperlink ref="X8" r:id="rId3" display="https://libema-open.nl/wp-content/uploads/2023/05/bautista-agut-full-2022-may.png"/>
+    <hyperlink ref="X9" r:id="rId4" display="https://libema-open.nl/wp-content/uploads/2023/05/van-de-zandschulp-full-2022-may.png"/>
     <hyperlink ref="X10" r:id="rId5" display="https://libema-open.nl/wp-content/uploads/2023/05/raonic_full_ao20.png"/>
     <hyperlink ref="X11" r:id="rId6" display="https://libema-open.nl/wp-content/uploads/2023/05/griekspoor-full-2022-may.png"/>
     <hyperlink ref="X12" r:id="rId7" display="https://libema-open.nl/wp-content/uploads/2023/05/kecmanovic_full_2022_october-1.png"/>
@@ -5870,15 +5817,15 @@
   </sheetPr>
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V3" activeCellId="0" sqref="V3"/>
+      <selection pane="bottomRight" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.34"/>
@@ -6016,6 +5963,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V2" s="4" t="s">
@@ -6082,6 +6030,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V3" s="4" t="s">
@@ -6145,6 +6094,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V4" s="4" t="s">
@@ -6215,6 +6165,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V5" s="4" t="s">
@@ -6281,6 +6232,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6424,6 +6376,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V8" s="4" t="s">
@@ -6497,6 +6450,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V9" s="4" t="s">
@@ -6566,6 +6520,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V10" s="4" t="s">
@@ -6639,6 +6594,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V11" s="4" t="s">
@@ -6708,6 +6664,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6778,6 +6735,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V13" s="4" t="s">
@@ -6841,6 +6799,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V14" s="4" t="s">
@@ -6910,6 +6869,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V15" s="4" t="s">
@@ -6919,7 +6879,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>224</v>
       </c>
@@ -6979,6 +6939,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V16" s="4" t="s">
@@ -7046,6 +7007,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V17" s="4" t="s">
@@ -7113,6 +7075,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V18" s="4" t="s">
@@ -7260,6 +7223,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V20" s="4" t="s">
@@ -7269,7 +7233,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>248</v>
       </c>
@@ -7301,6 +7265,7 @@
         <v>250</v>
       </c>
       <c r="K21" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L21" s="0" t="n">
@@ -7332,6 +7297,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V21" s="4" t="s">
@@ -7370,6 +7336,7 @@
         <v>256</v>
       </c>
       <c r="K22" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L22" s="0" t="n">
@@ -7401,6 +7368,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="3" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V22" s="4" t="s">
@@ -7465,10 +7433,12 @@
         <f aca="false">IF(L23&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="S23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2" t="b">
+      <c r="S23" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V23" s="4" t="s">
@@ -7544,7 +7514,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.45"/>
   </cols>

--- a/backend/data/Competitors.xlsx
+++ b/backend/data/Competitors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors-Male" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="268">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
@@ -120,7 +120,7 @@
     <t xml:space="preserve">Funny, outspoken, Analytical, Unorthodox, Defensive Baseliner</t>
   </si>
   <si>
-    <t xml:space="preserve">“Medvedev is known for his counter-punching style and excellent defensive play. His flat and deep shots, combined with his exceptional court coverage, make him a tough player to beat. He's also known for his tactical intelligence, often adjusting his game plan mid-match to exploit his opponents' weaknesses."</t>
+    <t xml:space="preserve">Medvedev is known for his counter-punching style and excellent defensive play. His flat and deep shots, combined with his exceptional court coverage, make him a tough player to beat. He's also known for his tactical intelligence, often adjusting his game plan mid-match to exploit his opponents' weaknesses.</t>
   </si>
   <si>
     <t xml:space="preserve">Gilles Cervara</t>
@@ -147,7 +147,7 @@
     <t xml:space="preserve">Mr. Nice Guy, powerful serve, powerful forehand, Athletic, Powerful, Emotiona</t>
   </si>
   <si>
-    <t xml:space="preserve">“Auger-Aliassime is an athletic player with a complete game. His serve and forehand are his biggest weapons, but he's also known for his speed and agility, allowing him to defend well. He's still maturing in terms of strategy, but his raw talent and physical attributes make him a serious threat."</t>
+    <t xml:space="preserve">Auger-Aliassime is an athletic player with a complete game. His serve and forehand are his biggest weapons, but he's also known for his speed and agility, allowing him to defend well. He's still maturing in terms of strategy, but his raw talent and physical attributes make him a serious threat.</t>
   </si>
   <si>
     <t xml:space="preserve">Frederic Fontang, Toni Nadal</t>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">Hard worker, physical, good looking, Defensive Baseliner, Mentally Tough</t>
   </si>
   <si>
-    <t xml:space="preserve">“Coric is a steady baseliner known for his mental toughness and solid groundstrokes. He's not the most aggressive player, but his consistency and ability to absorb and redirect pace can frustrate opponents. His game is characterized by strategic point construction and patience."</t>
+    <t xml:space="preserve">Coric is a steady baseliner known for his mental toughness and solid groundstrokes. He's not the most aggressive player, but his consistency and ability to absorb and redirect pace can frustrate opponents. His game is characterized by strategic point construction and patience.</t>
   </si>
   <si>
     <t xml:space="preserve">Mate Delic</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Energetic, fighter, runs like crazy on every ball, Speedy, Defensive Baseliner, Counterpuncher, agile</t>
   </si>
   <si>
-    <t xml:space="preserve">“De Minaur is known for his exceptional speed and relentless defense. He's a counterpuncher who excels at turning defense into offense. While he may lack the raw power of some players, his precise shot placement and ability to hit on the run often put opponents on the back foot."</t>
+    <t xml:space="preserve">De Minaur is known for his exceptional speed and relentless defense. He's a counterpuncher who excels at turning defense into offense. While he may lack the raw power of some players, his precise shot placement and ability to hit on the run often put opponents on the back foot.</t>
   </si>
   <si>
     <t xml:space="preserve">Adolfo Gutierrez</t>
@@ -201,7 +201,7 @@
     <t xml:space="preserve">Heated when angry, hard worker, patient, consistent, strategic, groundstroke</t>
   </si>
   <si>
-    <t xml:space="preserve">“Carreno Busta is a consistent player who excels on all surfaces. He doesn't possess the biggest shots, but his solid baseline game, combined with his tactical intelligence and patience, make him a difficult opponent. He's known for his ability to construct points and wait for the right moment to attack."</t>
+    <t xml:space="preserve">Carreno Busta is a consistent player who excels on all surfaces. He doesn't possess the biggest shots, but his solid baseline game, combined with his tactical intelligence and patience, make him a difficult opponent. He's known for his ability to construct points and wait for the right moment to attack.</t>
   </si>
   <si>
     <t xml:space="preserve">Samuel Lopez, Jose Antonio Sanchez-de Luna</t>
@@ -219,7 +219,7 @@
     <t xml:space="preserve">humble, quiet, powerful, aggressive, focused, powerful serve</t>
   </si>
   <si>
-    <t xml:space="preserve">“Cilic's game is centered around his powerful serve and aggressive groundstrokes. He looks to dictate play from the baseline and finish points at the net when possible. His aggressive game style has led him to success, including a Grand Slam title at the US Open in 2014."</t>
+    <t xml:space="preserve">Cilic's game is centered around his powerful serve and aggressive groundstrokes. He looks to dictate play from the baseline and finish points at the net when possible. His aggressive game style has led him to success, including a Grand Slam title at the US Open in 2014.</t>
   </si>
   <si>
     <t xml:space="preserve">Ivan Cinkus, Vilim Visak</t>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">Feisty, fighter, focused, endurance, calm</t>
   </si>
   <si>
-    <t xml:space="preserve">“Bautista Agut is a grinder on the court. He's not the most powerful player, but his consistency from the baseline, excellent footwork, and mental toughness make him a tough opponent. He's known for his ability to sustain long rallies and wear down opponents."</t>
+    <t xml:space="preserve">Bautista Agut is a grinder on the court. He's not the most powerful player, but his consistency from the baseline, excellent footwork, and mental toughness make him a tough opponent. He's known for his ability to sustain long rallies and wear down opponents.</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel Gimeno-Traver, Felix Mantilla</t>
@@ -255,7 +255,7 @@
     <t xml:space="preserve">Local hero, shy, quiet, aggressive, fighting spirit</t>
   </si>
   <si>
-    <t xml:space="preserve">“An aggressive player with a solid serve and forehand. He is known for his fighting spirit on court."</t>
+    <t xml:space="preserve">An aggressive player with a solid serve and forehand. He is known for his fighting spirit on court.</t>
   </si>
   <si>
     <t xml:space="preserve">Peter Lucassen</t>
@@ -273,7 +273,7 @@
     <t xml:space="preserve">Big serve, Mr. Nice Guy, powerful serve, aggressive, composed</t>
   </si>
   <si>
-    <t xml:space="preserve">“Raonic's game is built around his powerful serve, which is one of the best in the men's game. He also has powerful groundstrokes and seeks to play aggressively, often looking to finish points at the net. He's worked to improve his mobility and baseline game throughout his career."</t>
+    <t xml:space="preserve">Raonic's game is built around his powerful serve, which is one of the best in the men's game. He also has powerful groundstrokes and seeks to play aggressively, often looking to finish points at the net. He's worked to improve his mobility and baseline game throughout his career.</t>
   </si>
   <si>
     <t xml:space="preserve">Mario Tudor</t>
@@ -291,7 +291,7 @@
     <t xml:space="preserve">Outspoken, interactive, local hero, powerful serve</t>
   </si>
   <si>
-    <t xml:space="preserve">“Known for his powerful serve and aggressive baseline play. "</t>
+    <t xml:space="preserve">Known for his powerful serve and aggressive baseline play. </t>
   </si>
   <si>
     <t xml:space="preserve">Kristof Vliegen</t>
@@ -309,7 +309,7 @@
     <t xml:space="preserve">consistent, fighting spirit, groundstroke</t>
   </si>
   <si>
-    <t xml:space="preserve">“Kecmanovic is a steady baseliner with solid groundstrokes from both wings. He has a well-rounded game, with no significant weaknesses, and he's known for his fighting spirit and ability to maintain a high level of play under pressure."</t>
+    <t xml:space="preserve">Kecmanovic is a steady baseliner with solid groundstrokes from both wings. He has a well-rounded game, with no significant weaknesses, and he's known for his fighting spirit and ability to maintain a high level of play under pressure.</t>
   </si>
   <si>
     <t xml:space="preserve">Wayne Black, Ivan Cinkus</t>
@@ -324,7 +324,7 @@
     <t xml:space="preserve">Emotional, funny, interactive, patient, clay-court specialist</t>
   </si>
   <si>
-    <t xml:space="preserve">“A Spanish tennis player, Miralles is known for his clay-court skills, which are typical of many Spanish players. His game is characterised by heavy topspin from the baseline, particularly on the forehand side, and a patient approach, often waiting for his opponent to make errors rather than going for outright winners."</t>
+    <t xml:space="preserve">A Spanish tennis player, Miralles is known for his clay-court skills, which are typical of many Spanish players. His game is characterised by heavy topspin from the baseline, particularly on the forehand side, and a patient approach, often waiting for his opponent to make errors rather than going for outright winners.</t>
   </si>
   <si>
     <t xml:space="preserve">Samuel Ribeiro</t>
@@ -342,7 +342,7 @@
     <t xml:space="preserve">Focused, shy, quiet, energetic</t>
   </si>
   <si>
-    <t xml:space="preserve">“A player with an aggressive playing style, Cressy is notable for his serve-and-volley tactics, a relatively rare strategy in modern tennis. He possesses a powerful serve and isn't afraid to approach the net, looking to finish points quickly."</t>
+    <t xml:space="preserve">A player with an aggressive playing style, Cressy is notable for his serve-and-volley tactics, a relatively rare strategy in modern tennis. He possesses a powerful serve and isn't afraid to approach the net, looking to finish points quickly.</t>
   </si>
   <si>
     <t xml:space="preserve">Alexandre Sidorenko, Juanjo Climent, Andrew Mawire </t>
@@ -360,7 +360,7 @@
     <t xml:space="preserve">Focused, cool, consistent</t>
   </si>
   <si>
-    <t xml:space="preserve">“ Ruusuvuori has a solid baseline game, powerful from both wings, with a particular strength in his backhand. He's also known for his fighting spirit and mental toughness on the court. Off the court, he has diverse interests from music to hockey."</t>
+    <t xml:space="preserve">Ruusuvuori has a solid baseline game, powerful from both wings, with a particular strength in his backhand. He's also known for his fighting spirit and mental toughness on the court. Off the court, he has diverse interests from music to hockey.</t>
   </si>
   <si>
     <t xml:space="preserve">Federico Ricci</t>
@@ -384,7 +384,7 @@
     <t xml:space="preserve">Creative, focused, quiet, precise, groundstroke, unorthodox</t>
   </si>
   <si>
-    <t xml:space="preserve">“Mannarino is known for his unorthodox playing style. He has a flat groundstroke and an excellent sense of timing, often disrupting opponents with unpredictable shot selection. He is also known for his excellent footwork and defensive skills."</t>
+    <t xml:space="preserve">Mannarino is known for his unorthodox playing style. He has a flat groundstroke and an excellent sense of timing, often disrupting opponents with unpredictable shot selection. He is also known for his excellent footwork and defensive skills.</t>
   </si>
   <si>
     <t xml:space="preserve">Erwann Tortuyaux</t>
@@ -399,7 +399,7 @@
     <t xml:space="preserve">Perfectionist, well-schooled, composed</t>
   </si>
   <si>
-    <t xml:space="preserve">“Nakashima has a powerful baseline game, especially his backhand, and is known for his tactical intelligence and composure on court. His serve is also a significant weapon, allowing him to control many points from the onset."</t>
+    <t xml:space="preserve">Nakashima has a powerful baseline game, especially his backhand, and is known for his tactical intelligence and composure on court. His serve is also a significant weapon, allowing him to control many points from the onset.</t>
   </si>
   <si>
     <t xml:space="preserve">Edwardo Infantino</t>
@@ -417,7 +417,7 @@
     <t xml:space="preserve">Showman, outspoken, interactive, unpredictable, entertaining</t>
   </si>
   <si>
-    <t xml:space="preserve">“Bublik is known for his unpredictable and often flashy style of play. He has a powerful serve and isn't afraid to use underarm serves to catch his opponents off guard. He also frequently employs drop shots and has a strong net game."</t>
+    <t xml:space="preserve">Bublik is known for his unpredictable and often flashy style of play. He has a powerful serve and isn't afraid to use underarm serves to catch his opponents off guard. He also frequently employs drop shots and has a strong net game.</t>
   </si>
   <si>
     <t xml:space="preserve">Artem Suprunov</t>
@@ -432,7 +432,7 @@
     <t xml:space="preserve">aggressive, focused, powerful serve, powerful forehand, quiet</t>
   </si>
   <si>
-    <t xml:space="preserve">“A left-handed player, Humbert is known for his aggressive all-court game. He has a strong serve and a potent one-handed backhand, and he likes to take control of points early. He's also known for his ability to vary the pace and spin of his shots, often keeping opponents off balance."</t>
+    <t xml:space="preserve">A left-handed player, Humbert is known for his aggressive all-court game. He has a strong serve and a potent one-handed backhand, and he likes to take control of points early. He's also known for his ability to vary the pace and spin of his shots, often keeping opponents off balance.</t>
   </si>
   <si>
     <t xml:space="preserve">Jeremy Chardy</t>
@@ -450,7 +450,7 @@
     <t xml:space="preserve">Big serve, local hero, speedy, agile, fighting spirit</t>
   </si>
   <si>
-    <t xml:space="preserve">“Ymer is a steady baseline player with a solid two-handed backhand. He's known for his speed and athleticism on the court, often engaging opponents in long rallies and outlasting them with his physicality and endurance."</t>
+    <t xml:space="preserve">Ymer is a steady baseline player with a solid two-handed backhand. He's known for his speed and athleticism on the court, often engaging opponents in long rallies and outlasting them with his physicality and endurance.</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel Berta</t>
@@ -468,7 +468,7 @@
     <t xml:space="preserve">powerful serve, powerful groundstroke, aggressive</t>
   </si>
   <si>
-    <t xml:space="preserve">“van Rijthoven has a game that is characterized by a strong serve and an aggressive baseline play. He prefers hard courts and isn't afraid to approach the net, often looking to finish points quickly."</t>
+    <t xml:space="preserve">van Rijthoven has a game that is characterized by a strong serve and an aggressive baseline play. He prefers hard courts and isn't afraid to approach the net, often looking to finish points quickly.</t>
   </si>
   <si>
     <t xml:space="preserve">Igor Sijsling</t>
@@ -486,7 +486,10 @@
     <t xml:space="preserve">Olympian, groundstroke, tactical, defensive, serve, footwork</t>
   </si>
   <si>
-    <t xml:space="preserve">“Bencic possesses a versatile game marked by excellent court coverage and an ability to change direction of the ball with ease. Her smart tactical sense allows her to construct points effectively, often outmaneuvering her opponents with precise shot placement."</t>
+    <t xml:space="preserve">“Bencic possesses a versatile game marked by excellent court coverage and an ability to change direction of the ball with ease. Her smart tactical sense allows her to construct points effectively, often outmaneuvering her opponents with precise shot placement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmitry Tursunov</t>
   </si>
   <si>
     <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Bencic_Hero-Smile.webp</t>
@@ -501,7 +504,7 @@
     <t xml:space="preserve">serve, forehand, net game, backhand</t>
   </si>
   <si>
-    <t xml:space="preserve">“Kudermetova has a strong baseline game, characterized by powerful groundstrokes. She has an aggressive style of play, often looking to dictate points with her strong serve and forehand."</t>
+    <t xml:space="preserve">“Kudermetova has a strong baseline game, characterized by powerful groundstrokes. She has an aggressive style of play, often looking to dictate points with her strong serve and forehand.</t>
   </si>
   <si>
     <t xml:space="preserve">Sergey Demekhine, Vladimir Platenik</t>
@@ -516,7 +519,10 @@
     <t xml:space="preserve">Long games, groundstrokes, aggressive, serve, consistent, mental toughness</t>
   </si>
   <si>
-    <t xml:space="preserve">“Samsonova is known for her aggressive game. She has powerful groundstrokes from both wings and a strong serve, which allows her to dictate play and keep opponents on the back foot."</t>
+    <t xml:space="preserve">“Samsonova is known for her aggressive game. She has powerful groundstrokes from both wings and a strong serve, which allows her to dictate play and keep opponents on the back foot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandro Dumitrache</t>
   </si>
   <si>
     <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Samsonova_Crop.webp</t>
@@ -528,7 +534,7 @@
     <t xml:space="preserve">Outspoken, fighter, showman, Consistent, movement, groundstrokes, serve, competitive</t>
   </si>
   <si>
-    <t xml:space="preserve">“A former world No. 1, Azarenka's game is characterized by her powerful baseline play and strong return of serve, often taking the ball early and redirecting with pace. She's also noted for her mental toughness and competitive spirit on court."</t>
+    <t xml:space="preserve">“A former world No. 1, Azarenka's game is characterized by her powerful baseline play and strong return of serve, often taking the ball early and redirecting with pace. She's also noted for her mental toughness and competitive spirit on court.</t>
   </si>
   <si>
     <t xml:space="preserve">Maxime Tchoutakian</t>
@@ -546,7 +552,7 @@
     <t xml:space="preserve">Talented, Versatile, strong groundstrokes, powerful serve, aggressive, net play</t>
   </si>
   <si>
-    <t xml:space="preserve">“Zheng is a young player known for her aggressive game style, with a powerful serve and strong groundstrokes. She often looks to dictate the play and isn't afraid to go for winners."</t>
+    <t xml:space="preserve">“Zheng is a young player known for her aggressive game style, with a powerful serve and strong groundstrokes. She often looks to dictate the play and isn't afraid to go for winners.</t>
   </si>
   <si>
     <t xml:space="preserve">Pedro Riba Madrid</t>
@@ -561,7 +567,7 @@
     <t xml:space="preserve">Quiet, serve, aggressive, forehand, consistent, mental toughness</t>
   </si>
   <si>
-    <t xml:space="preserve">“Alexandrova is known for her aggressive baseline game. She possesses a powerful serve and forehand, often looking to finish points quickly rather than engage in extended rallies."</t>
+    <t xml:space="preserve">“Alexandrova is known for her aggressive baseline game. She possesses a powerful serve and forehand, often looking to finish points quickly rather than engage in extended rallies.</t>
   </si>
   <si>
     <t xml:space="preserve">Evgeny Alexandrova</t>
@@ -579,7 +585,7 @@
     <t xml:space="preserve">Lovely, respectful, interactive, Consistent, footwork, groundstrokes, serve, defensive</t>
   </si>
   <si>
-    <t xml:space="preserve">“Mertens has a well-rounded game, marked by solid groundstrokes, good court coverage and tactical intelligence. Her versatile game allows her to adapt to different playing styles and court surfaces."</t>
+    <t xml:space="preserve">“Mertens has a well-rounded game, marked by solid groundstrokes, good court coverage and tactical intelligence. Her versatile game allows her to adapt to different playing styles and court surfaces.</t>
   </si>
   <si>
     <t xml:space="preserve">Alexander Kneepkens</t>
@@ -594,7 +600,7 @@
     <t xml:space="preserve">Well-trained, groundstrokes, tactical, serve, net play, defensive</t>
   </si>
   <si>
-    <t xml:space="preserve">“Martic is a strategic player known for her variety, often mixing up pace and spin to disrupt her opponent's rhythm. She has a strong serve and is particularly effective at the net, with good volleying skills."</t>
+    <t xml:space="preserve">“Martic is a strategic player known for her variety, often mixing up pace and spin to disrupt her opponent's rhythm. She has a strong serve and is particularly effective at the net, with good volleying skills.</t>
   </si>
   <si>
     <t xml:space="preserve">Michael Geserer</t>
@@ -609,7 +615,7 @@
     <t xml:space="preserve">Talented, entertaining, fighter, Versatile, groundstrokes, aggressive, serve, competitive</t>
   </si>
   <si>
-    <t xml:space="preserve">“Andreescu's game is characterized by its variety and power. She has strong groundstrokes, a potent serve, and isn't afraid to come forward and finish points at the net. She also uses a variety of spins and paces to disrupt her opponents."</t>
+    <t xml:space="preserve">“Andreescu's game is characterized by its variety and power. She has strong groundstrokes, a potent serve, and isn't afraid to come forward and finish points at the net. She also uses a variety of spins and paces to disrupt her opponents.</t>
   </si>
   <si>
     <t xml:space="preserve">Christphe Lambert</t>
@@ -624,7 +630,7 @@
     <t xml:space="preserve">serve, groundstrokes, aggressive, net play, mental toughness</t>
   </si>
   <si>
-    <t xml:space="preserve">“Rogers is known for her powerful serve and aggressive baseline play. She has a strong forehand and isn't afraid to attack and dictate the play, often seeking to finish points quickly."</t>
+    <t xml:space="preserve">“Rogers is known for her powerful serve and aggressive baseline play. She has a strong forehand and isn't afraid to attack and dictate the play, often seeking to finish points quickly.</t>
   </si>
   <si>
     <t xml:space="preserve">Piotr Sierzputowski</t>
@@ -642,7 +648,7 @@
     <t xml:space="preserve">Positive, runs a lot, Consistent, groundstrokes, movement, defensive, serve</t>
   </si>
   <si>
-    <t xml:space="preserve">“Bouzkova is known for her consistent baseline game and good court coverage. She has solid groundstrokes and a good defensive game, often forcing opponents into errors."</t>
+    <t xml:space="preserve">“Bouzkova is known for her consistent baseline game and good court coverage. She has solid groundstrokes and a good defensive game, often forcing opponents into errors.</t>
   </si>
   <si>
     <t xml:space="preserve">Cristian Requeni, Milan Bouzek</t>
@@ -660,7 +666,7 @@
     <t xml:space="preserve">Versatile, groundstrokes, serve, consistency, tactical</t>
   </si>
   <si>
-    <t xml:space="preserve">“Sasnovich is a consistent player with solid groundstrokes from both wings. She often plays a patient game from the baseline, waiting for her opponents to make errors."</t>
+    <t xml:space="preserve">“Sasnovich is a consistent player with solid groundstrokes from both wings. She often plays a patient game from the baseline, waiting for her opponents to make errors.</t>
   </si>
   <si>
     <t xml:space="preserve">Dzmitry Klimenko</t>
@@ -675,7 +681,7 @@
     <t xml:space="preserve">serve, aggressive, groundstrokes, consistent, footwork</t>
   </si>
   <si>
-    <t xml:space="preserve">“Gracheva's game is characterized by her solid baseline play and consistent groundstrokes. She has a patient approach to her game, often engaging in long rallies and waiting for her opponent to make errors."</t>
+    <t xml:space="preserve">“Gracheva's game is characterized by her solid baseline play and consistent groundstrokes. She has a patient approach to her game, often engaging in long rallies and waiting for her opponent to make errors.</t>
   </si>
   <si>
     <t xml:space="preserve">Xavier Pujo</t>
@@ -690,7 +696,7 @@
     <t xml:space="preserve">Versatile, serve, groundstrokes, aggressive, net play</t>
   </si>
   <si>
-    <t xml:space="preserve">“Muchova has a versatile game, with a good mix of power and finesse. She often employs a variety of shots, including slices and drop shots, to disrupt her opponent's rhythm."</t>
+    <t xml:space="preserve">“Muchova has a versatile game, with a good mix of power and finesse. She often employs a variety of shots, including slices and drop shots, to disrupt her opponent's rhythm.</t>
   </si>
   <si>
     <t xml:space="preserve">David Kotyza</t>
@@ -732,7 +738,7 @@
     <t xml:space="preserve">Consistent, tactical, changes pace, court awareness</t>
   </si>
   <si>
-    <t xml:space="preserve">“Evgeniya Rodina is a seasoned player with a well-rounded game. Known for her consistency and tactical intelligence, she can change up the pace and spin of her shots to disrupt her opponent's rhythm. While not the most powerful player on tour, Rodina uses her court awareness and shot selection effectively to construct points."</t>
+    <t xml:space="preserve">“Evgeniya Rodina is a seasoned player with a well-rounded game. Known for her consistency and tactical intelligence, she can change up the pace and spin of her shots to disrupt her opponent's rhythm. While not the most powerful player on tour, Rodina uses her court awareness and shot selection effectively to construct points.</t>
   </si>
   <si>
     <t xml:space="preserve">Oxana Mishikova</t>
@@ -747,7 +753,7 @@
     <t xml:space="preserve">Aggressive, positive, powerful groundstrokes, strong serve, net play, tough competitor</t>
   </si>
   <si>
-    <t xml:space="preserve">“Alison Riske-Amritraj is known for her aggressive baseline play and powerful groundstrokes. Her strengths include a strong serve and a particularly effective backhand. She also has a knack for coming to the net, showcasing her versatile skill set. Over the years, Riske-Amritraj has developed a reputation for being a tough competitor, often playing her best tennis in tight situations."</t>
+    <t xml:space="preserve">“Alison Riske-Amritraj is known for her aggressive baseline play and powerful groundstrokes. Her strengths include a strong serve and a particularly effective backhand. She also has a knack for coming to the net, showcasing her versatile skill set. Over the years, Riske-Amritraj has developed a reputation for being a tough competitor, often playing her best tennis in tight situations.</t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Gutteridge</t>
@@ -762,7 +768,7 @@
     <t xml:space="preserve">Left-handed, powerful serve, topspin forehand, aggressive, high-risk</t>
   </si>
   <si>
-    <t xml:space="preserve">“Ysaline Bonaventure is a left-handed player known for her powerful serve and heavy topspin forehand. Her game is characterized by aggressive shot-making and the ability to generate pace from both wings. While she can be erratic at times, her high-risk style of play can be very effective when she's in form."</t>
+    <t xml:space="preserve">“Ysaline Bonaventure is a left-handed player known for her powerful serve and heavy topspin forehand. Her game is characterized by aggressive shot-making and the ability to generate pace from both wings. While she can be erratic at times, her high-risk style of play can be very effective when she's in form.</t>
   </si>
   <si>
     <t xml:space="preserve">Hugo Guerriero</t>
@@ -777,7 +783,7 @@
     <t xml:space="preserve">Baseline player, consistent, strong groundstrokes, defensive, counterpunching, fighting spirit</t>
   </si>
   <si>
-    <t xml:space="preserve">“Rebecca Peterson is a solid baseline player with a consistent game. She uses her strong groundstrokes to construct points and can change direction of the ball effectively. Peterson also has a good defensive game, often turning defense into offense with her counterpunching ability. She's known for her fighting spirit on the court, often grinding out tough matches."</t>
+    <t xml:space="preserve">“Rebecca Peterson is a solid baseline player with a consistent game. She uses her strong groundstrokes to construct points and can change direction of the ball effectively. Peterson also has a good defensive game, often turning defense into offense with her counterpunching ability. She's known for her fighting spirit on the court, often grinding out tough matches.</t>
   </si>
   <si>
     <t xml:space="preserve">Mart Peterson</t>
@@ -795,7 +801,7 @@
     <t xml:space="preserve">groundstrokes, aggressive</t>
   </si>
   <si>
-    <t xml:space="preserve">“Anna-Lena Friedsam is an aggressive baseliner who relies on her powerful groundstrokes to dictate play. She looks to take control of the rallies by hitting aggressive shots and going for winners. At the same time, she has the ability to defend and counter-punch effectively, adjusting her game according to the situation."</t>
+    <t xml:space="preserve">“Anna-Lena Friedsam is an aggressive baseliner who relies on her powerful groundstrokes to dictate play. She looks to take control of the rallies by hitting aggressive shots and going for winners. At the same time, she has the ability to defend and counter-punch effectively, adjusting her game according to the situation.</t>
   </si>
   <si>
     <t xml:space="preserve">Patrice Hopfe</t>
@@ -813,10 +819,13 @@
     <t xml:space="preserve">Consistent, excellent movement, defensive skills, solid groundstrokes, mental toughness, competitive spirit</t>
   </si>
   <si>
-    <t xml:space="preserve">“Elina Svitolina is one of the most consistent players on the WTA Tour, known for her excellent movement, strong defensive skills, and the ability to turn defense into offense. Her game is based around her solid groundstrokes and her ability to move her opponents around the court. Svitolina is also known for her mental toughness and strong competitive spirit, often elevating her game in important moments."</t>
+    <t xml:space="preserve">“Elina Svitolina is one of the most consistent players on the WTA Tour, known for her excellent movement, strong defensive skills, and the ability to turn defense into offense. Her game is based around her solid groundstrokes and her ability to move her opponents around the court. Svitolina is also known for her mental toughness and strong competitive spirit, often elevating her game in important moments.</t>
   </si>
   <si>
     <t xml:space="preserve">Raemon Sluiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Svitolina_Hero-Smile.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Styles</t>
@@ -909,7 +918,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -938,6 +947,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,7 +964,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -961,12 +978,38 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1003,7 +1046,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1032,12 +1075,12 @@
   </sheetPr>
   <dimension ref="A1:Y1021"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1054,127 +1097,127 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>198</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="1" t="n">
         <f aca="false">2023-O2</f>
         <v>9</v>
       </c>
@@ -1190,10 +1233,10 @@
         <f aca="false">IF(B2=M2,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="0" t="str">
+      <c r="U2" s="1" t="str">
         <f aca="false">IF(B2=M2,"All time high","")</f>
         <v/>
       </c>
@@ -1201,61 +1244,64 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="W2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Y2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="1" t="n">
         <f aca="false">2023-O3</f>
         <v>6</v>
       </c>
@@ -1271,10 +1317,10 @@
         <f aca="false">IF(B3=M3,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="0" t="str">
+      <c r="U3" s="1" t="str">
         <f aca="false">IF(B3=M3,"All time high","")</f>
         <v/>
       </c>
@@ -1282,61 +1328,64 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X3" s="0" t="s">
+      <c r="W3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="Y3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="1" t="n">
         <f aca="false">2023-O4</f>
         <v>10</v>
       </c>
@@ -1352,10 +1401,10 @@
         <f aca="false">IF(B4=M4,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="T4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="0" t="str">
+      <c r="U4" s="1" t="str">
         <f aca="false">IF(B4=M4,"All time high","")</f>
         <v/>
       </c>
@@ -1363,61 +1412,64 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="W4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Y4" s="0" t="s">
+      <c r="Y4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L5" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="1" t="n">
         <f aca="false">2023-O5</f>
         <v>8</v>
       </c>
@@ -1433,10 +1485,10 @@
         <f aca="false">IF(B5=M5,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="T5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U5" s="0" t="str">
+      <c r="U5" s="1" t="str">
         <f aca="false">IF(B5=M5,"All time high","")</f>
         <v/>
       </c>
@@ -1444,30 +1496,33 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X5" s="0" t="s">
+      <c r="W5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Y5" s="0" t="s">
+      <c r="Y5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1479,26 +1534,26 @@
       <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L6" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="1" t="n">
         <f aca="false">2023-O6</f>
         <v>14</v>
       </c>
@@ -1514,10 +1569,10 @@
         <f aca="false">IF(B6=M6,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="T6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U6" s="0" t="str">
+      <c r="U6" s="1" t="str">
         <f aca="false">IF(B6=M6,"All time high","")</f>
         <v/>
       </c>
@@ -1525,30 +1580,33 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="W6" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="X6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="0" t="s">
+      <c r="Y6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1560,26 +1618,26 @@
       <c r="I7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L7" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="1" t="n">
         <f aca="false">2023-O7</f>
         <v>18</v>
       </c>
@@ -1595,10 +1653,10 @@
         <f aca="false">IF(B7=M7,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="T7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U7" s="0" t="str">
+      <c r="U7" s="1" t="str">
         <f aca="false">IF(B7=M7,"All time high","")</f>
         <v/>
       </c>
@@ -1606,30 +1664,33 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="W7" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="X7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Y7" s="0" t="s">
+      <c r="Y7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1641,22 +1702,26 @@
       <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="L8" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="1" t="n">
         <f aca="false">2023-O8</f>
         <v>18</v>
       </c>
@@ -1672,10 +1737,10 @@
         <f aca="false">IF(B8=M8,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T8" s="0" t="s">
+      <c r="T8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="U8" s="0" t="str">
+      <c r="U8" s="1" t="str">
         <f aca="false">IF(B8=M8,"All time high","")</f>
         <v/>
       </c>
@@ -1683,36 +1748,36 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="W8" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Y8" s="0" t="s">
+      <c r="Y8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -1721,26 +1786,26 @@
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="L9" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="1" t="n">
         <f aca="false">2023-O9</f>
         <v>7</v>
       </c>
@@ -1756,10 +1821,10 @@
         <f aca="false">IF(B9=M9,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="T9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="0" t="str">
+      <c r="U9" s="1" t="str">
         <f aca="false">IF(B9=M9,"All time high","")</f>
         <v/>
       </c>
@@ -1767,30 +1832,33 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="W9" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="X9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="0" t="s">
+      <c r="Y9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1802,22 +1870,26 @@
       <c r="I10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="L10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="1" t="n">
         <f aca="false">2023-O10</f>
         <v>15</v>
       </c>
@@ -1833,7 +1905,7 @@
         <f aca="false">IF(B10=M10,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T10" s="0" t="s">
+      <c r="T10" s="1" t="s">
         <v>83</v>
       </c>
       <c r="U10" s="2" t="s">
@@ -1843,33 +1915,36 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="W10" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="X10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Y10" s="0" t="s">
+      <c r="Y10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1878,26 +1953,26 @@
       <c r="I11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="L11" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="1" t="n">
         <f aca="false">2023-O11</f>
         <v>8</v>
       </c>
@@ -1913,10 +1988,10 @@
         <f aca="false">IF(B11=M11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="T11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U11" s="0" t="str">
+      <c r="U11" s="1" t="str">
         <f aca="false">IF(B11=M11,"All time high","")</f>
         <v/>
       </c>
@@ -1924,30 +1999,33 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="W11" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="X11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Y11" s="0" t="s">
+      <c r="Y11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1959,26 +2037,26 @@
       <c r="I12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" s="1" t="s">
         <v>94</v>
       </c>
       <c r="L12" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12" s="1" t="n">
         <f aca="false">2023-O12</f>
         <v>6</v>
       </c>
@@ -1994,10 +2072,10 @@
         <f aca="false">IF(B12=M12,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T12" s="0" t="s">
+      <c r="T12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="U12" s="0" t="str">
+      <c r="U12" s="1" t="str">
         <f aca="false">IF(B12=M12,"All time high","")</f>
         <v/>
       </c>
@@ -2005,33 +2083,36 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="W12" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="X12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="Y12" s="0" t="s">
+      <c r="Y12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -2040,26 +2121,26 @@
       <c r="I13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="L13" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="1" t="n">
         <f aca="false">2023-O13</f>
         <v>8</v>
       </c>
@@ -2075,10 +2156,10 @@
         <f aca="false">IF(B13=M13,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="T13" s="0" t="s">
+      <c r="T13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U13" s="0" t="str">
+      <c r="U13" s="1" t="str">
         <f aca="false">IF(B13=M13,"All time high","")</f>
         <v>All time high</v>
       </c>
@@ -2086,33 +2167,36 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="W13" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="X13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="Y13" s="0" t="s">
+      <c r="Y13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -2121,26 +2205,26 @@
       <c r="I14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" s="1" t="s">
         <v>105</v>
       </c>
       <c r="L14" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14" s="1" t="n">
         <f aca="false">2023-O14</f>
         <v>4</v>
       </c>
@@ -2159,7 +2243,7 @@
       <c r="T14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="U14" s="0" t="str">
+      <c r="U14" s="1" t="str">
         <f aca="false">IF(B14=M14,"All time high","")</f>
         <v/>
       </c>
@@ -2167,33 +2251,36 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="W14" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="X14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="Y14" s="0" t="s">
+      <c r="Y14" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -2202,7 +2289,7 @@
       <c r="I15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" s="1" t="s">
         <v>110</v>
       </c>
       <c r="K15" s="6" t="s">
@@ -2212,16 +2299,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15" s="1" t="n">
         <f aca="false">2023-O15</f>
         <v>5</v>
       </c>
@@ -2237,10 +2324,10 @@
         <f aca="false">IF(B15=M15,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T15" s="0" t="s">
+      <c r="T15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="U15" s="0" t="str">
+      <c r="U15" s="1" t="str">
         <f aca="false">IF(B15=M15,"All time high","")</f>
         <v/>
       </c>
@@ -2248,61 +2335,64 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="W15" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="X15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Y15" s="0" t="s">
+      <c r="Y15" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L16" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="O16" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16" s="1" t="n">
         <f aca="false">2023-O16</f>
         <v>19</v>
       </c>
@@ -2318,10 +2408,10 @@
         <f aca="false">IF(B16=M16,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T16" s="0" t="s">
+      <c r="T16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="U16" s="0" t="str">
+      <c r="U16" s="1" t="str">
         <f aca="false">IF(B16=M16,"All time high","")</f>
         <v/>
       </c>
@@ -2329,64 +2419,64 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="W16" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="X16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Y16" s="0" t="s">
+      <c r="Y16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="1" t="s">
         <v>124</v>
       </c>
       <c r="L17" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17" s="1" t="n">
         <f aca="false">2023-O17</f>
         <v>4</v>
       </c>
@@ -2402,10 +2492,10 @@
         <f aca="false">IF(B17=M17,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T17" s="0" t="s">
+      <c r="T17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="0" t="str">
+      <c r="U17" s="1" t="str">
         <f aca="false">IF(B17=M17,"All time high","")</f>
         <v/>
       </c>
@@ -2413,61 +2503,64 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="W17" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="X17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="Y17" s="0" t="s">
+      <c r="Y17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" s="1" t="s">
         <v>130</v>
       </c>
       <c r="L18" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18" s="1" t="n">
         <f aca="false">2023-O18</f>
         <v>7</v>
       </c>
@@ -2483,10 +2576,10 @@
         <f aca="false">IF(B18=M18,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T18" s="0" t="s">
+      <c r="T18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U18" s="0" t="str">
+      <c r="U18" s="1" t="str">
         <f aca="false">IF(B18=M18,"All time high","")</f>
         <v/>
       </c>
@@ -2494,61 +2587,64 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="W18" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="X18" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Y18" s="0" t="s">
+      <c r="Y18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" s="1" t="s">
         <v>135</v>
       </c>
       <c r="L19" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19" s="1" t="n">
         <f aca="false">2023-O19</f>
         <v>7</v>
       </c>
@@ -2564,10 +2660,10 @@
         <f aca="false">IF(B19=M19,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T19" s="0" t="s">
+      <c r="T19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="U19" s="0" t="str">
+      <c r="U19" s="1" t="str">
         <f aca="false">IF(B19=M19,"All time high","")</f>
         <v/>
       </c>
@@ -2575,61 +2671,64 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="W19" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="X19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Y19" s="0" t="s">
+      <c r="Y19" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" s="1" t="s">
         <v>141</v>
       </c>
       <c r="L20" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="O20" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20" s="1" t="n">
         <f aca="false">2023-O20</f>
         <v>8</v>
       </c>
@@ -2645,10 +2744,10 @@
         <f aca="false">IF(B20=M20,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T20" s="0" t="s">
+      <c r="T20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="U20" s="0" t="str">
+      <c r="U20" s="1" t="str">
         <f aca="false">IF(B20=M20,"All time high","")</f>
         <v/>
       </c>
@@ -2656,61 +2755,64 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="W20" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="X20" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="Y20" s="0" t="s">
+      <c r="Y20" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>157</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L21" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="O21" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="P21" s="1" t="n">
         <f aca="false">2023-O21</f>
         <v>8</v>
       </c>
@@ -2726,10 +2828,10 @@
         <f aca="false">IF(B21=M21,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="T21" s="0" t="s">
+      <c r="T21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="U21" s="0" t="str">
+      <c r="U21" s="1" t="str">
         <f aca="false">IF(B21=M21,"All time high","")</f>
         <v/>
       </c>
@@ -2737,13 +2839,13 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="W21" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="X21" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="Y21" s="0" t="s">
+      <c r="Y21" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5774,6 +5876,14 @@
   <conditionalFormatting sqref="A1:AMJ1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>TRUE()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AMJ21">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5817,12 +5927,12 @@
   </sheetPr>
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5895,60 +6005,63 @@
       <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>153</v>
       </c>
       <c r="K2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="1" t="n">
         <f aca="false">2023-N2</f>
         <v>12</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="Q2" s="3" t="b">
         <f aca="false">IF(B2&lt;11,TRUE(),FALSE())</f>
@@ -5966,56 +6079,63 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U2" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="W2" s="0" t="s">
         <v>155</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="J3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="1" t="n">
         <f aca="false">2023-N3</f>
         <v>11</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>159</v>
+      <c r="P3" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="Q3" s="3" t="b">
         <f aca="false">IF(B3&lt;11,TRUE(),FALSE())</f>
@@ -6033,54 +6153,64 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U3" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="J4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="J4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="1" t="n">
         <f aca="false">2023-N4</f>
         <v>10</v>
       </c>
+      <c r="P4" s="0" t="s">
+        <v>165</v>
+      </c>
       <c r="Q4" s="3" t="b">
         <f aca="false">IF(B4&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
@@ -6097,60 +6227,63 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U4" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V4" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>155</v>
+        <v>166</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>167</v>
+      <c r="I5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="K5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="1" t="n">
         <f aca="false">2023-N5</f>
         <v>20</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="3" t="b">
         <f aca="false">IF(B5&lt;11,TRUE(),FALSE())</f>
@@ -6168,56 +6301,63 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U5" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>155</v>
+        <v>171</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" s="0" t="s">
+      <c r="F6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="L6" s="0" t="n">
+      <c r="I6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="8" t="n">
         <f aca="false">2023-N6</f>
         <v>5</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="3" t="b">
         <f aca="false">IF(B6&lt;11,TRUE(),FALSE())</f>
@@ -6235,60 +6375,63 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U6" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V6" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>155</v>
+        <v>177</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>178</v>
+      <c r="I7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="K7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="1" t="n">
         <f aca="false">2023-N7</f>
         <v>12</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>179</v>
+      <c r="P7" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="Q7" s="3" t="b">
         <f aca="false">IF(B7&lt;11,TRUE(),FALSE())</f>
@@ -6306,62 +6449,66 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="U7" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="W7" s="0" t="s">
-        <v>155</v>
+        <v>182</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="F8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="L8" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="1" t="n">
         <f aca="false">2023-N8</f>
         <v>13</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="3" t="b">
         <f aca="false">IF(B8&lt;11,TRUE(),FALSE())</f>
@@ -6379,63 +6526,66 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U8" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V8" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="W8" s="0" t="s">
-        <v>155</v>
+        <v>188</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B9" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>189</v>
+      <c r="I9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="K9" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="1" t="n">
         <f aca="false">2023-N9</f>
         <v>18</v>
       </c>
-      <c r="P9" s="0" t="s">
-        <v>190</v>
+      <c r="P9" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="Q9" s="3" t="b">
         <f aca="false">IF(B9&lt;11,TRUE(),FALSE())</f>
@@ -6453,59 +6603,66 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U9" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V9" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="W9" s="0" t="s">
-        <v>155</v>
+        <v>193</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="L10" s="0" t="n">
+      <c r="I10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="1" t="n">
         <f aca="false">2023-N10</f>
         <v>8</v>
       </c>
-      <c r="P10" s="0" t="s">
-        <v>195</v>
+      <c r="P10" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="Q10" s="3" t="b">
         <f aca="false">IF(B10&lt;11,TRUE(),FALSE())</f>
@@ -6523,63 +6680,66 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U10" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="W10" s="0" t="s">
-        <v>155</v>
+        <v>198</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>199</v>
+      <c r="I11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="K11" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="1" t="n">
         <f aca="false">2023-N11</f>
         <v>14</v>
       </c>
-      <c r="P11" s="0" t="s">
-        <v>200</v>
+      <c r="P11" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="Q11" s="3" t="b">
         <f aca="false">IF(B11&lt;11,TRUE(),FALSE())</f>
@@ -6597,59 +6757,62 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U11" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V11" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="W11" s="0" t="s">
-        <v>155</v>
+        <v>203</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="F12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="L12" s="0" t="n">
+      <c r="I12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L12" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="1" t="n">
         <f aca="false">2023-N12</f>
         <v>10</v>
       </c>
-      <c r="P12" s="0" t="s">
-        <v>206</v>
+      <c r="P12" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="Q12" s="3" t="b">
         <f aca="false">IF(B12&lt;11,TRUE(),FALSE())</f>
@@ -6667,60 +6830,63 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U12" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V12" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="W12" s="0" t="s">
-        <v>155</v>
+        <v>209</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="B13" s="1" t="n">
         <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="0" t="s">
+      <c r="G13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>211</v>
+      <c r="I13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="K13" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="1" t="n">
         <f aca="false">2023-N13</f>
         <v>14</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="3" t="b">
         <f aca="false">IF(B13&lt;11,TRUE(),FALSE())</f>
@@ -6738,53 +6904,60 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U13" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V13" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="W13" s="0" t="s">
-        <v>155</v>
+        <v>215</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="L14" s="0" t="n">
+      <c r="I14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K14" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="1" t="n">
         <f aca="false">2023-N14</f>
         <v>7</v>
       </c>
-      <c r="P14" s="0" t="s">
-        <v>217</v>
+      <c r="P14" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="Q14" s="3" t="b">
         <f aca="false">IF(B14&lt;11,TRUE(),FALSE())</f>
@@ -6802,59 +6975,66 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U14" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V14" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="W14" s="0" t="s">
-        <v>155</v>
+        <v>220</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="F15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="L15" s="0" t="n">
+      <c r="I15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K15" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15" s="1" t="n">
         <f aca="false">2023-N15</f>
         <v>10</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q15" s="3" t="b">
         <f aca="false">IF(B15&lt;11,TRUE(),FALSE())</f>
@@ -6872,59 +7052,66 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U15" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V15" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="W15" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="B16" s="1" t="n">
         <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="L16" s="0" t="n">
+      <c r="I16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K16" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="O16" s="1" t="n">
         <f aca="false">2023-N16</f>
         <v>7</v>
       </c>
-      <c r="P16" s="0" t="s">
-        <v>227</v>
+      <c r="P16" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="Q16" s="3" t="b">
         <f aca="false">IF(B16&lt;11,TRUE(),FALSE())</f>
@@ -6942,57 +7129,60 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U16" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V16" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="W16" s="0" t="s">
-        <v>155</v>
+        <v>230</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="0" t="s">
-        <v>230</v>
+      <c r="I17" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K17" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17" s="1" t="n">
         <f aca="false">2023-N17</f>
         <v>8</v>
       </c>
-      <c r="P17" s="0" t="s">
-        <v>217</v>
+      <c r="P17" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="Q17" s="3" t="b">
         <f aca="false">IF(B17&lt;11,TRUE(),FALSE())</f>
@@ -7010,57 +7200,60 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U17" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V17" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="W17" s="0" t="s">
-        <v>155</v>
+        <v>234</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>319</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>234</v>
+      <c r="I18" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K18" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18" s="1" t="n">
         <f aca="false">2023-N18</f>
         <v>19</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q18" s="3" t="b">
         <f aca="false">IF(B18&lt;11,TRUE(),FALSE())</f>
@@ -7078,63 +7271,66 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U18" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V18" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="W18" s="0" t="s">
-        <v>155</v>
+        <v>239</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B19" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="B19" s="1" t="n">
         <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>240</v>
+      <c r="I19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="K19" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19" s="1" t="n">
         <f aca="false">2023-N19</f>
         <v>19</v>
       </c>
-      <c r="P19" s="0" t="s">
-        <v>241</v>
+      <c r="P19" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="Q19" s="3" t="b">
         <f aca="false">IF(B19&lt;11,TRUE(),FALSE())</f>
@@ -7152,63 +7348,63 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="U19" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="W19" s="0" t="s">
-        <v>155</v>
+        <v>244</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" s="0" t="n">
+        <v>245</v>
+      </c>
+      <c r="B20" s="1" t="n">
         <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" s="0" t="s">
+      <c r="F20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>117</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="K20" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="O20" s="1" t="n">
         <f aca="false">2023-N20</f>
         <v>14</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="3" t="b">
         <f aca="false">IF(B20&lt;11,TRUE(),FALSE())</f>
@@ -7226,63 +7422,66 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U20" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V20" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="W20" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>249</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B21" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B21" s="1" t="n">
         <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>250</v>
+      <c r="I21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="K21" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="O21" s="1" t="n">
         <f aca="false">2023-N21</f>
         <v>14</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q21" s="3" t="b">
         <f aca="false">IF(B21&lt;11,TRUE(),FALSE())</f>
@@ -7300,60 +7499,63 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U21" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V21" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="W21" s="0" t="s">
-        <v>155</v>
+        <v>254</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B22" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="H22" s="0" t="s">
+      <c r="F22" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>256</v>
+      <c r="I22" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="K22" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="N22" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="O22" s="1" t="n">
         <f aca="false">2023-N22</f>
         <v>12</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="3" t="b">
         <f aca="false">IF(B22&lt;11,TRUE(),FALSE())</f>
@@ -7371,59 +7573,66 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U22" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V22" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="W22" s="0" t="s">
-        <v>155</v>
+        <v>260</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B23" s="0" t="n">
+        <v>261</v>
+      </c>
+      <c r="B23" s="1" t="n">
         <v>508</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="G23" s="0" t="s">
+      <c r="F23" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="L23" s="0" t="n">
+      <c r="I23" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="O23" s="1" t="n">
         <f aca="false">2023-N23</f>
         <v>15</v>
       </c>
-      <c r="P23" s="0" t="s">
-        <v>263</v>
+      <c r="P23" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="Q23" s="3" t="b">
         <f aca="false">IF(B23&lt;11,TRUE(),FALSE())</f>
@@ -7441,11 +7650,14 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="U23" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V23" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="W23" s="0" t="s">
-        <v>155</v>
+        <v>266</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -7454,9 +7666,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AMJ1048576">
+  <conditionalFormatting sqref="A1:AMJ1 A2:O2 V2:AMJ6 A3:U6 Q2:U2 A7:AMJ1048576">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>TRUE()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:W1 A2:O2 V2:W6 A3:U6 Q2:U2 A7:W23">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -7491,7 +7711,7 @@
     <hyperlink ref="V20" r:id="rId19" display="https://libema-open.nl/wp-content/uploads/2023/05/fNpQoEOl.webp"/>
     <hyperlink ref="V21" r:id="rId20" display="https://libema-open.nl/wp-content/uploads/2023/05/ODTCCbpp.webp"/>
     <hyperlink ref="V22" r:id="rId21" display="https://libema-open.nl/wp-content/uploads/2023/05/Friedsam_Crop.webp"/>
-    <hyperlink ref="V23" r:id="rId22" display="https://libema-open.nl/wp-content/uploads/2023/05/ODTCCbpp.webp"/>
+    <hyperlink ref="V23" r:id="rId22" display="https://libema-open.nl/wp-content/uploads/2023/05/Svitolina_Hero-Smile.webp"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7521,7 +7741,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/backend/data/Competitors.xlsx
+++ b/backend/data/Competitors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors-Male" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="286">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
@@ -45,6 +45,9 @@
     <t xml:space="preserve">Country</t>
   </si>
   <si>
+    <t xml:space="preserve">CountryCode</t>
+  </si>
+  <si>
     <t xml:space="preserve">Favorite shot</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
     <t xml:space="preserve">Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forehand</t>
   </si>
   <si>
@@ -162,6 +168,9 @@
     <t xml:space="preserve">Croatia</t>
   </si>
   <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hard worker, physical, good looking, Defensive Baseliner, Mentally Tough</t>
   </si>
   <si>
@@ -180,6 +189,9 @@
     <t xml:space="preserve">Australia</t>
   </si>
   <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Energetic, fighter, runs like crazy on every ball, Speedy, Defensive Baseliner, Counterpuncher, agile</t>
   </si>
   <si>
@@ -198,6 +210,9 @@
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heated when angry, hard worker, patient, consistent, strategic, groundstroke</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t xml:space="preserve">Netherlands</t>
   </si>
   <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Local hero, shy, quiet, aggressive, fighting spirit</t>
   </si>
   <si>
@@ -306,6 +324,9 @@
     <t xml:space="preserve">Serbia</t>
   </si>
   <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
     <t xml:space="preserve">consistent, fighting spirit, groundstroke</t>
   </si>
   <si>
@@ -339,6 +360,9 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
+    <t xml:space="preserve">US</t>
+  </si>
+  <si>
     <t xml:space="preserve">Focused, shy, quiet, energetic</t>
   </si>
   <si>
@@ -357,6 +381,9 @@
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
+    <t xml:space="preserve">FI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Focused, cool, consistent</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t xml:space="preserve">France</t>
   </si>
   <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Volley</t>
   </si>
   <si>
@@ -414,6 +444,9 @@
     <t xml:space="preserve">Kazakhstan</t>
   </si>
   <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Showman, outspoken, interactive, unpredictable, entertaining</t>
   </si>
   <si>
@@ -447,6 +480,9 @@
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Big serve, local hero, speedy, agile, fighting spirit</t>
   </si>
   <si>
@@ -483,10 +519,13 @@
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
     <t xml:space="preserve">Olympian, groundstroke, tactical, defensive, serve, footwork</t>
   </si>
   <si>
-    <t xml:space="preserve">“Bencic possesses a versatile game marked by excellent court coverage and an ability to change direction of the ball with ease. Her smart tactical sense allows her to construct points effectively, often outmaneuvering her opponents with precise shot placement.</t>
+    <t xml:space="preserve">Bencic possesses a versatile game marked by excellent court coverage and an ability to change direction of the ball with ease. Her smart tactical sense allows her to construct points effectively, often outmaneuvering her opponents with precise shot placement.</t>
   </si>
   <si>
     <t xml:space="preserve">Dmitry Tursunov</t>
@@ -504,7 +543,7 @@
     <t xml:space="preserve">serve, forehand, net game, backhand</t>
   </si>
   <si>
-    <t xml:space="preserve">“Kudermetova has a strong baseline game, characterized by powerful groundstrokes. She has an aggressive style of play, often looking to dictate points with her strong serve and forehand.</t>
+    <t xml:space="preserve">Kudermetova has a strong baseline game, characterized by powerful groundstrokes. She has an aggressive style of play, often looking to dictate points with her strong serve and forehand.</t>
   </si>
   <si>
     <t xml:space="preserve">Sergey Demekhine, Vladimir Platenik</t>
@@ -519,7 +558,7 @@
     <t xml:space="preserve">Long games, groundstrokes, aggressive, serve, consistent, mental toughness</t>
   </si>
   <si>
-    <t xml:space="preserve">“Samsonova is known for her aggressive game. She has powerful groundstrokes from both wings and a strong serve, which allows her to dictate play and keep opponents on the back foot.</t>
+    <t xml:space="preserve">Samsonova is known for her aggressive game. She has powerful groundstrokes from both wings and a strong serve, which allows her to dictate play and keep opponents on the back foot.</t>
   </si>
   <si>
     <t xml:space="preserve">Alessandro Dumitrache</t>
@@ -534,7 +573,7 @@
     <t xml:space="preserve">Outspoken, fighter, showman, Consistent, movement, groundstrokes, serve, competitive</t>
   </si>
   <si>
-    <t xml:space="preserve">“A former world No. 1, Azarenka's game is characterized by her powerful baseline play and strong return of serve, often taking the ball early and redirecting with pace. She's also noted for her mental toughness and competitive spirit on court.</t>
+    <t xml:space="preserve">A former world No. 1, Azarenka's game is characterized by her powerful baseline play and strong return of serve, often taking the ball early and redirecting with pace. She's also noted for her mental toughness and competitive spirit on court.</t>
   </si>
   <si>
     <t xml:space="preserve">Maxime Tchoutakian</t>
@@ -549,10 +588,13 @@
     <t xml:space="preserve">China</t>
   </si>
   <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Talented, Versatile, strong groundstrokes, powerful serve, aggressive, net play</t>
   </si>
   <si>
-    <t xml:space="preserve">“Zheng is a young player known for her aggressive game style, with a powerful serve and strong groundstrokes. She often looks to dictate the play and isn't afraid to go for winners.</t>
+    <t xml:space="preserve">Zheng is a young player known for her aggressive game style, with a powerful serve and strong groundstrokes. She often looks to dictate the play and isn't afraid to go for winners.</t>
   </si>
   <si>
     <t xml:space="preserve">Pedro Riba Madrid</t>
@@ -567,7 +609,7 @@
     <t xml:space="preserve">Quiet, serve, aggressive, forehand, consistent, mental toughness</t>
   </si>
   <si>
-    <t xml:space="preserve">“Alexandrova is known for her aggressive baseline game. She possesses a powerful serve and forehand, often looking to finish points quickly rather than engage in extended rallies.</t>
+    <t xml:space="preserve">Alexandrova is known for her aggressive baseline game. She possesses a powerful serve and forehand, often looking to finish points quickly rather than engage in extended rallies.</t>
   </si>
   <si>
     <t xml:space="preserve">Evgeny Alexandrova</t>
@@ -582,10 +624,13 @@
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lovely, respectful, interactive, Consistent, footwork, groundstrokes, serve, defensive</t>
   </si>
   <si>
-    <t xml:space="preserve">“Mertens has a well-rounded game, marked by solid groundstrokes, good court coverage and tactical intelligence. Her versatile game allows her to adapt to different playing styles and court surfaces.</t>
+    <t xml:space="preserve">Mertens has a well-rounded game, marked by solid groundstrokes, good court coverage and tactical intelligence. Her versatile game allows her to adapt to different playing styles and court surfaces.</t>
   </si>
   <si>
     <t xml:space="preserve">Alexander Kneepkens</t>
@@ -600,7 +645,7 @@
     <t xml:space="preserve">Well-trained, groundstrokes, tactical, serve, net play, defensive</t>
   </si>
   <si>
-    <t xml:space="preserve">“Martic is a strategic player known for her variety, often mixing up pace and spin to disrupt her opponent's rhythm. She has a strong serve and is particularly effective at the net, with good volleying skills.</t>
+    <t xml:space="preserve">Martic is a strategic player known for her variety, often mixing up pace and spin to disrupt her opponent's rhythm. She has a strong serve and is particularly effective at the net, with good volleying skills.</t>
   </si>
   <si>
     <t xml:space="preserve">Michael Geserer</t>
@@ -615,7 +660,7 @@
     <t xml:space="preserve">Talented, entertaining, fighter, Versatile, groundstrokes, aggressive, serve, competitive</t>
   </si>
   <si>
-    <t xml:space="preserve">“Andreescu's game is characterized by its variety and power. She has strong groundstrokes, a potent serve, and isn't afraid to come forward and finish points at the net. She also uses a variety of spins and paces to disrupt her opponents.</t>
+    <t xml:space="preserve">Andreescu's game is characterized by its variety and power. She has strong groundstrokes, a potent serve, and isn't afraid to come forward and finish points at the net. She also uses a variety of spins and paces to disrupt her opponents.</t>
   </si>
   <si>
     <t xml:space="preserve">Christphe Lambert</t>
@@ -630,7 +675,7 @@
     <t xml:space="preserve">serve, groundstrokes, aggressive, net play, mental toughness</t>
   </si>
   <si>
-    <t xml:space="preserve">“Rogers is known for her powerful serve and aggressive baseline play. She has a strong forehand and isn't afraid to attack and dictate the play, often seeking to finish points quickly.</t>
+    <t xml:space="preserve">Rogers is known for her powerful serve and aggressive baseline play. She has a strong forehand and isn't afraid to attack and dictate the play, often seeking to finish points quickly.</t>
   </si>
   <si>
     <t xml:space="preserve">Piotr Sierzputowski</t>
@@ -645,10 +690,13 @@
     <t xml:space="preserve">Czech Republic</t>
   </si>
   <si>
+    <t xml:space="preserve">CZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Positive, runs a lot, Consistent, groundstrokes, movement, defensive, serve</t>
   </si>
   <si>
-    <t xml:space="preserve">“Bouzkova is known for her consistent baseline game and good court coverage. She has solid groundstrokes and a good defensive game, often forcing opponents into errors.</t>
+    <t xml:space="preserve">Bouzkova is known for her consistent baseline game and good court coverage. She has solid groundstrokes and a good defensive game, often forcing opponents into errors.</t>
   </si>
   <si>
     <t xml:space="preserve">Cristian Requeni, Milan Bouzek</t>
@@ -666,7 +714,7 @@
     <t xml:space="preserve">Versatile, groundstrokes, serve, consistency, tactical</t>
   </si>
   <si>
-    <t xml:space="preserve">“Sasnovich is a consistent player with solid groundstrokes from both wings. She often plays a patient game from the baseline, waiting for her opponents to make errors.</t>
+    <t xml:space="preserve">Sasnovich is a consistent player with solid groundstrokes from both wings. She often plays a patient game from the baseline, waiting for her opponents to make errors.</t>
   </si>
   <si>
     <t xml:space="preserve">Dzmitry Klimenko</t>
@@ -681,7 +729,7 @@
     <t xml:space="preserve">serve, aggressive, groundstrokes, consistent, footwork</t>
   </si>
   <si>
-    <t xml:space="preserve">“Gracheva's game is characterized by her solid baseline play and consistent groundstrokes. She has a patient approach to her game, often engaging in long rallies and waiting for her opponent to make errors.</t>
+    <t xml:space="preserve">Gracheva's game is characterized by her solid baseline play and consistent groundstrokes. She has a patient approach to her game, often engaging in long rallies and waiting for her opponent to make errors.</t>
   </si>
   <si>
     <t xml:space="preserve">Xavier Pujo</t>
@@ -696,7 +744,7 @@
     <t xml:space="preserve">Versatile, serve, groundstrokes, aggressive, net play</t>
   </si>
   <si>
-    <t xml:space="preserve">“Muchova has a versatile game, with a good mix of power and finesse. She often employs a variety of shots, including slices and drop shots, to disrupt her opponent's rhythm.</t>
+    <t xml:space="preserve">Muchova has a versatile game, with a good mix of power and finesse. She often employs a variety of shots, including slices and drop shots, to disrupt her opponent's rhythm.</t>
   </si>
   <si>
     <t xml:space="preserve">David Kotyza</t>
@@ -711,10 +759,10 @@
     <t xml:space="preserve">Aggressive, strong serve, versatile, doubles strength, net game</t>
   </si>
   <si>
-    <t xml:space="preserve">“Known for her aggressive style and strong serve, Caty McNally is a versatile player who can excel on various surfaces. She's made a name for herself in doubles, often partnering with fellow American Coco Gauff, and has started to break through in singles as well. With a potent one-two punch of a big serve followed by a heavy groundstroke, McNally can quickly take control of points. She also possesses a rare weapon in the women's game: a strong net game, thanks to her doubles expertise.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Kevin O’Neill”</t>
+    <t xml:space="preserve">Known for her aggressive style and strong serve, Caty McNally is a versatile player who can excel on various surfaces. She's made a name for herself in doubles, often partnering with fellow American Coco Gauff, and has started to break through in singles as well. With a potent one-two punch of a big serve followed by a heavy groundstroke, McNally can quickly take control of points. She also possesses a rare weapon in the women's game: a strong net game, thanks to her doubles expertise.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin O’Neill</t>
   </si>
   <si>
     <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/McNally_Crop.webp</t>
@@ -726,7 +774,7 @@
     <t xml:space="preserve">Aggressive, all-court player, powerful groundstrokes</t>
   </si>
   <si>
-    <t xml:space="preserve">“Anna Blinkova is a solid all-court player known for her powerful groundstrokes. Her aggressive style of play often sees her taking the ball on the rise and aiming for the lines. Blinkova has shown that she can compete at the top level and has recorded victories against higher-ranked opponents. Her ability to generate power from both wings and her willingness to attack and dictate play are key elements of her game.”</t>
+    <t xml:space="preserve">Anna Blinkova is a solid all-court player known for her powerful groundstrokes. Her aggressive style of play often sees her taking the ball on the rise and aiming for the lines. Blinkova has shown that she can compete at the top level and has recorded victories against higher-ranked opponents. Her ability to generate power from both wings and her willingness to attack and dictate play are key elements of her game.”</t>
   </si>
   <si>
     <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/LiQQMObq.webp</t>
@@ -738,7 +786,7 @@
     <t xml:space="preserve">Consistent, tactical, changes pace, court awareness</t>
   </si>
   <si>
-    <t xml:space="preserve">“Evgeniya Rodina is a seasoned player with a well-rounded game. Known for her consistency and tactical intelligence, she can change up the pace and spin of her shots to disrupt her opponent's rhythm. While not the most powerful player on tour, Rodina uses her court awareness and shot selection effectively to construct points.</t>
+    <t xml:space="preserve">Evgeniya Rodina is a seasoned player with a well-rounded game. Known for her consistency and tactical intelligence, she can change up the pace and spin of her shots to disrupt her opponent's rhythm. While not the most powerful player on tour, Rodina uses her court awareness and shot selection effectively to construct points.</t>
   </si>
   <si>
     <t xml:space="preserve">Oxana Mishikova</t>
@@ -753,7 +801,7 @@
     <t xml:space="preserve">Aggressive, positive, powerful groundstrokes, strong serve, net play, tough competitor</t>
   </si>
   <si>
-    <t xml:space="preserve">“Alison Riske-Amritraj is known for her aggressive baseline play and powerful groundstrokes. Her strengths include a strong serve and a particularly effective backhand. She also has a knack for coming to the net, showcasing her versatile skill set. Over the years, Riske-Amritraj has developed a reputation for being a tough competitor, often playing her best tennis in tight situations.</t>
+    <t xml:space="preserve">Alison Riske-Amritraj is known for her aggressive baseline play and powerful groundstrokes. Her strengths include a strong serve and a particularly effective backhand. She also has a knack for coming to the net, showcasing her versatile skill set. Over the years, Riske-Amritraj has developed a reputation for being a tough competitor, often playing her best tennis in tight situations.</t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Gutteridge</t>
@@ -768,7 +816,7 @@
     <t xml:space="preserve">Left-handed, powerful serve, topspin forehand, aggressive, high-risk</t>
   </si>
   <si>
-    <t xml:space="preserve">“Ysaline Bonaventure is a left-handed player known for her powerful serve and heavy topspin forehand. Her game is characterized by aggressive shot-making and the ability to generate pace from both wings. While she can be erratic at times, her high-risk style of play can be very effective when she's in form.</t>
+    <t xml:space="preserve">Ysaline Bonaventure is a left-handed player known for her powerful serve and heavy topspin forehand. Her game is characterized by aggressive shot-making and the ability to generate pace from both wings. While she can be erratic at times, her high-risk style of play can be very effective when she's in form.</t>
   </si>
   <si>
     <t xml:space="preserve">Hugo Guerriero</t>
@@ -783,7 +831,7 @@
     <t xml:space="preserve">Baseline player, consistent, strong groundstrokes, defensive, counterpunching, fighting spirit</t>
   </si>
   <si>
-    <t xml:space="preserve">“Rebecca Peterson is a solid baseline player with a consistent game. She uses her strong groundstrokes to construct points and can change direction of the ball effectively. Peterson also has a good defensive game, often turning defense into offense with her counterpunching ability. She's known for her fighting spirit on the court, often grinding out tough matches.</t>
+    <t xml:space="preserve">Rebecca Peterson is a solid baseline player with a consistent game. She uses her strong groundstrokes to construct points and can change direction of the ball effectively. Peterson also has a good defensive game, often turning defense into offense with her counterpunching ability. She's known for her fighting spirit on the court, often grinding out tough matches.</t>
   </si>
   <si>
     <t xml:space="preserve">Mart Peterson</t>
@@ -798,10 +846,13 @@
     <t xml:space="preserve">Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">groundstrokes, aggressive</t>
   </si>
   <si>
-    <t xml:space="preserve">“Anna-Lena Friedsam is an aggressive baseliner who relies on her powerful groundstrokes to dictate play. She looks to take control of the rallies by hitting aggressive shots and going for winners. At the same time, she has the ability to defend and counter-punch effectively, adjusting her game according to the situation.</t>
+    <t xml:space="preserve">Anna-Lena Friedsam is an aggressive baseliner who relies on her powerful groundstrokes to dictate play. She looks to take control of the rallies by hitting aggressive shots and going for winners. At the same time, she has the ability to defend and counter-punch effectively, adjusting her game according to the situation.</t>
   </si>
   <si>
     <t xml:space="preserve">Patrice Hopfe</t>
@@ -816,10 +867,13 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Consistent, excellent movement, defensive skills, solid groundstrokes, mental toughness, competitive spirit</t>
   </si>
   <si>
-    <t xml:space="preserve">“Elina Svitolina is one of the most consistent players on the WTA Tour, known for her excellent movement, strong defensive skills, and the ability to turn defense into offense. Her game is based around her solid groundstrokes and her ability to move her opponents around the court. Svitolina is also known for her mental toughness and strong competitive spirit, often elevating her game in important moments.</t>
+    <t xml:space="preserve">Elina Svitolina is one of the most consistent players on the WTA Tour, known for her excellent movement, strong defensive skills, and the ability to turn defense into offense. Her game is based around her solid groundstrokes and her ability to move her opponents around the court. Svitolina is also known for her mental toughness and strong competitive spirit, often elevating her game in important moments.</t>
   </si>
   <si>
     <t xml:space="preserve">Raemon Sluiter</t>
@@ -935,6 +989,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -945,10 +1003,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1073,27 +1127,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y1021"/>
+  <dimension ref="A1:Z1021"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K20" activeCellId="0" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="13.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="0" width="15.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,16 +1226,19 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>27</v>
@@ -1189,9 +1246,6 @@
       <c r="E2" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1204,65 +1258,68 @@
       <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="P2" s="1" t="n">
-        <f aca="false">2023-O2</f>
+      <c r="Q2" s="1" t="n">
+        <f aca="false">2023-P2</f>
         <v>9</v>
       </c>
-      <c r="Q2" s="3" t="b">
+      <c r="R2" s="3" t="b">
         <f aca="false">IF(B2&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="R2" s="2" t="n">
-        <f aca="false">IF(M2&lt;11,TRUE(),FALSE())</f>
+      <c r="S2" s="2" t="n">
+        <f aca="false">IF(N2&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="S2" s="2" t="n">
-        <f aca="false">IF(B2=M2,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="1" t="str">
-        <f aca="false">IF(B2=M2,"All time high","")</f>
+      <c r="T2" s="2" t="n">
+        <f aca="false">IF(B2=N2,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="1" t="str">
+        <f aca="false">IF(B2=N2,"All time high","")</f>
         <v/>
       </c>
-      <c r="V2" s="3" t="b">
+      <c r="W2" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>33</v>
+      <c r="X2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="Z2" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>22</v>
@@ -1271,82 +1328,85 @@
         <v>193</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="N3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="P3" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <f aca="false">2023-O3</f>
+      <c r="Q3" s="1" t="n">
+        <f aca="false">2023-P3</f>
         <v>6</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="R3" s="2" t="n">
         <f aca="false">IF(B3&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="R3" s="2" t="n">
-        <f aca="false">IF(M3&lt;11,TRUE(),FALSE())</f>
+      <c r="S3" s="2" t="n">
+        <f aca="false">IF(N3&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="S3" s="2" t="n">
-        <f aca="false">IF(B3=M3,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="1" t="str">
-        <f aca="false">IF(B3=M3,"All time high","")</f>
+      <c r="T3" s="2" t="n">
+        <f aca="false">IF(B3=N3,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="1" t="str">
+        <f aca="false">IF(B3=N3,"All time high","")</f>
         <v/>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="W3" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>42</v>
+      <c r="X3" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>26</v>
@@ -1355,82 +1415,85 @@
         <v>188</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="N4" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="P4" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="P4" s="1" t="n">
-        <f aca="false">2023-O4</f>
+      <c r="Q4" s="1" t="n">
+        <f aca="false">2023-P4</f>
         <v>10</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="R4" s="2" t="n">
         <f aca="false">IF(B4&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R4" s="2" t="n">
-        <f aca="false">IF(M4&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S4" s="2" t="n">
-        <f aca="false">IF(B4=M4,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" s="1" t="str">
-        <f aca="false">IF(B4=M4,"All time high","")</f>
+        <f aca="false">IF(N4&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <f aca="false">IF(B4=N4,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f aca="false">IF(B4=N4,"All time high","")</f>
         <v/>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="W4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>48</v>
+      <c r="X4" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>24</v>
@@ -1439,82 +1502,85 @@
         <v>183</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="N5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="P5" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="P5" s="1" t="n">
-        <f aca="false">2023-O5</f>
+      <c r="Q5" s="1" t="n">
+        <f aca="false">2023-P5</f>
         <v>8</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="R5" s="2" t="n">
         <f aca="false">IF(B5&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R5" s="2" t="n">
-        <f aca="false">IF(M5&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S5" s="2" t="n">
-        <f aca="false">IF(B5=M5,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U5" s="1" t="str">
-        <f aca="false">IF(B5=M5,"All time high","")</f>
+        <f aca="false">IF(N5&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <f aca="false">IF(B5=N5,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f aca="false">IF(B5=N5,"All time high","")</f>
         <v/>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="W5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>54</v>
+      <c r="X5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>31</v>
@@ -1523,82 +1589,85 @@
         <v>188</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="N6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="O6" s="1" t="n">
+      <c r="P6" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="P6" s="1" t="n">
-        <f aca="false">2023-O6</f>
+      <c r="Q6" s="1" t="n">
+        <f aca="false">2023-P6</f>
         <v>14</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="R6" s="2" t="n">
         <f aca="false">IF(B6&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R6" s="2" t="n">
-        <f aca="false">IF(M6&lt;11,TRUE(),FALSE())</f>
+      <c r="S6" s="2" t="n">
+        <f aca="false">IF(N6&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="S6" s="2" t="n">
-        <f aca="false">IF(B6=M6,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="1" t="str">
-        <f aca="false">IF(B6=M6,"All time high","")</f>
+      <c r="T6" s="2" t="n">
+        <f aca="false">IF(B6=N6,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" s="1" t="str">
+        <f aca="false">IF(B6=N6,"All time high","")</f>
         <v/>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="W6" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>34</v>
+      <c r="X6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>34</v>
@@ -1607,82 +1676,85 @@
         <v>198</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="N7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="P7" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="P7" s="1" t="n">
-        <f aca="false">2023-O7</f>
+      <c r="Q7" s="1" t="n">
+        <f aca="false">2023-P7</f>
         <v>18</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="R7" s="2" t="n">
         <f aca="false">IF(B7&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R7" s="2" t="n">
-        <f aca="false">IF(M7&lt;11,TRUE(),FALSE())</f>
+      <c r="S7" s="2" t="n">
+        <f aca="false">IF(N7&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="S7" s="2" t="n">
-        <f aca="false">IF(B7=M7,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" s="1" t="str">
-        <f aca="false">IF(B7=M7,"All time high","")</f>
+      <c r="T7" s="2" t="n">
+        <f aca="false">IF(B7=N7,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V7" s="1" t="str">
+        <f aca="false">IF(B7=N7,"All time high","")</f>
         <v/>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="W7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>34</v>
+      <c r="X7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>35</v>
@@ -1691,82 +1763,85 @@
         <v>193</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="N8" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="P8" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="P8" s="1" t="n">
-        <f aca="false">2023-O8</f>
+      <c r="Q8" s="1" t="n">
+        <f aca="false">2023-P8</f>
         <v>18</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="R8" s="2" t="n">
         <f aca="false">IF(B8&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R8" s="2" t="n">
-        <f aca="false">IF(M8&lt;11,TRUE(),FALSE())</f>
+      <c r="S8" s="2" t="n">
+        <f aca="false">IF(N8&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="S8" s="2" t="n">
-        <f aca="false">IF(B8=M8,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U8" s="1" t="str">
-        <f aca="false">IF(B8=M8,"All time high","")</f>
+      <c r="T8" s="2" t="n">
+        <f aca="false">IF(B8=N8,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V8" s="1" t="str">
+        <f aca="false">IF(B8=N8,"All time high","")</f>
         <v/>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="W8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W8" s="1" t="n">
+      <c r="X8" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="X8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>34</v>
+      <c r="Y8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>27</v>
@@ -1775,82 +1850,85 @@
         <v>191</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="N9" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="O9" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="P9" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="P9" s="1" t="n">
-        <f aca="false">2023-O9</f>
+      <c r="Q9" s="1" t="n">
+        <f aca="false">2023-P9</f>
         <v>7</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="R9" s="2" t="n">
         <f aca="false">IF(B9&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R9" s="2" t="n">
-        <f aca="false">IF(M9&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S9" s="2" t="n">
-        <f aca="false">IF(B9=M9,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="U9" s="1" t="str">
-        <f aca="false">IF(B9=M9,"All time high","")</f>
+        <f aca="false">IF(N9&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <f aca="false">IF(B9=N9,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f aca="false">IF(B9=N9,"All time high","")</f>
         <v/>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="W9" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>34</v>
+      <c r="X9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>32</v>
@@ -1859,81 +1937,84 @@
         <v>196</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="N10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="O10" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="P10" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="P10" s="1" t="n">
-        <f aca="false">2023-O10</f>
+      <c r="Q10" s="1" t="n">
+        <f aca="false">2023-P10</f>
         <v>15</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="R10" s="2" t="n">
         <f aca="false">IF(B10&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R10" s="2" t="n">
-        <f aca="false">IF(M10&lt;11,TRUE(),FALSE())</f>
+      <c r="S10" s="2" t="n">
+        <f aca="false">IF(N10&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="S10" s="2" t="n">
-        <f aca="false">IF(B10=M10,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V10" s="2" t="n">
+      <c r="T10" s="2" t="n">
+        <f aca="false">IF(B10=N10,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W10" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>34</v>
+      <c r="X10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>26</v>
@@ -1942,82 +2023,85 @@
         <v>188</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="N11" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="O11" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="P11" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="P11" s="1" t="n">
-        <f aca="false">2023-O11</f>
+      <c r="Q11" s="1" t="n">
+        <f aca="false">2023-P11</f>
         <v>8</v>
       </c>
-      <c r="Q11" s="2" t="n">
+      <c r="R11" s="2" t="n">
         <f aca="false">IF(B11&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R11" s="2" t="n">
-        <f aca="false">IF(M11&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S11" s="2" t="n">
-        <f aca="false">IF(B11=M11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="U11" s="1" t="str">
-        <f aca="false">IF(B11=M11,"All time high","")</f>
+        <f aca="false">IF(N11&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <f aca="false">IF(B11=N11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V11" s="1" t="str">
+        <f aca="false">IF(B11=N11,"All time high","")</f>
         <v/>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="W11" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>34</v>
+      <c r="X11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>23</v>
@@ -2026,82 +2110,85 @@
         <v>183</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="N12" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="O12" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="P12" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="P12" s="1" t="n">
-        <f aca="false">2023-O12</f>
+      <c r="Q12" s="1" t="n">
+        <f aca="false">2023-P12</f>
         <v>6</v>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="R12" s="2" t="n">
         <f aca="false">IF(B12&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R12" s="2" t="n">
-        <f aca="false">IF(M12&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S12" s="2" t="n">
-        <f aca="false">IF(B12=M12,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U12" s="1" t="str">
-        <f aca="false">IF(B12=M12,"All time high","")</f>
+        <f aca="false">IF(N12&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="2" t="n">
+        <f aca="false">IF(B12=N12,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V12" s="1" t="str">
+        <f aca="false">IF(B12=N12,"All time high","")</f>
         <v/>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="W12" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>34</v>
+      <c r="X12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>26</v>
@@ -2110,82 +2197,85 @@
         <v>183</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="N13" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="N13" s="1" t="n">
+      <c r="O13" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="P13" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="P13" s="1" t="n">
-        <f aca="false">2023-O13</f>
+      <c r="Q13" s="1" t="n">
+        <f aca="false">2023-P13</f>
         <v>8</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="R13" s="2" t="n">
         <f aca="false">IF(B13&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R13" s="2" t="n">
-        <f aca="false">IF(M13&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="3" t="b">
-        <f aca="false">IF(B13=M13,TRUE(),FALSE())</f>
+      <c r="S13" s="2" t="n">
+        <f aca="false">IF(N13&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="3" t="b">
+        <f aca="false">IF(B13=N13,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="U13" s="1" t="str">
-        <f aca="false">IF(B13=M13,"All time high","")</f>
+      <c r="U13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V13" s="1" t="str">
+        <f aca="false">IF(B13=N13,"All time high","")</f>
         <v>All time high</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="W13" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>34</v>
+      <c r="X13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>26</v>
@@ -2194,82 +2284,85 @@
         <v>201</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L14" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="N14" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="O14" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="P14" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="P14" s="1" t="n">
-        <f aca="false">2023-O14</f>
+      <c r="Q14" s="1" t="n">
+        <f aca="false">2023-P14</f>
         <v>4</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="R14" s="2" t="n">
         <f aca="false">IF(B14&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R14" s="2" t="n">
-        <f aca="false">IF(M14&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S14" s="2" t="n">
-        <f aca="false">IF(B14=M14,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U14" s="1" t="str">
-        <f aca="false">IF(B14=M14,"All time high","")</f>
+        <f aca="false">IF(N14&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="2" t="n">
+        <f aca="false">IF(B14=N14,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="V14" s="1" t="str">
+        <f aca="false">IF(B14=N14,"All time high","")</f>
         <v/>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="W14" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>34</v>
+      <c r="X14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>24</v>
@@ -2278,82 +2371,85 @@
         <v>188</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="N15" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="N15" s="1" t="n">
+      <c r="O15" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="P15" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="P15" s="1" t="n">
-        <f aca="false">2023-O15</f>
+      <c r="Q15" s="1" t="n">
+        <f aca="false">2023-P15</f>
         <v>5</v>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="R15" s="2" t="n">
         <f aca="false">IF(B15&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R15" s="2" t="n">
-        <f aca="false">IF(M15&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S15" s="2" t="n">
-        <f aca="false">IF(B15=M15,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="U15" s="1" t="str">
-        <f aca="false">IF(B15=M15,"All time high","")</f>
+        <f aca="false">IF(N15&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="2" t="n">
+        <f aca="false">IF(B15=N15,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V15" s="1" t="str">
+        <f aca="false">IF(B15=N15,"All time high","")</f>
         <v/>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="W15" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>34</v>
+      <c r="X15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>34</v>
@@ -2362,82 +2458,85 @@
         <v>180</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L16" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M16" s="1" t="n">
+      <c r="N16" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="O16" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="O16" s="1" t="n">
+      <c r="P16" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="P16" s="1" t="n">
-        <f aca="false">2023-O16</f>
+      <c r="Q16" s="1" t="n">
+        <f aca="false">2023-P16</f>
         <v>19</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="R16" s="2" t="n">
         <f aca="false">IF(B16&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R16" s="2" t="n">
-        <f aca="false">IF(M16&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S16" s="2" t="n">
-        <f aca="false">IF(B16=M16,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="U16" s="1" t="str">
-        <f aca="false">IF(B16=M16,"All time high","")</f>
+        <f aca="false">IF(N16&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="2" t="n">
+        <f aca="false">IF(B16=N16,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f aca="false">IF(B16=N16,"All time high","")</f>
         <v/>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="W16" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W16" s="1" t="n">
+      <c r="X16" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="X16" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>34</v>
+      <c r="Y16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>21</v>
@@ -2446,82 +2545,85 @@
         <v>188</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L17" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="N17" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="O17" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="P17" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="P17" s="1" t="n">
-        <f aca="false">2023-O17</f>
+      <c r="Q17" s="1" t="n">
+        <f aca="false">2023-P17</f>
         <v>4</v>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="R17" s="2" t="n">
         <f aca="false">IF(B17&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R17" s="2" t="n">
-        <f aca="false">IF(M17&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S17" s="2" t="n">
-        <f aca="false">IF(B17=M17,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="U17" s="1" t="str">
-        <f aca="false">IF(B17=M17,"All time high","")</f>
+        <f aca="false">IF(N17&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="2" t="n">
+        <f aca="false">IF(B17=N17,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f aca="false">IF(B17=N17,"All time high","")</f>
         <v/>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="W17" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>34</v>
+      <c r="X17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>25</v>
@@ -2530,82 +2632,85 @@
         <v>196</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M18" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M18" s="1" t="n">
+      <c r="N18" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="O18" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="P18" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="P18" s="1" t="n">
-        <f aca="false">2023-O18</f>
+      <c r="Q18" s="1" t="n">
+        <f aca="false">2023-P18</f>
         <v>7</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="R18" s="2" t="n">
         <f aca="false">IF(B18&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R18" s="2" t="n">
-        <f aca="false">IF(M18&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S18" s="2" t="n">
-        <f aca="false">IF(B18=M18,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="U18" s="1" t="str">
-        <f aca="false">IF(B18=M18,"All time high","")</f>
+        <f aca="false">IF(N18&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="2" t="n">
+        <f aca="false">IF(B18=N18,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V18" s="1" t="str">
+        <f aca="false">IF(B18=N18,"All time high","")</f>
         <v/>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="W18" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>34</v>
+      <c r="X18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>24</v>
@@ -2614,82 +2719,85 @@
         <v>188</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L19" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M19" s="1" t="n">
+      <c r="N19" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="O19" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="P19" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="P19" s="1" t="n">
-        <f aca="false">2023-O19</f>
+      <c r="Q19" s="1" t="n">
+        <f aca="false">2023-P19</f>
         <v>7</v>
       </c>
-      <c r="Q19" s="2" t="n">
+      <c r="R19" s="2" t="n">
         <f aca="false">IF(B19&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R19" s="2" t="n">
-        <f aca="false">IF(M19&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S19" s="2" t="n">
-        <f aca="false">IF(B19=M19,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="U19" s="1" t="str">
-        <f aca="false">IF(B19=M19,"All time high","")</f>
+        <f aca="false">IF(N19&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="2" t="n">
+        <f aca="false">IF(B19=N19,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V19" s="1" t="str">
+        <f aca="false">IF(B19=N19,"All time high","")</f>
         <v/>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="W19" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>34</v>
+      <c r="X19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>24</v>
@@ -2698,82 +2806,85 @@
         <v>183</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L20" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M20" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M20" s="1" t="n">
+      <c r="N20" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="O20" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="P20" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="P20" s="1" t="n">
-        <f aca="false">2023-O20</f>
+      <c r="Q20" s="1" t="n">
+        <f aca="false">2023-P20</f>
         <v>8</v>
       </c>
-      <c r="Q20" s="2" t="n">
+      <c r="R20" s="2" t="n">
         <f aca="false">IF(B20&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R20" s="2" t="n">
-        <f aca="false">IF(M20&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S20" s="2" t="n">
-        <f aca="false">IF(B20=M20,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="U20" s="1" t="str">
-        <f aca="false">IF(B20=M20,"All time high","")</f>
+        <f aca="false">IF(N20&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="2" t="n">
+        <f aca="false">IF(B20=N20,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="V20" s="1" t="str">
+        <f aca="false">IF(B20=N20,"All time high","")</f>
         <v/>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="W20" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>34</v>
+      <c r="X20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>157</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>26</v>
@@ -2782,77 +2893,80 @@
         <v>188</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M21" s="1" t="n">
+      <c r="N21" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="O21" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O21" s="1" t="n">
+      <c r="P21" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="P21" s="1" t="n">
-        <f aca="false">2023-O21</f>
+      <c r="Q21" s="1" t="n">
+        <f aca="false">2023-P21</f>
         <v>8</v>
       </c>
-      <c r="Q21" s="2" t="n">
+      <c r="R21" s="2" t="n">
         <f aca="false">IF(B21&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R21" s="2" t="n">
-        <f aca="false">IF(M21&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S21" s="2" t="n">
-        <f aca="false">IF(B21=M21,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="U21" s="1" t="str">
-        <f aca="false">IF(B21=M21,"All time high","")</f>
+        <f aca="false">IF(N21&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="2" t="n">
+        <f aca="false">IF(B21=N21,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="V21" s="1" t="str">
+        <f aca="false">IF(B21=N21,"All time high","")</f>
         <v/>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="W21" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W21" s="1" t="n">
+      <c r="X21" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="X21" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>34</v>
+      <c r="Y21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1"/>
-      <c r="R22" s="2"/>
       <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1"/>
@@ -2883,6 +2997,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1"/>
@@ -5873,12 +5988,12 @@
       <c r="C1021" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AMJ1048576">
+  <conditionalFormatting sqref="A1:AMJ3 A5:AMJ1048576 A4:F4 H4:AMJ4">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>TRUE()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AMJ21">
+  <conditionalFormatting sqref="A1:AMJ3 A5:AMJ21 A4:F4 H4:AMJ4">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>1</formula>
     </cfRule>
@@ -5893,22 +6008,22 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="X6" r:id="rId1" display="https://libema-open.nl/wp-content/uploads/2023/05/carreno-busta-full-2022-may.png"/>
-    <hyperlink ref="X7" r:id="rId2" display="https://libema-open.nl//wp-content/uploads/2023/05/cilic-full-2022-may.png"/>
-    <hyperlink ref="X8" r:id="rId3" display="https://libema-open.nl/wp-content/uploads/2023/05/bautista-agut-full-2022-may.png"/>
-    <hyperlink ref="X9" r:id="rId4" display="https://libema-open.nl/wp-content/uploads/2023/05/van-de-zandschulp-full-2022-may.png"/>
-    <hyperlink ref="X10" r:id="rId5" display="https://libema-open.nl/wp-content/uploads/2023/05/raonic_full_ao20.png"/>
-    <hyperlink ref="X11" r:id="rId6" display="https://libema-open.nl/wp-content/uploads/2023/05/griekspoor-full-2022-may.png"/>
-    <hyperlink ref="X12" r:id="rId7" display="https://libema-open.nl/wp-content/uploads/2023/05/kecmanovic_full_2022_october-1.png"/>
-    <hyperlink ref="X13" r:id="rId8" display="https://libema-open.nl/wp-content/uploads/2023/05/zapata_miralles_full_2022.png"/>
-    <hyperlink ref="X14" r:id="rId9" display="https://libema-open.nl/wp-content/uploads/2023/05/cressy-full-2022-june.png"/>
-    <hyperlink ref="X15" r:id="rId10" display="https://libema-open.nl/wp-content/uploads/2023/05/ruusuvuori_full_2023.png"/>
-    <hyperlink ref="X16" r:id="rId11" display="https://libema-open.nl/wp-content/uploads/2023/05/mannarino-full-2022-may.png"/>
-    <hyperlink ref="X17" r:id="rId12" display="https://libema-open.nl/wp-content/uploads/2023/05/nakashima-full-2022-may.png"/>
-    <hyperlink ref="X18" r:id="rId13" display="https://libema-open.nl/wp-content/uploads/2023/05/bublik_full_2023_update.png"/>
-    <hyperlink ref="X19" r:id="rId14" display="https://libema-open.nl/wp-content/uploads/2023/05/humbert-full-2022-june.png"/>
-    <hyperlink ref="X20" r:id="rId15" display="https://libema-open.nl/wp-content/uploads/2023/05/ymer_m_full_ao20.png"/>
-    <hyperlink ref="X21" r:id="rId16" display="https://libema-open.nl/wp-content/uploads/2022/05/van_rijthoven_tim_head_pp19.png"/>
+    <hyperlink ref="Y6" r:id="rId1" display="https://libema-open.nl/wp-content/uploads/2023/05/carreno-busta-full-2022-may.png"/>
+    <hyperlink ref="Y7" r:id="rId2" display="https://libema-open.nl//wp-content/uploads/2023/05/cilic-full-2022-may.png"/>
+    <hyperlink ref="Y8" r:id="rId3" display="https://libema-open.nl/wp-content/uploads/2023/05/bautista-agut-full-2022-may.png"/>
+    <hyperlink ref="Y9" r:id="rId4" display="https://libema-open.nl/wp-content/uploads/2023/05/van-de-zandschulp-full-2022-may.png"/>
+    <hyperlink ref="Y10" r:id="rId5" display="https://libema-open.nl/wp-content/uploads/2023/05/raonic_full_ao20.png"/>
+    <hyperlink ref="Y11" r:id="rId6" display="https://libema-open.nl/wp-content/uploads/2023/05/griekspoor-full-2022-may.png"/>
+    <hyperlink ref="Y12" r:id="rId7" display="https://libema-open.nl/wp-content/uploads/2023/05/kecmanovic_full_2022_october-1.png"/>
+    <hyperlink ref="Y13" r:id="rId8" display="https://libema-open.nl/wp-content/uploads/2023/05/zapata_miralles_full_2022.png"/>
+    <hyperlink ref="Y14" r:id="rId9" display="https://libema-open.nl/wp-content/uploads/2023/05/cressy-full-2022-june.png"/>
+    <hyperlink ref="Y15" r:id="rId10" display="https://libema-open.nl/wp-content/uploads/2023/05/ruusuvuori_full_2023.png"/>
+    <hyperlink ref="Y16" r:id="rId11" display="https://libema-open.nl/wp-content/uploads/2023/05/mannarino-full-2022-may.png"/>
+    <hyperlink ref="Y17" r:id="rId12" display="https://libema-open.nl/wp-content/uploads/2023/05/nakashima-full-2022-may.png"/>
+    <hyperlink ref="Y18" r:id="rId13" display="https://libema-open.nl/wp-content/uploads/2023/05/bublik_full_2023_update.png"/>
+    <hyperlink ref="Y19" r:id="rId14" display="https://libema-open.nl/wp-content/uploads/2023/05/humbert-full-2022-june.png"/>
+    <hyperlink ref="Y20" r:id="rId15" display="https://libema-open.nl/wp-content/uploads/2023/05/ymer_m_full_ao20.png"/>
+    <hyperlink ref="Y21" r:id="rId16" display="https://libema-open.nl/wp-content/uploads/2022/05/van_rijthoven_tim_head_pp19.png"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5925,20 +6040,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.34"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,7 +6082,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -5988,10 +6103,10 @@
         <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
@@ -6000,7 +6115,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>22</v>
@@ -6011,16 +6126,19 @@
       <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>26</v>
@@ -6029,75 +6147,78 @@
         <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K2" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="O2" s="1" t="n">
-        <f aca="false">2023-N2</f>
+      <c r="P2" s="1" t="n">
+        <f aca="false">2023-O2</f>
         <v>12</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q2" s="3" t="b">
+      <c r="Q2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" s="3" t="b">
         <f aca="false">IF(B2&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R2" s="3" t="b">
-        <f aca="false">IF(L2&lt;11,TRUE(),FALSE())</f>
+      <c r="S2" s="3" t="b">
+        <f aca="false">IF(M2&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="S2" s="3" t="b">
-        <f aca="false">IF(B2=L2,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T2" s="3" t="b">
+        <f aca="false">IF(B2=M2,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>156</v>
+      <c r="V2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>157</v>
+      <c r="A3" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>26</v>
@@ -6105,73 +6226,73 @@
       <c r="E3" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" s="3" t="b">
+        <v>171</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L3" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="M3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="N3" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="O3" s="1" t="n">
-        <f aca="false">2023-N3</f>
+      <c r="P3" s="1" t="n">
+        <f aca="false">2023-O3</f>
         <v>11</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q3" s="3" t="b">
+      <c r="Q3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R3" s="3" t="b">
         <f aca="false">IF(B3&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="R3" s="3" t="b">
-        <f aca="false">IF(L3&lt;11,TRUE(),FALSE())</f>
+      <c r="S3" s="3" t="b">
+        <f aca="false">IF(M3&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="S3" s="3" t="b">
-        <f aca="false">IF(B3=L3,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T3" s="3" t="b">
+        <f aca="false">IF(B3=M3,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>156</v>
+      <c r="V3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>162</v>
+      <c r="A4" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>24</v>
@@ -6179,73 +6300,73 @@
       <c r="E4" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K4" s="3" t="b">
+        <v>176</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="M4" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="N4" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="O4" s="1" t="n">
-        <f aca="false">2023-N4</f>
+      <c r="P4" s="1" t="n">
+        <f aca="false">2023-O4</f>
         <v>10</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q4" s="3" t="b">
+      <c r="Q4" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="R4" s="3" t="b">
         <f aca="false">IF(B4&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R4" s="3" t="b">
-        <f aca="false">IF(L4&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S4" s="3" t="b">
-        <f aca="false">IF(B4=L4,TRUE(),FALSE())</f>
+        <f aca="false">IF(M4&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
       <c r="T4" s="3" t="b">
+        <f aca="false">IF(B4=M4,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>156</v>
+      <c r="V4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>167</v>
+      <c r="A5" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>33</v>
@@ -6253,73 +6374,73 @@
       <c r="E5" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <f aca="false">2023-O5</f>
+        <v>20</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="R5" s="3" t="b">
+        <f aca="false">IF(B5&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="b">
+        <f aca="false">IF(M5&lt;11,TRUE(),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="3" t="b">
+        <f aca="false">IF(B5=M5,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K5" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <f aca="false">2023-N5</f>
-        <v>20</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q5" s="3" t="b">
-        <f aca="false">IF(B5&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="3" t="b">
-        <f aca="false">IF(L5&lt;11,TRUE(),FALSE())</f>
-        <v>1</v>
-      </c>
-      <c r="S5" s="3" t="b">
-        <f aca="false">IF(B5=L5,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>172</v>
+      <c r="A6" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>20</v>
@@ -6328,72 +6449,75 @@
         <v>178</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
+        <v>186</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K6" s="3" t="b">
+        <v>188</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="M6" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="N6" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="O6" s="8" t="n">
-        <f aca="false">2023-N6</f>
+      <c r="P6" s="8" t="n">
+        <f aca="false">2023-O6</f>
         <v>5</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q6" s="3" t="b">
+      <c r="Q6" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="R6" s="3" t="b">
         <f aca="false">IF(B6&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R6" s="3" t="b">
-        <f aca="false">IF(L6&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S6" s="3" t="b">
-        <f aca="false">IF(B6=L6,TRUE(),FALSE())</f>
+        <f aca="false">IF(M6&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="3" t="b">
+        <f aca="false">IF(B6=M6,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="T6" s="3" t="b">
+      <c r="U6" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>156</v>
+      <c r="V6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>178</v>
+      <c r="A7" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>28</v>
@@ -6401,73 +6525,73 @@
       <c r="E7" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K7" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="M7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="N7" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="O7" s="1" t="n">
-        <f aca="false">2023-N7</f>
+      <c r="P7" s="1" t="n">
+        <f aca="false">2023-O7</f>
         <v>12</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q7" s="3" t="b">
+      <c r="Q7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R7" s="3" t="b">
         <f aca="false">IF(B7&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R7" s="3" t="b">
-        <f aca="false">IF(L7&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S7" s="3" t="b">
-        <f aca="false">IF(B7=L7,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="2" t="n">
+        <f aca="false">IF(M7&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="3" t="b">
+        <f aca="false">IF(B7=M7,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="V7" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>156</v>
+      <c r="W7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>183</v>
+      <c r="A8" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>27</v>
@@ -6476,75 +6600,78 @@
         <v>179</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K8" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L8" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="M8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="N8" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="O8" s="1" t="n">
-        <f aca="false">2023-N8</f>
+      <c r="P8" s="1" t="n">
+        <f aca="false">2023-O8</f>
         <v>13</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q8" s="3" t="b">
+      <c r="Q8" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="R8" s="3" t="b">
         <f aca="false">IF(B8&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="R8" s="3" t="b">
-        <f aca="false">IF(L8&lt;11,TRUE(),FALSE())</f>
+      <c r="S8" s="3" t="b">
+        <f aca="false">IF(M8&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="S8" s="3" t="b">
-        <f aca="false">IF(B8=L8,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T8" s="3" t="b">
+        <f aca="false">IF(B8=M8,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>156</v>
+      <c r="V8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>189</v>
+      <c r="A9" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>32</v>
@@ -6553,75 +6680,78 @@
         <v>181</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K9" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="M9" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="N9" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="O9" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="O9" s="1" t="n">
-        <f aca="false">2023-N9</f>
+      <c r="P9" s="1" t="n">
+        <f aca="false">2023-O9</f>
         <v>18</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q9" s="3" t="b">
+      <c r="Q9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="R9" s="3" t="b">
         <f aca="false">IF(B9&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="b">
-        <f aca="false">IF(L9&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S9" s="3" t="b">
-        <f aca="false">IF(B9=L9,TRUE(),FALSE())</f>
+        <f aca="false">IF(M9&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
       <c r="T9" s="3" t="b">
+        <f aca="false">IF(B9=M9,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>156</v>
+      <c r="V9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>194</v>
+      <c r="A10" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>22</v>
@@ -6630,75 +6760,78 @@
         <v>170</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K10" s="3" t="b">
+        <v>210</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="M10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="N10" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="O10" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="O10" s="1" t="n">
-        <f aca="false">2023-N10</f>
+      <c r="P10" s="1" t="n">
+        <f aca="false">2023-O10</f>
         <v>8</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q10" s="3" t="b">
+      <c r="Q10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="R10" s="3" t="b">
         <f aca="false">IF(B10&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="b">
-        <f aca="false">IF(L10&lt;11,TRUE(),FALSE())</f>
+      <c r="S10" s="3" t="b">
+        <f aca="false">IF(M10&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="S10" s="3" t="b">
-        <f aca="false">IF(B10=L10,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T10" s="3" t="b">
+        <f aca="false">IF(B10=M10,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>156</v>
+      <c r="V10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>199</v>
+      <c r="A11" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>30</v>
@@ -6707,75 +6840,78 @@
         <v>175</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K11" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L11" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="M11" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="N11" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="O11" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="O11" s="1" t="n">
-        <f aca="false">2023-N11</f>
+      <c r="P11" s="1" t="n">
+        <f aca="false">2023-O11</f>
         <v>14</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q11" s="3" t="b">
+      <c r="Q11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R11" s="3" t="b">
         <f aca="false">IF(B11&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R11" s="3" t="b">
-        <f aca="false">IF(L11&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S11" s="3" t="b">
-        <f aca="false">IF(B11=L11,TRUE(),FALSE())</f>
+        <f aca="false">IF(M11&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
       <c r="T11" s="3" t="b">
+        <f aca="false">IF(B11=M11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>156</v>
+      <c r="V11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>204</v>
+      <c r="A12" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>24</v>
@@ -6784,71 +6920,74 @@
         <v>180</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="L12" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M12" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="N12" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="O12" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="O12" s="1" t="n">
-        <f aca="false">2023-N12</f>
+      <c r="P12" s="1" t="n">
+        <f aca="false">2023-O12</f>
         <v>10</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q12" s="3" t="b">
+      <c r="Q12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R12" s="3" t="b">
         <f aca="false">IF(B12&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R12" s="3" t="b">
-        <f aca="false">IF(L12&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S12" s="3" t="b">
-        <f aca="false">IF(B12=L12,TRUE(),FALSE())</f>
+        <f aca="false">IF(M12&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
       <c r="T12" s="3" t="b">
+        <f aca="false">IF(B12=M12,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>156</v>
+      <c r="V12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>210</v>
+      <c r="A13" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>29</v>
@@ -6856,73 +6995,73 @@
       <c r="E13" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K13" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L13" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="M13" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="N13" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="N13" s="1" t="n">
+      <c r="O13" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="O13" s="1" t="n">
-        <f aca="false">2023-N13</f>
+      <c r="P13" s="1" t="n">
+        <f aca="false">2023-O13</f>
         <v>14</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q13" s="3" t="b">
+      <c r="Q13" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R13" s="3" t="b">
         <f aca="false">IF(B13&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R13" s="3" t="b">
-        <f aca="false">IF(L13&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S13" s="3" t="b">
-        <f aca="false">IF(B13=L13,TRUE(),FALSE())</f>
+        <f aca="false">IF(M13&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
       <c r="T13" s="3" t="b">
+        <f aca="false">IF(B13=M13,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>156</v>
+      <c r="V13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>216</v>
+      <c r="A14" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>22</v>
@@ -6930,70 +7069,70 @@
       <c r="E14" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K14" s="3" t="b">
+        <v>233</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L14" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L14" s="1" t="n">
+      <c r="M14" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="N14" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="O14" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="O14" s="1" t="n">
-        <f aca="false">2023-N14</f>
+      <c r="P14" s="1" t="n">
+        <f aca="false">2023-O14</f>
         <v>7</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q14" s="3" t="b">
+      <c r="Q14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="R14" s="3" t="b">
         <f aca="false">IF(B14&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="b">
-        <f aca="false">IF(L14&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S14" s="3" t="b">
-        <f aca="false">IF(B14=L14,TRUE(),FALSE())</f>
+        <f aca="false">IF(M14&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
       <c r="T14" s="3" t="b">
+        <f aca="false">IF(B14=M14,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>156</v>
+      <c r="V14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>221</v>
+      <c r="A15" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>26</v>
@@ -7002,75 +7141,78 @@
         <v>180</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K15" s="3" t="b">
+        <v>238</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L15" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="M15" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="N15" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="N15" s="1" t="n">
+      <c r="O15" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="O15" s="1" t="n">
-        <f aca="false">2023-N15</f>
+      <c r="P15" s="1" t="n">
+        <f aca="false">2023-O15</f>
         <v>10</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q15" s="3" t="b">
+      <c r="Q15" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="R15" s="3" t="b">
         <f aca="false">IF(B15&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="b">
-        <f aca="false">IF(L15&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S15" s="3" t="b">
-        <f aca="false">IF(B15=L15,TRUE(),FALSE())</f>
+        <f aca="false">IF(M15&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
       <c r="T15" s="3" t="b">
+        <f aca="false">IF(B15=M15,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>156</v>
+      <c r="V15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>226</v>
+      <c r="A16" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>21</v>
@@ -7079,75 +7221,78 @@
         <v>181</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="K16" s="3" t="b">
+        <v>243</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L16" s="1" t="n">
+      <c r="M16" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="M16" s="1" t="n">
+      <c r="N16" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="O16" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="O16" s="1" t="n">
-        <f aca="false">2023-N16</f>
+      <c r="P16" s="1" t="n">
+        <f aca="false">2023-O16</f>
         <v>7</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q16" s="3" t="b">
+      <c r="Q16" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R16" s="3" t="b">
         <f aca="false">IF(B16&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R16" s="3" t="b">
-        <f aca="false">IF(L16&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S16" s="3" t="b">
-        <f aca="false">IF(B16=L16,TRUE(),FALSE())</f>
+        <f aca="false">IF(M16&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
       <c r="T16" s="3" t="b">
+        <f aca="false">IF(B16=M16,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>156</v>
+      <c r="V16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>231</v>
+      <c r="A17" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>24</v>
@@ -7155,70 +7300,70 @@
       <c r="E17" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="K17" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L17" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="M17" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="N17" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="O17" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="O17" s="1" t="n">
-        <f aca="false">2023-N17</f>
+      <c r="P17" s="1" t="n">
+        <f aca="false">2023-O17</f>
         <v>8</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q17" s="3" t="b">
+      <c r="Q17" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="R17" s="3" t="b">
         <f aca="false">IF(B17&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R17" s="3" t="b">
-        <f aca="false">IF(L17&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S17" s="3" t="b">
-        <f aca="false">IF(B17=L17,TRUE(),FALSE())</f>
+        <f aca="false">IF(M17&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
       <c r="T17" s="3" t="b">
+        <f aca="false">IF(B17=M17,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>156</v>
+      <c r="V17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>235</v>
+      <c r="A18" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>319</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>34</v>
@@ -7226,70 +7371,70 @@
       <c r="E18" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K18" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L18" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L18" s="1" t="n">
+      <c r="M18" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="M18" s="1" t="n">
+      <c r="N18" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="O18" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="O18" s="1" t="n">
-        <f aca="false">2023-N18</f>
+      <c r="P18" s="1" t="n">
+        <f aca="false">2023-O18</f>
         <v>19</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q18" s="3" t="b">
+      <c r="Q18" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="R18" s="3" t="b">
         <f aca="false">IF(B18&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R18" s="3" t="b">
-        <f aca="false">IF(L18&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S18" s="3" t="b">
-        <f aca="false">IF(B18=L18,TRUE(),FALSE())</f>
+        <f aca="false">IF(M18&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
       <c r="T18" s="3" t="b">
+        <f aca="false">IF(B18=M18,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>156</v>
+      <c r="V18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>240</v>
+      <c r="A19" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>32</v>
@@ -7298,75 +7443,78 @@
         <v>175</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="K19" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L19" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L19" s="1" t="n">
+      <c r="M19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="M19" s="1" t="n">
+      <c r="N19" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="O19" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="O19" s="1" t="n">
-        <f aca="false">2023-N19</f>
+      <c r="P19" s="1" t="n">
+        <f aca="false">2023-O19</f>
         <v>19</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q19" s="3" t="b">
+      <c r="Q19" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="R19" s="3" t="b">
         <f aca="false">IF(B19&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R19" s="3" t="b">
-        <f aca="false">IF(L19&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S19" s="3" t="b">
-        <f aca="false">IF(B19=L19,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="2" t="n">
+        <f aca="false">IF(M19&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="3" t="b">
+        <f aca="false">IF(B19=M19,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U19" s="1" t="n">
+      <c r="V19" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="V19" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>156</v>
+      <c r="W19" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>245</v>
+      <c r="A20" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>28</v>
@@ -7375,72 +7523,75 @@
         <v>178</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>117</v>
+        <v>198</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K20" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L20" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L20" s="1" t="n">
+      <c r="M20" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="M20" s="1" t="n">
+      <c r="N20" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="O20" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="O20" s="1" t="n">
-        <f aca="false">2023-N20</f>
+      <c r="P20" s="1" t="n">
+        <f aca="false">2023-O20</f>
         <v>14</v>
       </c>
-      <c r="P20" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q20" s="3" t="b">
+      <c r="Q20" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="R20" s="3" t="b">
         <f aca="false">IF(B20&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="b">
-        <f aca="false">IF(L20&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S20" s="3" t="b">
-        <f aca="false">IF(B20=L20,TRUE(),FALSE())</f>
+        <f aca="false">IF(M20&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="b">
+        <f aca="false">IF(B20=M20,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="T20" s="3" t="b">
+      <c r="U20" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>250</v>
+      <c r="V20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>27</v>
@@ -7449,75 +7600,78 @@
         <v>173</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K21" s="3" t="b">
+        <v>267</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L21" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L21" s="1" t="n">
+      <c r="M21" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="M21" s="1" t="n">
+      <c r="N21" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="O21" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="O21" s="1" t="n">
-        <f aca="false">2023-N21</f>
+      <c r="P21" s="1" t="n">
+        <f aca="false">2023-O21</f>
         <v>14</v>
       </c>
-      <c r="P21" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q21" s="3" t="b">
+      <c r="Q21" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="R21" s="3" t="b">
         <f aca="false">IF(B21&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R21" s="3" t="b">
-        <f aca="false">IF(L21&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S21" s="3" t="b">
-        <f aca="false">IF(B21=L21,TRUE(),FALSE())</f>
+        <f aca="false">IF(M21&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
       <c r="T21" s="3" t="b">
+        <f aca="false">IF(B21=M21,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>156</v>
+      <c r="V21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>255</v>
+      <c r="A22" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>29</v>
@@ -7526,72 +7680,75 @@
         <v>174</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>28</v>
+        <v>272</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>257</v>
+        <v>29</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K22" s="3" t="b">
+        <v>274</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="L22" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L22" s="1" t="n">
+      <c r="M22" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="M22" s="1" t="n">
+      <c r="N22" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="N22" s="1" t="n">
+      <c r="O22" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="O22" s="1" t="n">
-        <f aca="false">2023-N22</f>
+      <c r="P22" s="1" t="n">
+        <f aca="false">2023-O22</f>
         <v>12</v>
       </c>
-      <c r="P22" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q22" s="3" t="b">
+      <c r="Q22" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="R22" s="3" t="b">
         <f aca="false">IF(B22&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="b">
-        <f aca="false">IF(L22&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="S22" s="3" t="b">
-        <f aca="false">IF(B22=L22,TRUE(),FALSE())</f>
+        <f aca="false">IF(M22&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
       <c r="T22" s="3" t="b">
+        <f aca="false">IF(B22=M22,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>156</v>
+      <c r="V22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>261</v>
+      <c r="A23" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>508</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>28</v>
@@ -7600,78 +7757,81 @@
         <v>174</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>263</v>
+        <v>29</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="K23" s="3" t="b">
+        <v>281</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L23" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L23" s="1" t="n">
+      <c r="M23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M23" s="1" t="n">
+      <c r="N23" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="N23" s="1" t="n">
+      <c r="O23" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="O23" s="1" t="n">
-        <f aca="false">2023-N23</f>
+      <c r="P23" s="1" t="n">
+        <f aca="false">2023-O23</f>
         <v>15</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q23" s="3" t="b">
+      <c r="Q23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="R23" s="3" t="b">
         <f aca="false">IF(B23&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="R23" s="3" t="b">
-        <f aca="false">IF(L23&lt;11,TRUE(),FALSE())</f>
+      <c r="S23" s="3" t="b">
+        <f aca="false">IF(M23&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
-      </c>
-      <c r="S23" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
       </c>
       <c r="T23" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>156</v>
+      <c r="U23" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="T23">
+  <conditionalFormatting sqref="U23">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AMJ1 A2:O2 V2:AMJ6 A3:U6 Q2:U2 A7:AMJ1048576">
+  <conditionalFormatting sqref="A1:AMJ1 A2:P2 W2:AMJ6 A3:V6 R2:V2 A7:AMJ1048576">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>TRUE()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W1 A2:O2 V2:W6 A3:U6 Q2:U2 A7:W23">
+  <conditionalFormatting sqref="A1:X1 A2:P2 W2:X6 A3:V6 R2:V2 A7:X23">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>1</formula>
     </cfRule>
@@ -7690,28 +7850,28 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1" display="https://libema-open.nl/wp-content/uploads/2023/05/Bencic_Hero-Smile.webp"/>
-    <hyperlink ref="V3" r:id="rId2" display="https://libema-open.nl/wp-content/uploads/2023/05/Kudermetova_Hero-Smile.webp"/>
-    <hyperlink ref="V4" r:id="rId3" display="https://libema-open.nl/wp-content/uploads/2023/05/Samsonova_Crop.webp"/>
-    <hyperlink ref="V5" r:id="rId4" display="https://libema-open.nl/wp-content/uploads/2023/05/azarenka.webp"/>
-    <hyperlink ref="V6" r:id="rId5" display="https://libema-open.nl/wp-content/uploads/2023/05/Zheng-Torso_328120.webp"/>
-    <hyperlink ref="V7" r:id="rId6" display="https://libema-open.nl/wp-content/uploads/2023/05/Alexandrova_Hero-Smile.webp"/>
-    <hyperlink ref="V8" r:id="rId7" display="https://libema-open.nl/wp-content/uploads/2023/05/Mertens_Hero-Smile.webp"/>
-    <hyperlink ref="V9" r:id="rId8" display="https://libema-open.nl/wp-content/uploads/2023/05/Martic_Hero-Smile.webp"/>
-    <hyperlink ref="V10" r:id="rId9" display="https://libema-open.nl/wp-content/uploads/2023/05/Andreescu_crop.webp"/>
-    <hyperlink ref="V11" r:id="rId10" display="https://libema-open.nl/wp-content/uploads/2023/05/Rogers-Torso_317421.webp"/>
-    <hyperlink ref="V12" r:id="rId11" display="https://libema-open.nl/wp-content/uploads/2023/05/QcvLKQRa.webp"/>
-    <hyperlink ref="V13" r:id="rId12" display="https://libema-open.nl/wp-content/uploads/2023/05/MLBGcqtM.webp"/>
-    <hyperlink ref="V14" r:id="rId13" display="https://libema-open.nl/wp-content/uploads/2023/05/Gracheva_crop.webp"/>
-    <hyperlink ref="V15" r:id="rId14" display="https://libema-open.nl/wp-content/uploads/2023/05/Muchova_Hero-Smile.webp"/>
-    <hyperlink ref="V16" r:id="rId15" display="https://libema-open.nl/wp-content/uploads/2023/05/McNally_Crop.webp"/>
-    <hyperlink ref="V17" r:id="rId16" display="https://libema-open.nl/wp-content/uploads/2023/05/LiQQMObq.webp"/>
-    <hyperlink ref="V18" r:id="rId17" display="https://libema-open.nl/wp-content/uploads/2023/05/KxenXejL.webp"/>
-    <hyperlink ref="V19" r:id="rId18" display="https://libema-open.nl/wp-content/uploads/2023/05/SuWqgWYb.webp"/>
-    <hyperlink ref="V20" r:id="rId19" display="https://libema-open.nl/wp-content/uploads/2023/05/fNpQoEOl.webp"/>
-    <hyperlink ref="V21" r:id="rId20" display="https://libema-open.nl/wp-content/uploads/2023/05/ODTCCbpp.webp"/>
-    <hyperlink ref="V22" r:id="rId21" display="https://libema-open.nl/wp-content/uploads/2023/05/Friedsam_Crop.webp"/>
-    <hyperlink ref="V23" r:id="rId22" display="https://libema-open.nl/wp-content/uploads/2023/05/Svitolina_Hero-Smile.webp"/>
+    <hyperlink ref="W2" r:id="rId1" display="https://libema-open.nl/wp-content/uploads/2023/05/Bencic_Hero-Smile.webp"/>
+    <hyperlink ref="W3" r:id="rId2" display="https://libema-open.nl/wp-content/uploads/2023/05/Kudermetova_Hero-Smile.webp"/>
+    <hyperlink ref="W4" r:id="rId3" display="https://libema-open.nl/wp-content/uploads/2023/05/Samsonova_Crop.webp"/>
+    <hyperlink ref="W5" r:id="rId4" display="https://libema-open.nl/wp-content/uploads/2023/05/azarenka.webp"/>
+    <hyperlink ref="W6" r:id="rId5" display="https://libema-open.nl/wp-content/uploads/2023/05/Zheng-Torso_328120.webp"/>
+    <hyperlink ref="W7" r:id="rId6" display="https://libema-open.nl/wp-content/uploads/2023/05/Alexandrova_Hero-Smile.webp"/>
+    <hyperlink ref="W8" r:id="rId7" display="https://libema-open.nl/wp-content/uploads/2023/05/Mertens_Hero-Smile.webp"/>
+    <hyperlink ref="W9" r:id="rId8" display="https://libema-open.nl/wp-content/uploads/2023/05/Martic_Hero-Smile.webp"/>
+    <hyperlink ref="W10" r:id="rId9" display="https://libema-open.nl/wp-content/uploads/2023/05/Andreescu_crop.webp"/>
+    <hyperlink ref="W11" r:id="rId10" display="https://libema-open.nl/wp-content/uploads/2023/05/Rogers-Torso_317421.webp"/>
+    <hyperlink ref="W12" r:id="rId11" display="https://libema-open.nl/wp-content/uploads/2023/05/QcvLKQRa.webp"/>
+    <hyperlink ref="W13" r:id="rId12" display="https://libema-open.nl/wp-content/uploads/2023/05/MLBGcqtM.webp"/>
+    <hyperlink ref="W14" r:id="rId13" display="https://libema-open.nl/wp-content/uploads/2023/05/Gracheva_crop.webp"/>
+    <hyperlink ref="W15" r:id="rId14" display="https://libema-open.nl/wp-content/uploads/2023/05/Muchova_Hero-Smile.webp"/>
+    <hyperlink ref="W16" r:id="rId15" display="https://libema-open.nl/wp-content/uploads/2023/05/McNally_Crop.webp"/>
+    <hyperlink ref="W17" r:id="rId16" display="https://libema-open.nl/wp-content/uploads/2023/05/LiQQMObq.webp"/>
+    <hyperlink ref="W18" r:id="rId17" display="https://libema-open.nl/wp-content/uploads/2023/05/KxenXejL.webp"/>
+    <hyperlink ref="W19" r:id="rId18" display="https://libema-open.nl/wp-content/uploads/2023/05/SuWqgWYb.webp"/>
+    <hyperlink ref="W20" r:id="rId19" display="https://libema-open.nl/wp-content/uploads/2023/05/fNpQoEOl.webp"/>
+    <hyperlink ref="W21" r:id="rId20" display="https://libema-open.nl/wp-content/uploads/2023/05/ODTCCbpp.webp"/>
+    <hyperlink ref="W22" r:id="rId21" display="https://libema-open.nl/wp-content/uploads/2023/05/Friedsam_Crop.webp"/>
+    <hyperlink ref="W23" r:id="rId22" display="https://libema-open.nl/wp-content/uploads/2023/05/Svitolina_Hero-Smile.webp"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7741,27 +7901,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/Competitors.xlsx
+++ b/backend/data/Competitors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="295">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
@@ -48,6 +48,9 @@
     <t xml:space="preserve">CountryCode</t>
   </si>
   <si>
+    <t xml:space="preserve">CountryZone</t>
+  </si>
+  <si>
     <t xml:space="preserve">Favorite shot</t>
   </si>
   <si>
@@ -147,6 +150,9 @@
     <t xml:space="preserve">CA</t>
   </si>
   <si>
+    <t xml:space="preserve">North America</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forehand</t>
   </si>
   <si>
@@ -171,6 +177,9 @@
     <t xml:space="preserve">HR</t>
   </si>
   <si>
+    <t xml:space="preserve">Central Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hard worker, physical, good looking, Defensive Baseliner, Mentally Tough</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t xml:space="preserve">ES</t>
   </si>
   <si>
+    <t xml:space="preserve">South Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heated when angry, hard worker, patient, consistent, strategic, groundstroke</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t xml:space="preserve">NL</t>
   </si>
   <si>
+    <t xml:space="preserve">Dutch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Local hero, shy, quiet, aggressive, fighting spirit</t>
   </si>
   <si>
@@ -384,6 +399,9 @@
     <t xml:space="preserve">FI</t>
   </si>
   <si>
+    <t xml:space="preserve">North Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Focused, cool, consistent</t>
   </si>
   <si>
@@ -405,6 +423,9 @@
     <t xml:space="preserve">FR</t>
   </si>
   <si>
+    <t xml:space="preserve">West Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Volley</t>
   </si>
   <si>
@@ -447,6 +468,9 @@
     <t xml:space="preserve">KZ</t>
   </si>
   <si>
+    <t xml:space="preserve">East Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Showman, outspoken, interactive, unpredictable, entertaining</t>
   </si>
   <si>
@@ -589,6 +613,9 @@
   </si>
   <si>
     <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asia</t>
   </si>
   <si>
     <t xml:space="preserve">Talented, Versatile, strong groundstrokes, powerful serve, aggressive, net play</t>
@@ -1127,27 +1154,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1021"/>
+  <dimension ref="A1:AA1021"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="13.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="13.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="0" width="15.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,16 +1256,19 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>27</v>
@@ -1246,9 +1276,6 @@
       <c r="E2" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1261,65 +1288,68 @@
       <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <f aca="false">2023-P2</f>
+      <c r="R2" s="1" t="n">
+        <f aca="false">2023-Q2</f>
         <v>9</v>
       </c>
-      <c r="R2" s="3" t="b">
+      <c r="S2" s="3" t="b">
         <f aca="false">IF(B2&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="S2" s="2" t="n">
-        <f aca="false">IF(N2&lt;11,TRUE(),FALSE())</f>
+      <c r="T2" s="2" t="n">
+        <f aca="false">IF(O2&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="T2" s="2" t="n">
-        <f aca="false">IF(B2=N2,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="1" t="str">
-        <f aca="false">IF(B2=N2,"All time high","")</f>
+      <c r="U2" s="2" t="n">
+        <f aca="false">IF(B2=O2,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="1" t="str">
+        <f aca="false">IF(B2=O2,"All time high","")</f>
         <v/>
       </c>
-      <c r="W2" s="3" t="b">
+      <c r="X2" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>34</v>
+      <c r="Y2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AA2" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>22</v>
@@ -1328,85 +1358,88 @@
         <v>193</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="P3" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="Q3" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="Q3" s="1" t="n">
-        <f aca="false">2023-P3</f>
+      <c r="R3" s="1" t="n">
+        <f aca="false">2023-Q3</f>
         <v>6</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="S3" s="2" t="n">
         <f aca="false">IF(B3&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="S3" s="2" t="n">
-        <f aca="false">IF(N3&lt;11,TRUE(),FALSE())</f>
+      <c r="T3" s="2" t="n">
+        <f aca="false">IF(O3&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="T3" s="2" t="n">
-        <f aca="false">IF(B3=N3,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" s="1" t="str">
-        <f aca="false">IF(B3=N3,"All time high","")</f>
+      <c r="U3" s="2" t="n">
+        <f aca="false">IF(B3=O3,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="1" t="str">
+        <f aca="false">IF(B3=O3,"All time high","")</f>
         <v/>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="X3" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>44</v>
+      <c r="Y3" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>26</v>
@@ -1415,85 +1448,88 @@
         <v>188</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="P4" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="Q4" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="Q4" s="1" t="n">
-        <f aca="false">2023-P4</f>
+      <c r="R4" s="1" t="n">
+        <f aca="false">2023-Q4</f>
         <v>10</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="S4" s="2" t="n">
         <f aca="false">IF(B4&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S4" s="2" t="n">
-        <f aca="false">IF(N4&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T4" s="2" t="n">
-        <f aca="false">IF(B4=N4,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="1" t="str">
-        <f aca="false">IF(B4=N4,"All time high","")</f>
+        <f aca="false">IF(O4&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <f aca="false">IF(B4=O4,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="1" t="str">
+        <f aca="false">IF(B4=O4,"All time high","")</f>
         <v/>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="X4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>51</v>
+      <c r="Y4" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>24</v>
@@ -1502,85 +1538,88 @@
         <v>183</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="P5" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="Q5" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="Q5" s="1" t="n">
-        <f aca="false">2023-P5</f>
+      <c r="R5" s="1" t="n">
+        <f aca="false">2023-Q5</f>
         <v>8</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="S5" s="2" t="n">
         <f aca="false">IF(B5&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S5" s="2" t="n">
-        <f aca="false">IF(N5&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T5" s="2" t="n">
-        <f aca="false">IF(B5=N5,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V5" s="1" t="str">
-        <f aca="false">IF(B5=N5,"All time high","")</f>
+        <f aca="false">IF(O5&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <f aca="false">IF(B5=O5,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="1" t="str">
+        <f aca="false">IF(B5=O5,"All time high","")</f>
         <v/>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="X5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>58</v>
+      <c r="Y5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>31</v>
@@ -1589,85 +1628,88 @@
         <v>188</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="O6" s="1" t="n">
+      <c r="P6" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="Q6" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="Q6" s="1" t="n">
-        <f aca="false">2023-P6</f>
+      <c r="R6" s="1" t="n">
+        <f aca="false">2023-Q6</f>
         <v>14</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="S6" s="2" t="n">
         <f aca="false">IF(B6&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S6" s="2" t="n">
-        <f aca="false">IF(N6&lt;11,TRUE(),FALSE())</f>
+      <c r="T6" s="2" t="n">
+        <f aca="false">IF(O6&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="T6" s="2" t="n">
-        <f aca="false">IF(B6=N6,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V6" s="1" t="str">
-        <f aca="false">IF(B6=N6,"All time high","")</f>
+      <c r="U6" s="2" t="n">
+        <f aca="false">IF(B6=O6,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" s="1" t="str">
+        <f aca="false">IF(B6=O6,"All time high","")</f>
         <v/>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="X6" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>35</v>
+      <c r="Y6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>34</v>
@@ -1676,85 +1718,88 @@
         <v>198</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="P7" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="Q7" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="Q7" s="1" t="n">
-        <f aca="false">2023-P7</f>
+      <c r="R7" s="1" t="n">
+        <f aca="false">2023-Q7</f>
         <v>18</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="S7" s="2" t="n">
         <f aca="false">IF(B7&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S7" s="2" t="n">
-        <f aca="false">IF(N7&lt;11,TRUE(),FALSE())</f>
+      <c r="T7" s="2" t="n">
+        <f aca="false">IF(O7&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="T7" s="2" t="n">
-        <f aca="false">IF(B7=N7,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V7" s="1" t="str">
-        <f aca="false">IF(B7=N7,"All time high","")</f>
+      <c r="U7" s="2" t="n">
+        <f aca="false">IF(B7=O7,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="1" t="str">
+        <f aca="false">IF(B7=O7,"All time high","")</f>
         <v/>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="X7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>35</v>
+      <c r="Y7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>35</v>
@@ -1763,85 +1808,88 @@
         <v>193</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="P8" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="Q8" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="Q8" s="1" t="n">
-        <f aca="false">2023-P8</f>
+      <c r="R8" s="1" t="n">
+        <f aca="false">2023-Q8</f>
         <v>18</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="S8" s="2" t="n">
         <f aca="false">IF(B8&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S8" s="2" t="n">
-        <f aca="false">IF(N8&lt;11,TRUE(),FALSE())</f>
+      <c r="T8" s="2" t="n">
+        <f aca="false">IF(O8&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="T8" s="2" t="n">
-        <f aca="false">IF(B8=N8,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="V8" s="1" t="str">
-        <f aca="false">IF(B8=N8,"All time high","")</f>
+      <c r="U8" s="2" t="n">
+        <f aca="false">IF(B8=O8,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W8" s="1" t="str">
+        <f aca="false">IF(B8=O8,"All time high","")</f>
         <v/>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="X8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="X8" s="1" t="n">
+      <c r="Y8" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="Y8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>35</v>
+      <c r="Z8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>27</v>
@@ -1850,85 +1898,88 @@
         <v>191</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="O9" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="P9" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="Q9" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="Q9" s="1" t="n">
-        <f aca="false">2023-P9</f>
+      <c r="R9" s="1" t="n">
+        <f aca="false">2023-Q9</f>
         <v>7</v>
       </c>
-      <c r="R9" s="2" t="n">
+      <c r="S9" s="2" t="n">
         <f aca="false">IF(B9&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S9" s="2" t="n">
-        <f aca="false">IF(N9&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T9" s="2" t="n">
-        <f aca="false">IF(B9=N9,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V9" s="1" t="str">
-        <f aca="false">IF(B9=N9,"All time high","")</f>
+        <f aca="false">IF(O9&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <f aca="false">IF(B9=O9,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W9" s="1" t="str">
+        <f aca="false">IF(B9=O9,"All time high","")</f>
         <v/>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="X9" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>35</v>
+      <c r="Y9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>32</v>
@@ -1937,84 +1988,87 @@
         <v>196</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="O10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="P10" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="Q10" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="Q10" s="1" t="n">
-        <f aca="false">2023-P10</f>
+      <c r="R10" s="1" t="n">
+        <f aca="false">2023-Q10</f>
         <v>15</v>
       </c>
-      <c r="R10" s="2" t="n">
+      <c r="S10" s="2" t="n">
         <f aca="false">IF(B10&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S10" s="2" t="n">
-        <f aca="false">IF(N10&lt;11,TRUE(),FALSE())</f>
+      <c r="T10" s="2" t="n">
+        <f aca="false">IF(O10&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="T10" s="2" t="n">
-        <f aca="false">IF(B10=N10,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="W10" s="2" t="n">
+      <c r="U10" s="2" t="n">
+        <f aca="false">IF(B10=O10,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X10" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>35</v>
+      <c r="Y10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>26</v>
@@ -2023,85 +2077,88 @@
         <v>188</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="O11" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="P11" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="Q11" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="Q11" s="1" t="n">
-        <f aca="false">2023-P11</f>
+      <c r="R11" s="1" t="n">
+        <f aca="false">2023-Q11</f>
         <v>8</v>
       </c>
-      <c r="R11" s="2" t="n">
+      <c r="S11" s="2" t="n">
         <f aca="false">IF(B11&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S11" s="2" t="n">
-        <f aca="false">IF(N11&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T11" s="2" t="n">
-        <f aca="false">IF(B11=N11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V11" s="1" t="str">
-        <f aca="false">IF(B11=N11,"All time high","")</f>
+        <f aca="false">IF(O11&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <f aca="false">IF(B11=O11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W11" s="1" t="str">
+        <f aca="false">IF(B11=O11,"All time high","")</f>
         <v/>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="X11" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>35</v>
+      <c r="Y11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>23</v>
@@ -2110,85 +2167,88 @@
         <v>183</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="O12" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="P12" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="Q12" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="Q12" s="1" t="n">
-        <f aca="false">2023-P12</f>
+      <c r="R12" s="1" t="n">
+        <f aca="false">2023-Q12</f>
         <v>6</v>
       </c>
-      <c r="R12" s="2" t="n">
+      <c r="S12" s="2" t="n">
         <f aca="false">IF(B12&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S12" s="2" t="n">
-        <f aca="false">IF(N12&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T12" s="2" t="n">
-        <f aca="false">IF(B12=N12,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="V12" s="1" t="str">
-        <f aca="false">IF(B12=N12,"All time high","")</f>
+        <f aca="false">IF(O12&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2" t="n">
+        <f aca="false">IF(B12=O12,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W12" s="1" t="str">
+        <f aca="false">IF(B12=O12,"All time high","")</f>
         <v/>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="X12" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>35</v>
+      <c r="Y12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>26</v>
@@ -2197,85 +2257,88 @@
         <v>183</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M13" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N13" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N13" s="1" t="n">
+      <c r="O13" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="P13" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="Q13" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="Q13" s="1" t="n">
-        <f aca="false">2023-P13</f>
+      <c r="R13" s="1" t="n">
+        <f aca="false">2023-Q13</f>
         <v>8</v>
       </c>
-      <c r="R13" s="2" t="n">
+      <c r="S13" s="2" t="n">
         <f aca="false">IF(B13&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S13" s="2" t="n">
-        <f aca="false">IF(N13&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="3" t="b">
-        <f aca="false">IF(B13=N13,TRUE(),FALSE())</f>
+      <c r="T13" s="2" t="n">
+        <f aca="false">IF(O13&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="3" t="b">
+        <f aca="false">IF(B13=O13,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="V13" s="1" t="str">
-        <f aca="false">IF(B13=N13,"All time high","")</f>
+      <c r="V13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W13" s="1" t="str">
+        <f aca="false">IF(B13=O13,"All time high","")</f>
         <v>All time high</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="X13" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>35</v>
+      <c r="Y13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>26</v>
@@ -2284,85 +2347,88 @@
         <v>201</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="O14" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="P14" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="Q14" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="Q14" s="1" t="n">
-        <f aca="false">2023-P14</f>
+      <c r="R14" s="1" t="n">
+        <f aca="false">2023-Q14</f>
         <v>4</v>
       </c>
-      <c r="R14" s="2" t="n">
+      <c r="S14" s="2" t="n">
         <f aca="false">IF(B14&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S14" s="2" t="n">
-        <f aca="false">IF(N14&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T14" s="2" t="n">
-        <f aca="false">IF(B14=N14,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="V14" s="1" t="str">
-        <f aca="false">IF(B14=N14,"All time high","")</f>
+        <f aca="false">IF(O14&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="2" t="n">
+        <f aca="false">IF(B14=O14,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="W14" s="1" t="str">
+        <f aca="false">IF(B14=O14,"All time high","")</f>
         <v/>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="X14" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>35</v>
+      <c r="Y14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>24</v>
@@ -2371,85 +2437,88 @@
         <v>188</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M15" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N15" s="1" t="n">
+      <c r="O15" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="P15" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="P15" s="1" t="n">
+      <c r="Q15" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="Q15" s="1" t="n">
-        <f aca="false">2023-P15</f>
+      <c r="R15" s="1" t="n">
+        <f aca="false">2023-Q15</f>
         <v>5</v>
       </c>
-      <c r="R15" s="2" t="n">
+      <c r="S15" s="2" t="n">
         <f aca="false">IF(B15&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S15" s="2" t="n">
-        <f aca="false">IF(N15&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T15" s="2" t="n">
-        <f aca="false">IF(B15=N15,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="V15" s="1" t="str">
-        <f aca="false">IF(B15=N15,"All time high","")</f>
+        <f aca="false">IF(O15&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="2" t="n">
+        <f aca="false">IF(B15=O15,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W15" s="1" t="str">
+        <f aca="false">IF(B15=O15,"All time high","")</f>
         <v/>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="X15" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>35</v>
+      <c r="Y15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>34</v>
@@ -2458,85 +2527,88 @@
         <v>180</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N16" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="O16" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="O16" s="1" t="n">
+      <c r="P16" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="P16" s="1" t="n">
+      <c r="Q16" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="Q16" s="1" t="n">
-        <f aca="false">2023-P16</f>
+      <c r="R16" s="1" t="n">
+        <f aca="false">2023-Q16</f>
         <v>19</v>
       </c>
-      <c r="R16" s="2" t="n">
+      <c r="S16" s="2" t="n">
         <f aca="false">IF(B16&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S16" s="2" t="n">
-        <f aca="false">IF(N16&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T16" s="2" t="n">
-        <f aca="false">IF(B16=N16,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="V16" s="1" t="str">
-        <f aca="false">IF(B16=N16,"All time high","")</f>
+        <f aca="false">IF(O16&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="2" t="n">
+        <f aca="false">IF(B16=O16,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W16" s="1" t="str">
+        <f aca="false">IF(B16=O16,"All time high","")</f>
         <v/>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="X16" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="X16" s="1" t="n">
+      <c r="Y16" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="Y16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>35</v>
+      <c r="Z16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>21</v>
@@ -2545,85 +2617,88 @@
         <v>188</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M17" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="O17" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="P17" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="P17" s="1" t="n">
+      <c r="Q17" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="Q17" s="1" t="n">
-        <f aca="false">2023-P17</f>
+      <c r="R17" s="1" t="n">
+        <f aca="false">2023-Q17</f>
         <v>4</v>
       </c>
-      <c r="R17" s="2" t="n">
+      <c r="S17" s="2" t="n">
         <f aca="false">IF(B17&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S17" s="2" t="n">
-        <f aca="false">IF(N17&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T17" s="2" t="n">
-        <f aca="false">IF(B17=N17,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V17" s="1" t="str">
-        <f aca="false">IF(B17=N17,"All time high","")</f>
+        <f aca="false">IF(O17&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2" t="n">
+        <f aca="false">IF(B17=O17,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W17" s="1" t="str">
+        <f aca="false">IF(B17=O17,"All time high","")</f>
         <v/>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="X17" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>35</v>
+      <c r="Y17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>25</v>
@@ -2632,85 +2707,88 @@
         <v>196</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M18" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N18" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="O18" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="P18" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="P18" s="1" t="n">
+      <c r="Q18" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="Q18" s="1" t="n">
-        <f aca="false">2023-P18</f>
+      <c r="R18" s="1" t="n">
+        <f aca="false">2023-Q18</f>
         <v>7</v>
       </c>
-      <c r="R18" s="2" t="n">
+      <c r="S18" s="2" t="n">
         <f aca="false">IF(B18&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S18" s="2" t="n">
-        <f aca="false">IF(N18&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T18" s="2" t="n">
-        <f aca="false">IF(B18=N18,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V18" s="1" t="str">
-        <f aca="false">IF(B18=N18,"All time high","")</f>
+        <f aca="false">IF(O18&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="2" t="n">
+        <f aca="false">IF(B18=O18,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="W18" s="1" t="str">
+        <f aca="false">IF(B18=O18,"All time high","")</f>
         <v/>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="X18" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>35</v>
+      <c r="Y18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>24</v>
@@ -2719,85 +2797,88 @@
         <v>188</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M19" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N19" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="O19" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="P19" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="P19" s="1" t="n">
+      <c r="Q19" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="Q19" s="1" t="n">
-        <f aca="false">2023-P19</f>
+      <c r="R19" s="1" t="n">
+        <f aca="false">2023-Q19</f>
         <v>7</v>
       </c>
-      <c r="R19" s="2" t="n">
+      <c r="S19" s="2" t="n">
         <f aca="false">IF(B19&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S19" s="2" t="n">
-        <f aca="false">IF(N19&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T19" s="2" t="n">
-        <f aca="false">IF(B19=N19,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="V19" s="1" t="str">
-        <f aca="false">IF(B19=N19,"All time high","")</f>
+        <f aca="false">IF(O19&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="2" t="n">
+        <f aca="false">IF(B19=O19,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W19" s="1" t="str">
+        <f aca="false">IF(B19=O19,"All time high","")</f>
         <v/>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="X19" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>35</v>
+      <c r="Y19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>24</v>
@@ -2806,85 +2887,88 @@
         <v>183</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M20" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N20" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="O20" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="P20" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="P20" s="1" t="n">
+      <c r="Q20" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="Q20" s="1" t="n">
-        <f aca="false">2023-P20</f>
+      <c r="R20" s="1" t="n">
+        <f aca="false">2023-Q20</f>
         <v>8</v>
       </c>
-      <c r="R20" s="2" t="n">
+      <c r="S20" s="2" t="n">
         <f aca="false">IF(B20&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S20" s="2" t="n">
-        <f aca="false">IF(N20&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T20" s="2" t="n">
-        <f aca="false">IF(B20=N20,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="V20" s="1" t="str">
-        <f aca="false">IF(B20=N20,"All time high","")</f>
+        <f aca="false">IF(O20&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="2" t="n">
+        <f aca="false">IF(B20=O20,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="W20" s="1" t="str">
+        <f aca="false">IF(B20=O20,"All time high","")</f>
         <v/>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="X20" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>35</v>
+      <c r="Y20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>157</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>26</v>
@@ -2893,80 +2977,83 @@
         <v>188</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="M21" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N21" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="O21" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="O21" s="1" t="n">
+      <c r="P21" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="P21" s="1" t="n">
+      <c r="Q21" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="Q21" s="1" t="n">
-        <f aca="false">2023-P21</f>
+      <c r="R21" s="1" t="n">
+        <f aca="false">2023-Q21</f>
         <v>8</v>
       </c>
-      <c r="R21" s="2" t="n">
+      <c r="S21" s="2" t="n">
         <f aca="false">IF(B21&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S21" s="2" t="n">
-        <f aca="false">IF(N21&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
       <c r="T21" s="2" t="n">
-        <f aca="false">IF(B21=N21,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="V21" s="1" t="str">
-        <f aca="false">IF(B21=N21,"All time high","")</f>
+        <f aca="false">IF(O21&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <f aca="false">IF(B21=O21,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W21" s="1" t="str">
+        <f aca="false">IF(B21=O21,"All time high","")</f>
         <v/>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="X21" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="X21" s="1" t="n">
+      <c r="Y21" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="Y21" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>35</v>
+      <c r="Z21" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1"/>
-      <c r="S22" s="2"/>
       <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1"/>
@@ -2998,6 +3085,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1"/>
@@ -5988,12 +6076,12 @@
       <c r="C1021" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AMJ3 A5:AMJ1048576 A4:F4 H4:AMJ4">
+  <conditionalFormatting sqref="A1:AMJ3 A5:AMJ1048576 A4:F4 I4:AMJ4">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>TRUE()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AMJ3 A5:AMJ21 A4:F4 H4:AMJ4">
+  <conditionalFormatting sqref="A1:AMJ3 A5:AMJ21 A4:F4 I4:AMJ4">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>1</formula>
     </cfRule>
@@ -6008,22 +6096,22 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Y6" r:id="rId1" display="https://libema-open.nl/wp-content/uploads/2023/05/carreno-busta-full-2022-may.png"/>
-    <hyperlink ref="Y7" r:id="rId2" display="https://libema-open.nl//wp-content/uploads/2023/05/cilic-full-2022-may.png"/>
-    <hyperlink ref="Y8" r:id="rId3" display="https://libema-open.nl/wp-content/uploads/2023/05/bautista-agut-full-2022-may.png"/>
-    <hyperlink ref="Y9" r:id="rId4" display="https://libema-open.nl/wp-content/uploads/2023/05/van-de-zandschulp-full-2022-may.png"/>
-    <hyperlink ref="Y10" r:id="rId5" display="https://libema-open.nl/wp-content/uploads/2023/05/raonic_full_ao20.png"/>
-    <hyperlink ref="Y11" r:id="rId6" display="https://libema-open.nl/wp-content/uploads/2023/05/griekspoor-full-2022-may.png"/>
-    <hyperlink ref="Y12" r:id="rId7" display="https://libema-open.nl/wp-content/uploads/2023/05/kecmanovic_full_2022_october-1.png"/>
-    <hyperlink ref="Y13" r:id="rId8" display="https://libema-open.nl/wp-content/uploads/2023/05/zapata_miralles_full_2022.png"/>
-    <hyperlink ref="Y14" r:id="rId9" display="https://libema-open.nl/wp-content/uploads/2023/05/cressy-full-2022-june.png"/>
-    <hyperlink ref="Y15" r:id="rId10" display="https://libema-open.nl/wp-content/uploads/2023/05/ruusuvuori_full_2023.png"/>
-    <hyperlink ref="Y16" r:id="rId11" display="https://libema-open.nl/wp-content/uploads/2023/05/mannarino-full-2022-may.png"/>
-    <hyperlink ref="Y17" r:id="rId12" display="https://libema-open.nl/wp-content/uploads/2023/05/nakashima-full-2022-may.png"/>
-    <hyperlink ref="Y18" r:id="rId13" display="https://libema-open.nl/wp-content/uploads/2023/05/bublik_full_2023_update.png"/>
-    <hyperlink ref="Y19" r:id="rId14" display="https://libema-open.nl/wp-content/uploads/2023/05/humbert-full-2022-june.png"/>
-    <hyperlink ref="Y20" r:id="rId15" display="https://libema-open.nl/wp-content/uploads/2023/05/ymer_m_full_ao20.png"/>
-    <hyperlink ref="Y21" r:id="rId16" display="https://libema-open.nl/wp-content/uploads/2022/05/van_rijthoven_tim_head_pp19.png"/>
+    <hyperlink ref="Z6" r:id="rId1" display="https://libema-open.nl/wp-content/uploads/2023/05/carreno-busta-full-2022-may.png"/>
+    <hyperlink ref="Z7" r:id="rId2" display="https://libema-open.nl//wp-content/uploads/2023/05/cilic-full-2022-may.png"/>
+    <hyperlink ref="Z8" r:id="rId3" display="https://libema-open.nl/wp-content/uploads/2023/05/bautista-agut-full-2022-may.png"/>
+    <hyperlink ref="Z9" r:id="rId4" display="https://libema-open.nl/wp-content/uploads/2023/05/van-de-zandschulp-full-2022-may.png"/>
+    <hyperlink ref="Z10" r:id="rId5" display="https://libema-open.nl/wp-content/uploads/2023/05/raonic_full_ao20.png"/>
+    <hyperlink ref="Z11" r:id="rId6" display="https://libema-open.nl/wp-content/uploads/2023/05/griekspoor-full-2022-may.png"/>
+    <hyperlink ref="Z12" r:id="rId7" display="https://libema-open.nl/wp-content/uploads/2023/05/kecmanovic_full_2022_october-1.png"/>
+    <hyperlink ref="Z13" r:id="rId8" display="https://libema-open.nl/wp-content/uploads/2023/05/zapata_miralles_full_2022.png"/>
+    <hyperlink ref="Z14" r:id="rId9" display="https://libema-open.nl/wp-content/uploads/2023/05/cressy-full-2022-june.png"/>
+    <hyperlink ref="Z15" r:id="rId10" display="https://libema-open.nl/wp-content/uploads/2023/05/ruusuvuori_full_2023.png"/>
+    <hyperlink ref="Z16" r:id="rId11" display="https://libema-open.nl/wp-content/uploads/2023/05/mannarino-full-2022-may.png"/>
+    <hyperlink ref="Z17" r:id="rId12" display="https://libema-open.nl/wp-content/uploads/2023/05/nakashima-full-2022-may.png"/>
+    <hyperlink ref="Z18" r:id="rId13" display="https://libema-open.nl/wp-content/uploads/2023/05/bublik_full_2023_update.png"/>
+    <hyperlink ref="Z19" r:id="rId14" display="https://libema-open.nl/wp-content/uploads/2023/05/humbert-full-2022-june.png"/>
+    <hyperlink ref="Z20" r:id="rId15" display="https://libema-open.nl/wp-content/uploads/2023/05/ymer_m_full_ao20.png"/>
+    <hyperlink ref="Z21" r:id="rId16" display="https://libema-open.nl/wp-content/uploads/2022/05/van_rijthoven_tim_head_pp19.png"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6040,20 +6128,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.34"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6085,7 +6173,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -6106,10 +6194,10 @@
         <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -6118,7 +6206,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>23</v>
@@ -6129,16 +6217,19 @@
       <c r="X1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>26</v>
@@ -6147,78 +6238,81 @@
         <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L2" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="P2" s="1" t="n">
-        <f aca="false">2023-O2</f>
+      <c r="Q2" s="1" t="n">
+        <f aca="false">2023-P2</f>
         <v>12</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="R2" s="3" t="b">
+      <c r="R2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="S2" s="2" t="n">
         <f aca="false">IF(B2&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S2" s="3" t="b">
-        <f aca="false">IF(M2&lt;11,TRUE(),FALSE())</f>
+      <c r="T2" s="2" t="n">
+        <f aca="false">IF(N2&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="T2" s="3" t="b">
-        <f aca="false">IF(B2=M2,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="3" t="b">
+      <c r="U2" s="2" t="n">
+        <f aca="false">IF(B2=N2,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>169</v>
+      <c r="W2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>26</v>
@@ -6226,73 +6320,73 @@
       <c r="E3" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L3" s="3" t="b">
+        <v>179</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="N3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="P3" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <f aca="false">2023-O3</f>
+      <c r="Q3" s="1" t="n">
+        <f aca="false">2023-P3</f>
         <v>11</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="R3" s="3" t="b">
+      <c r="R3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S3" s="2" t="n">
         <f aca="false">IF(B3&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="S3" s="3" t="b">
-        <f aca="false">IF(M3&lt;11,TRUE(),FALSE())</f>
+      <c r="T3" s="2" t="n">
+        <f aca="false">IF(N3&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="T3" s="3" t="b">
-        <f aca="false">IF(B3=M3,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="3" t="b">
+      <c r="U3" s="2" t="n">
+        <f aca="false">IF(B3=N3,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>169</v>
+      <c r="W3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>24</v>
@@ -6300,73 +6394,73 @@
       <c r="E4" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <f aca="false">2023-P4</f>
+        <v>10</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <f aca="false">IF(B4&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <f aca="false">IF(N4&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <f aca="false">IF(B4=N4,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="L4" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <f aca="false">2023-O4</f>
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="R4" s="3" t="b">
-        <f aca="false">IF(B4&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="3" t="b">
-        <f aca="false">IF(M4&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="3" t="b">
-        <f aca="false">IF(B4=M4,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>33</v>
@@ -6374,73 +6468,73 @@
       <c r="E5" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L5" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="N5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="P5" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="P5" s="1" t="n">
-        <f aca="false">2023-O5</f>
+      <c r="Q5" s="1" t="n">
+        <f aca="false">2023-P5</f>
         <v>20</v>
       </c>
-      <c r="Q5" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="R5" s="3" t="b">
+      <c r="R5" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="S5" s="2" t="n">
         <f aca="false">IF(B5&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S5" s="3" t="b">
-        <f aca="false">IF(M5&lt;11,TRUE(),FALSE())</f>
+      <c r="T5" s="2" t="n">
+        <f aca="false">IF(N5&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="T5" s="3" t="b">
-        <f aca="false">IF(B5=M5,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="3" t="b">
+      <c r="U5" s="2" t="n">
+        <f aca="false">IF(B5=N5,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>169</v>
+      <c r="W5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>20</v>
@@ -6449,75 +6543,78 @@
         <v>178</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>195</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L6" s="3" t="b">
+        <v>197</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="N6" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="O6" s="1" t="n">
+      <c r="P6" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="P6" s="8" t="n">
-        <f aca="false">2023-O6</f>
+      <c r="Q6" s="8" t="n">
+        <f aca="false">2023-P6</f>
         <v>5</v>
       </c>
-      <c r="Q6" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="R6" s="3" t="b">
+      <c r="R6" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="S6" s="2" t="n">
         <f aca="false">IF(B6&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S6" s="3" t="b">
-        <f aca="false">IF(M6&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="3" t="b">
-        <f aca="false">IF(B6=M6,TRUE(),FALSE())</f>
+      <c r="T6" s="2" t="n">
+        <f aca="false">IF(N6&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <f aca="false">IF(B6=N6,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="U6" s="3" t="b">
+      <c r="V6" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>169</v>
+      <c r="W6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>28</v>
@@ -6525,73 +6622,73 @@
       <c r="E7" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L7" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="N7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="P7" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="P7" s="1" t="n">
-        <f aca="false">2023-O7</f>
+      <c r="Q7" s="1" t="n">
+        <f aca="false">2023-P7</f>
         <v>12</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R7" s="3" t="b">
+      <c r="R7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="S7" s="2" t="n">
         <f aca="false">IF(B7&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S7" s="3" t="b">
-        <f aca="false">IF(M7&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="3" t="b">
-        <f aca="false">IF(B7=M7,TRUE(),FALSE())</f>
+      <c r="T7" s="2" t="n">
+        <f aca="false">IF(N7&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
       <c r="U7" s="2" t="n">
+        <f aca="false">IF(B7=N7,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V7" s="1" t="n">
+      <c r="W7" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="W7" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>169</v>
+      <c r="X7" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>27</v>
@@ -6600,78 +6697,81 @@
         <v>179</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="L8" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M8" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="N8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="P8" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="P8" s="1" t="n">
-        <f aca="false">2023-O8</f>
+      <c r="Q8" s="1" t="n">
+        <f aca="false">2023-P8</f>
         <v>13</v>
       </c>
-      <c r="Q8" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="R8" s="3" t="b">
+      <c r="R8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="S8" s="2" t="n">
         <f aca="false">IF(B8&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="S8" s="3" t="b">
-        <f aca="false">IF(M8&lt;11,TRUE(),FALSE())</f>
+      <c r="T8" s="2" t="n">
+        <f aca="false">IF(N8&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="T8" s="3" t="b">
-        <f aca="false">IF(B8=M8,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="b">
+      <c r="U8" s="2" t="n">
+        <f aca="false">IF(B8=N8,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>169</v>
+      <c r="W8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>32</v>
@@ -6680,78 +6780,81 @@
         <v>181</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="L9" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M9" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="N9" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="O9" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="P9" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="P9" s="1" t="n">
-        <f aca="false">2023-O9</f>
+      <c r="Q9" s="1" t="n">
+        <f aca="false">2023-P9</f>
         <v>18</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="R9" s="3" t="b">
+      <c r="R9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S9" s="2" t="n">
         <f aca="false">IF(B9&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="b">
-        <f aca="false">IF(M9&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="b">
-        <f aca="false">IF(B9=M9,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="b">
+      <c r="T9" s="2" t="n">
+        <f aca="false">IF(N9&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <f aca="false">IF(B9=N9,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>169</v>
+      <c r="W9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>22</v>
@@ -6760,78 +6863,81 @@
         <v>170</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L10" s="3" t="b">
+        <v>219</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M10" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="N10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="O10" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="P10" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="P10" s="1" t="n">
-        <f aca="false">2023-O10</f>
+      <c r="Q10" s="1" t="n">
+        <f aca="false">2023-P10</f>
         <v>8</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="R10" s="3" t="b">
+      <c r="R10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="S10" s="2" t="n">
         <f aca="false">IF(B10&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="b">
-        <f aca="false">IF(M10&lt;11,TRUE(),FALSE())</f>
+      <c r="T10" s="2" t="n">
+        <f aca="false">IF(N10&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="T10" s="3" t="b">
-        <f aca="false">IF(B10=M10,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="3" t="b">
+      <c r="U10" s="2" t="n">
+        <f aca="false">IF(B10=N10,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>169</v>
+      <c r="W10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>30</v>
@@ -6840,78 +6946,81 @@
         <v>175</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M11" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="N11" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="O11" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="P11" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="P11" s="1" t="n">
-        <f aca="false">2023-O11</f>
+      <c r="Q11" s="1" t="n">
+        <f aca="false">2023-P11</f>
         <v>14</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R11" s="3" t="b">
+      <c r="R11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S11" s="2" t="n">
         <f aca="false">IF(B11&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S11" s="3" t="b">
-        <f aca="false">IF(M11&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="3" t="b">
-        <f aca="false">IF(B11=M11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="3" t="b">
+      <c r="T11" s="2" t="n">
+        <f aca="false">IF(N11&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <f aca="false">IF(B11=N11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>169</v>
+      <c r="W11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>24</v>
@@ -6920,74 +7029,77 @@
         <v>180</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M12" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N12" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="O12" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="P12" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="P12" s="1" t="n">
-        <f aca="false">2023-O12</f>
+      <c r="Q12" s="1" t="n">
+        <f aca="false">2023-P12</f>
         <v>10</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="R12" s="3" t="b">
+      <c r="R12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S12" s="2" t="n">
         <f aca="false">IF(B12&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S12" s="3" t="b">
-        <f aca="false">IF(M12&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="3" t="b">
-        <f aca="false">IF(B12=M12,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="3" t="b">
+      <c r="T12" s="2" t="n">
+        <f aca="false">IF(N12&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2" t="n">
+        <f aca="false">IF(B12=N12,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>169</v>
+      <c r="W12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>29</v>
@@ -6995,73 +7107,73 @@
       <c r="E13" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="I13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L13" s="2" t="n">
+      <c r="O13" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <f aca="false">2023-P13</f>
+        <v>14</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <f aca="false">IF(B13&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="2" t="n">
+        <f aca="false">IF(N13&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="2" t="n">
+        <f aca="false">IF(B13=N13,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="N13" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="O13" s="1" t="n">
-        <v>2009</v>
-      </c>
-      <c r="P13" s="1" t="n">
-        <f aca="false">2023-O13</f>
-        <v>14</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="R13" s="3" t="b">
-        <f aca="false">IF(B13&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="3" t="b">
-        <f aca="false">IF(M13&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="3" t="b">
-        <f aca="false">IF(B13=M13,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>169</v>
+      <c r="W13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>22</v>
@@ -7069,70 +7181,70 @@
       <c r="E14" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="3" t="b">
+        <v>242</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M14" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="N14" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="O14" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="P14" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="P14" s="1" t="n">
-        <f aca="false">2023-O14</f>
+      <c r="Q14" s="1" t="n">
+        <f aca="false">2023-P14</f>
         <v>7</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="R14" s="3" t="b">
+      <c r="R14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S14" s="2" t="n">
         <f aca="false">IF(B14&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="b">
-        <f aca="false">IF(M14&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="b">
-        <f aca="false">IF(B14=M14,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="b">
+      <c r="T14" s="2" t="n">
+        <f aca="false">IF(N14&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="2" t="n">
+        <f aca="false">IF(B14=N14,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>169</v>
+      <c r="W14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>26</v>
@@ -7141,78 +7253,81 @@
         <v>180</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>238</v>
+        <v>30</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="L15" s="3" t="b">
+        <v>247</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M15" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="N15" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="N15" s="1" t="n">
+      <c r="O15" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="P15" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="P15" s="1" t="n">
-        <f aca="false">2023-O15</f>
+      <c r="Q15" s="1" t="n">
+        <f aca="false">2023-P15</f>
         <v>10</v>
       </c>
-      <c r="Q15" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="R15" s="3" t="b">
+      <c r="R15" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="S15" s="2" t="n">
         <f aca="false">IF(B15&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="b">
-        <f aca="false">IF(M15&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="3" t="b">
-        <f aca="false">IF(B15=M15,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="3" t="b">
+      <c r="T15" s="2" t="n">
+        <f aca="false">IF(N15&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="2" t="n">
+        <f aca="false">IF(B15=N15,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>169</v>
+      <c r="W15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>21</v>
@@ -7221,78 +7336,81 @@
         <v>181</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="L16" s="3" t="b">
+        <v>252</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M16" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M16" s="1" t="n">
+      <c r="N16" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="O16" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="O16" s="1" t="n">
+      <c r="P16" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="P16" s="1" t="n">
-        <f aca="false">2023-O16</f>
+      <c r="Q16" s="1" t="n">
+        <f aca="false">2023-P16</f>
         <v>7</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="R16" s="3" t="b">
+      <c r="R16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="S16" s="2" t="n">
         <f aca="false">IF(B16&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S16" s="3" t="b">
-        <f aca="false">IF(M16&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="3" t="b">
-        <f aca="false">IF(B16=M16,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="3" t="b">
+      <c r="T16" s="2" t="n">
+        <f aca="false">IF(N16&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="2" t="n">
+        <f aca="false">IF(B16=N16,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>169</v>
+      <c r="W16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>24</v>
@@ -7300,70 +7418,70 @@
       <c r="E17" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L17" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M17" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="N17" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="O17" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="P17" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="P17" s="1" t="n">
-        <f aca="false">2023-O17</f>
+      <c r="Q17" s="1" t="n">
+        <f aca="false">2023-P17</f>
         <v>8</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="R17" s="3" t="b">
+      <c r="R17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S17" s="2" t="n">
         <f aca="false">IF(B17&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S17" s="3" t="b">
-        <f aca="false">IF(M17&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="3" t="b">
-        <f aca="false">IF(B17=M17,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="3" t="b">
+      <c r="T17" s="2" t="n">
+        <f aca="false">IF(N17&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2" t="n">
+        <f aca="false">IF(B17=N17,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>169</v>
+      <c r="W17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>319</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>34</v>
@@ -7371,70 +7489,70 @@
       <c r="E18" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L18" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M18" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M18" s="1" t="n">
+      <c r="N18" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="O18" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="P18" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="P18" s="1" t="n">
-        <f aca="false">2023-O18</f>
+      <c r="Q18" s="1" t="n">
+        <f aca="false">2023-P18</f>
         <v>19</v>
       </c>
-      <c r="Q18" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="R18" s="3" t="b">
+      <c r="R18" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="S18" s="2" t="n">
         <f aca="false">IF(B18&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S18" s="3" t="b">
-        <f aca="false">IF(M18&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="3" t="b">
-        <f aca="false">IF(B18=M18,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="3" t="b">
+      <c r="T18" s="2" t="n">
+        <f aca="false">IF(N18&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="2" t="n">
+        <f aca="false">IF(B18=N18,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>169</v>
+      <c r="W18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>32</v>
@@ -7443,78 +7561,81 @@
         <v>175</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L19" s="2" t="n">
+        <v>266</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="M19" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M19" s="1" t="n">
+      <c r="N19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="O19" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="P19" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="P19" s="1" t="n">
-        <f aca="false">2023-O19</f>
+      <c r="Q19" s="1" t="n">
+        <f aca="false">2023-P19</f>
         <v>19</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="R19" s="3" t="b">
+      <c r="R19" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="S19" s="2" t="n">
         <f aca="false">IF(B19&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S19" s="3" t="b">
-        <f aca="false">IF(M19&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="3" t="b">
-        <f aca="false">IF(B19=M19,TRUE(),FALSE())</f>
+      <c r="T19" s="2" t="n">
+        <f aca="false">IF(N19&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
       <c r="U19" s="2" t="n">
+        <f aca="false">IF(B19=N19,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V19" s="1" t="n">
+      <c r="W19" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="W19" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>169</v>
+      <c r="X19" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>28</v>
@@ -7523,75 +7644,78 @@
         <v>178</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>127</v>
+        <v>208</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L20" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M20" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M20" s="1" t="n">
+      <c r="N20" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="O20" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="P20" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="P20" s="1" t="n">
-        <f aca="false">2023-O20</f>
+      <c r="Q20" s="1" t="n">
+        <f aca="false">2023-P20</f>
         <v>14</v>
       </c>
-      <c r="Q20" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="R20" s="3" t="b">
+      <c r="R20" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="S20" s="2" t="n">
         <f aca="false">IF(B20&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="b">
-        <f aca="false">IF(M20&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="b">
-        <f aca="false">IF(B20=M20,TRUE(),FALSE())</f>
+      <c r="T20" s="2" t="n">
+        <f aca="false">IF(N20&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="2" t="n">
+        <f aca="false">IF(B20=N20,TRUE(),FALSE())</f>
         <v>1</v>
       </c>
-      <c r="U20" s="3" t="b">
+      <c r="V20" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>169</v>
+      <c r="W20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>27</v>
@@ -7600,78 +7724,81 @@
         <v>173</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="L21" s="3" t="b">
+        <v>276</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M21" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M21" s="1" t="n">
+      <c r="N21" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="O21" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="O21" s="1" t="n">
+      <c r="P21" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="P21" s="1" t="n">
-        <f aca="false">2023-O21</f>
+      <c r="Q21" s="1" t="n">
+        <f aca="false">2023-P21</f>
         <v>14</v>
       </c>
-      <c r="Q21" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="R21" s="3" t="b">
+      <c r="R21" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="S21" s="2" t="n">
         <f aca="false">IF(B21&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S21" s="3" t="b">
-        <f aca="false">IF(M21&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="3" t="b">
-        <f aca="false">IF(B21=M21,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="3" t="b">
+      <c r="T21" s="2" t="n">
+        <f aca="false">IF(N21&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <f aca="false">IF(B21=N21,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>169</v>
+      <c r="W21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>29</v>
@@ -7680,75 +7807,78 @@
         <v>174</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>29</v>
+        <v>282</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="3" t="b">
+        <v>283</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M22" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M22" s="1" t="n">
+      <c r="N22" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="N22" s="1" t="n">
+      <c r="O22" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="O22" s="1" t="n">
+      <c r="P22" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="P22" s="1" t="n">
-        <f aca="false">2023-O22</f>
+      <c r="Q22" s="1" t="n">
+        <f aca="false">2023-P22</f>
         <v>12</v>
       </c>
-      <c r="Q22" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="R22" s="3" t="b">
+      <c r="R22" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="S22" s="2" t="n">
         <f aca="false">IF(B22&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="b">
-        <f aca="false">IF(M22&lt;11,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="b">
-        <f aca="false">IF(B22=M22,TRUE(),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="b">
+      <c r="T22" s="2" t="n">
+        <f aca="false">IF(N22&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="2" t="n">
+        <f aca="false">IF(B22=N22,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>169</v>
+      <c r="W22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>508</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>28</v>
@@ -7757,81 +7887,84 @@
         <v>174</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>281</v>
+        <v>30</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L23" s="3" t="b">
+        <v>290</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M23" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="M23" s="1" t="n">
+      <c r="N23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N23" s="1" t="n">
+      <c r="O23" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="O23" s="1" t="n">
+      <c r="P23" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="P23" s="1" t="n">
-        <f aca="false">2023-O23</f>
+      <c r="Q23" s="1" t="n">
+        <f aca="false">2023-P23</f>
         <v>15</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="R23" s="3" t="b">
+      <c r="R23" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="S23" s="2" t="n">
         <f aca="false">IF(B23&lt;11,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
-      <c r="S23" s="3" t="b">
-        <f aca="false">IF(M23&lt;11,TRUE(),FALSE())</f>
+      <c r="T23" s="2" t="n">
+        <f aca="false">IF(N23&lt;11,TRUE(),FALSE())</f>
         <v>1</v>
-      </c>
-      <c r="T23" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
       </c>
       <c r="U23" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>169</v>
+      <c r="V23" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="U23">
+  <conditionalFormatting sqref="V23">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AMJ1 A2:P2 W2:AMJ6 A3:V6 R2:V2 A7:AMJ1048576">
+  <conditionalFormatting sqref="G1:AMJ1 G2:Q2 X2:AMJ6 G3:W6 S2:W2 G7:AMJ1048576 A1:F1048576">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>TRUE()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:X1 A2:P2 W2:X6 A3:V6 R2:V2 A7:X23">
+  <conditionalFormatting sqref="G1:Y1 G2:Q2 X2:Y6 G3:W6 S2:W2 G7:Y23 A1:F23">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>1</formula>
     </cfRule>
@@ -7850,28 +7983,28 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="W2" r:id="rId1" display="https://libema-open.nl/wp-content/uploads/2023/05/Bencic_Hero-Smile.webp"/>
-    <hyperlink ref="W3" r:id="rId2" display="https://libema-open.nl/wp-content/uploads/2023/05/Kudermetova_Hero-Smile.webp"/>
-    <hyperlink ref="W4" r:id="rId3" display="https://libema-open.nl/wp-content/uploads/2023/05/Samsonova_Crop.webp"/>
-    <hyperlink ref="W5" r:id="rId4" display="https://libema-open.nl/wp-content/uploads/2023/05/azarenka.webp"/>
-    <hyperlink ref="W6" r:id="rId5" display="https://libema-open.nl/wp-content/uploads/2023/05/Zheng-Torso_328120.webp"/>
-    <hyperlink ref="W7" r:id="rId6" display="https://libema-open.nl/wp-content/uploads/2023/05/Alexandrova_Hero-Smile.webp"/>
-    <hyperlink ref="W8" r:id="rId7" display="https://libema-open.nl/wp-content/uploads/2023/05/Mertens_Hero-Smile.webp"/>
-    <hyperlink ref="W9" r:id="rId8" display="https://libema-open.nl/wp-content/uploads/2023/05/Martic_Hero-Smile.webp"/>
-    <hyperlink ref="W10" r:id="rId9" display="https://libema-open.nl/wp-content/uploads/2023/05/Andreescu_crop.webp"/>
-    <hyperlink ref="W11" r:id="rId10" display="https://libema-open.nl/wp-content/uploads/2023/05/Rogers-Torso_317421.webp"/>
-    <hyperlink ref="W12" r:id="rId11" display="https://libema-open.nl/wp-content/uploads/2023/05/QcvLKQRa.webp"/>
-    <hyperlink ref="W13" r:id="rId12" display="https://libema-open.nl/wp-content/uploads/2023/05/MLBGcqtM.webp"/>
-    <hyperlink ref="W14" r:id="rId13" display="https://libema-open.nl/wp-content/uploads/2023/05/Gracheva_crop.webp"/>
-    <hyperlink ref="W15" r:id="rId14" display="https://libema-open.nl/wp-content/uploads/2023/05/Muchova_Hero-Smile.webp"/>
-    <hyperlink ref="W16" r:id="rId15" display="https://libema-open.nl/wp-content/uploads/2023/05/McNally_Crop.webp"/>
-    <hyperlink ref="W17" r:id="rId16" display="https://libema-open.nl/wp-content/uploads/2023/05/LiQQMObq.webp"/>
-    <hyperlink ref="W18" r:id="rId17" display="https://libema-open.nl/wp-content/uploads/2023/05/KxenXejL.webp"/>
-    <hyperlink ref="W19" r:id="rId18" display="https://libema-open.nl/wp-content/uploads/2023/05/SuWqgWYb.webp"/>
-    <hyperlink ref="W20" r:id="rId19" display="https://libema-open.nl/wp-content/uploads/2023/05/fNpQoEOl.webp"/>
-    <hyperlink ref="W21" r:id="rId20" display="https://libema-open.nl/wp-content/uploads/2023/05/ODTCCbpp.webp"/>
-    <hyperlink ref="W22" r:id="rId21" display="https://libema-open.nl/wp-content/uploads/2023/05/Friedsam_Crop.webp"/>
-    <hyperlink ref="W23" r:id="rId22" display="https://libema-open.nl/wp-content/uploads/2023/05/Svitolina_Hero-Smile.webp"/>
+    <hyperlink ref="X2" r:id="rId1" display="https://libema-open.nl/wp-content/uploads/2023/05/Bencic_Hero-Smile.webp"/>
+    <hyperlink ref="X3" r:id="rId2" display="https://libema-open.nl/wp-content/uploads/2023/05/Kudermetova_Hero-Smile.webp"/>
+    <hyperlink ref="X4" r:id="rId3" display="https://libema-open.nl/wp-content/uploads/2023/05/Samsonova_Crop.webp"/>
+    <hyperlink ref="X5" r:id="rId4" display="https://libema-open.nl/wp-content/uploads/2023/05/azarenka.webp"/>
+    <hyperlink ref="X6" r:id="rId5" display="https://libema-open.nl/wp-content/uploads/2023/05/Zheng-Torso_328120.webp"/>
+    <hyperlink ref="X7" r:id="rId6" display="https://libema-open.nl/wp-content/uploads/2023/05/Alexandrova_Hero-Smile.webp"/>
+    <hyperlink ref="X8" r:id="rId7" display="https://libema-open.nl/wp-content/uploads/2023/05/Mertens_Hero-Smile.webp"/>
+    <hyperlink ref="X9" r:id="rId8" display="https://libema-open.nl/wp-content/uploads/2023/05/Martic_Hero-Smile.webp"/>
+    <hyperlink ref="X10" r:id="rId9" display="https://libema-open.nl/wp-content/uploads/2023/05/Andreescu_crop.webp"/>
+    <hyperlink ref="X11" r:id="rId10" display="https://libema-open.nl/wp-content/uploads/2023/05/Rogers-Torso_317421.webp"/>
+    <hyperlink ref="X12" r:id="rId11" display="https://libema-open.nl/wp-content/uploads/2023/05/QcvLKQRa.webp"/>
+    <hyperlink ref="X13" r:id="rId12" display="https://libema-open.nl/wp-content/uploads/2023/05/MLBGcqtM.webp"/>
+    <hyperlink ref="X14" r:id="rId13" display="https://libema-open.nl/wp-content/uploads/2023/05/Gracheva_crop.webp"/>
+    <hyperlink ref="X15" r:id="rId14" display="https://libema-open.nl/wp-content/uploads/2023/05/Muchova_Hero-Smile.webp"/>
+    <hyperlink ref="X16" r:id="rId15" display="https://libema-open.nl/wp-content/uploads/2023/05/McNally_Crop.webp"/>
+    <hyperlink ref="X17" r:id="rId16" display="https://libema-open.nl/wp-content/uploads/2023/05/LiQQMObq.webp"/>
+    <hyperlink ref="X18" r:id="rId17" display="https://libema-open.nl/wp-content/uploads/2023/05/KxenXejL.webp"/>
+    <hyperlink ref="X19" r:id="rId18" display="https://libema-open.nl/wp-content/uploads/2023/05/SuWqgWYb.webp"/>
+    <hyperlink ref="X20" r:id="rId19" display="https://libema-open.nl/wp-content/uploads/2023/05/fNpQoEOl.webp"/>
+    <hyperlink ref="X21" r:id="rId20" display="https://libema-open.nl/wp-content/uploads/2023/05/ODTCCbpp.webp"/>
+    <hyperlink ref="X22" r:id="rId21" display="https://libema-open.nl/wp-content/uploads/2023/05/Friedsam_Crop.webp"/>
+    <hyperlink ref="X23" r:id="rId22" display="https://libema-open.nl/wp-content/uploads/2023/05/Svitolina_Hero-Smile.webp"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7894,34 +8027,34 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/Competitors.xlsx
+++ b/backend/data/Competitors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors-Male" sheetId="1" state="visible" r:id="rId2"/>
@@ -123,7 +123,7 @@
     <t xml:space="preserve">Two-handed</t>
   </si>
   <si>
-    <t xml:space="preserve">Funny, outspoken, Analytical, Unorthodox, Defensive Baseliner</t>
+    <t xml:space="preserve">funny, outspoken, analytical, unorthodox, defensive baseliner</t>
   </si>
   <si>
     <t xml:space="preserve">Medvedev is known for his counter-punching style and excellent defensive play. His flat and deep shots, combined with his exceptional court coverage, make him a tough player to beat. He's also known for his tactical intelligence, often adjusting his game plan mid-match to exploit his opponents' weaknesses.</t>
@@ -156,7 +156,7 @@
     <t xml:space="preserve">Forehand</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Nice Guy, powerful serve, powerful forehand, Athletic, Powerful, Emotiona</t>
+    <t xml:space="preserve">mr. nice guy, powerful serve, powerful forehand, athletic, powerful, emotiona</t>
   </si>
   <si>
     <t xml:space="preserve">Auger-Aliassime is an athletic player with a complete game. His serve and forehand are his biggest weapons, but he's also known for his speed and agility, allowing him to defend well. He's still maturing in terms of strategy, but his raw talent and physical attributes make him a serious threat.</t>
@@ -180,7 +180,7 @@
     <t xml:space="preserve">Central Europe</t>
   </si>
   <si>
-    <t xml:space="preserve">Hard worker, physical, good looking, Defensive Baseliner, Mentally Tough</t>
+    <t xml:space="preserve">hard worker, physical, defensive baseliner, mentally tough</t>
   </si>
   <si>
     <t xml:space="preserve">Coric is a steady baseliner known for his mental toughness and solid groundstrokes. He's not the most aggressive player, but his consistency and ability to absorb and redirect pace can frustrate opponents. His game is characterized by strategic point construction and patience.</t>
@@ -201,7 +201,7 @@
     <t xml:space="preserve">AU</t>
   </si>
   <si>
-    <t xml:space="preserve">Energetic, fighter, runs like crazy on every ball, Speedy, Defensive Baseliner, Counterpuncher, agile</t>
+    <t xml:space="preserve">energetic, fighter, runs like crazy on every ball, speedy, defensive baseliner, counterpuncher, agile</t>
   </si>
   <si>
     <t xml:space="preserve">De Minaur is known for his exceptional speed and relentless defense. He's a counterpuncher who excels at turning defense into offense. While he may lack the raw power of some players, his precise shot placement and ability to hit on the run often put opponents on the back foot.</t>
@@ -225,7 +225,7 @@
     <t xml:space="preserve">South Europe</t>
   </si>
   <si>
-    <t xml:space="preserve">Heated when angry, hard worker, patient, consistent, strategic, groundstroke</t>
+    <t xml:space="preserve">heated when angry, hard worker, patient, consistent, strategic, groundstroke</t>
   </si>
   <si>
     <t xml:space="preserve">Carreno Busta is a consistent player who excels on all surfaces. He doesn't possess the biggest shots, but his solid baseline game, combined with his tactical intelligence and patience, make him a difficult opponent. He's known for his ability to construct points and wait for the right moment to attack.</t>
@@ -258,7 +258,7 @@
     <t xml:space="preserve">Roberto Bautista Agut</t>
   </si>
   <si>
-    <t xml:space="preserve">Feisty, fighter, focused, endurance, calm</t>
+    <t xml:space="preserve">feisty, fighter, focused, endurance, calm</t>
   </si>
   <si>
     <t xml:space="preserve">Bautista Agut is a grinder on the court. He's not the most powerful player, but his consistency from the baseline, excellent footwork, and mental toughness make him a tough opponent. He's known for his ability to sustain long rallies and wear down opponents.</t>
@@ -285,7 +285,7 @@
     <t xml:space="preserve">Dutch</t>
   </si>
   <si>
-    <t xml:space="preserve">Local hero, shy, quiet, aggressive, fighting spirit</t>
+    <t xml:space="preserve">local hero, shy, quiet, aggressive, fighting spirit</t>
   </si>
   <si>
     <t xml:space="preserve">An aggressive player with a solid serve and forehand. He is known for his fighting spirit on court.</t>
@@ -303,7 +303,7 @@
     <t xml:space="preserve">Serve and volley</t>
   </si>
   <si>
-    <t xml:space="preserve">Big serve, Mr. Nice Guy, powerful serve, aggressive, composed</t>
+    <t xml:space="preserve">big serve, mr. nice guy, powerful serve, aggressive, composed</t>
   </si>
   <si>
     <t xml:space="preserve">Raonic's game is built around his powerful serve, which is one of the best in the men's game. He also has powerful groundstrokes and seeks to play aggressively, often looking to finish points at the net. He's worked to improve his mobility and baseline game throughout his career.</t>
@@ -321,7 +321,7 @@
     <t xml:space="preserve">Tallon Griekspoor</t>
   </si>
   <si>
-    <t xml:space="preserve">Outspoken, interactive, local hero, powerful serve</t>
+    <t xml:space="preserve">outspoken, interactive, local hero, powerful serve</t>
   </si>
   <si>
     <t xml:space="preserve">Known for his powerful serve and aggressive baseline play. </t>
@@ -357,7 +357,7 @@
     <t xml:space="preserve">Bernabe Zapata Miralles</t>
   </si>
   <si>
-    <t xml:space="preserve">Emotional, funny, interactive, patient, clay-court specialist</t>
+    <t xml:space="preserve">emotional, funny, interactive, patient, clay-court specialist</t>
   </si>
   <si>
     <t xml:space="preserve">A Spanish tennis player, Miralles is known for his clay-court skills, which are typical of many Spanish players. His game is characterised by heavy topspin from the baseline, particularly on the forehand side, and a patient approach, often waiting for his opponent to make errors rather than going for outright winners.</t>
@@ -378,7 +378,7 @@
     <t xml:space="preserve">US</t>
   </si>
   <si>
-    <t xml:space="preserve">Focused, shy, quiet, energetic</t>
+    <t xml:space="preserve">focused, shy, quiet, energetic</t>
   </si>
   <si>
     <t xml:space="preserve">A player with an aggressive playing style, Cressy is notable for his serve-and-volley tactics, a relatively rare strategy in modern tennis. He possesses a powerful serve and isn't afraid to approach the net, looking to finish points quickly.</t>
@@ -402,7 +402,7 @@
     <t xml:space="preserve">North Europe</t>
   </si>
   <si>
-    <t xml:space="preserve">Focused, cool, consistent</t>
+    <t xml:space="preserve">focused, cool, consistent</t>
   </si>
   <si>
     <t xml:space="preserve">Ruusuvuori has a solid baseline game, powerful from both wings, with a particular strength in his backhand. He's also known for his fighting spirit and mental toughness on the court. Off the court, he has diverse interests from music to hockey.</t>
@@ -432,7 +432,7 @@
     <t xml:space="preserve">Left-handed</t>
   </si>
   <si>
-    <t xml:space="preserve">Creative, focused, quiet, precise, groundstroke, unorthodox</t>
+    <t xml:space="preserve">creative, focused, quiet, precise, groundstroke, unorthodox</t>
   </si>
   <si>
     <t xml:space="preserve">Mannarino is known for his unorthodox playing style. He has a flat groundstroke and an excellent sense of timing, often disrupting opponents with unpredictable shot selection. He is also known for his excellent footwork and defensive skills.</t>
@@ -447,7 +447,7 @@
     <t xml:space="preserve">Brandon Nakashima</t>
   </si>
   <si>
-    <t xml:space="preserve">Perfectionist, well-schooled, composed</t>
+    <t xml:space="preserve">perfectionist, well-schooled, composed</t>
   </si>
   <si>
     <t xml:space="preserve">Nakashima has a powerful baseline game, especially his backhand, and is known for his tactical intelligence and composure on court. His serve is also a significant weapon, allowing him to control many points from the onset.</t>
@@ -471,7 +471,7 @@
     <t xml:space="preserve">East Europe</t>
   </si>
   <si>
-    <t xml:space="preserve">Showman, outspoken, interactive, unpredictable, entertaining</t>
+    <t xml:space="preserve">showman, outspoken, interactive, unpredictable, entertaining</t>
   </si>
   <si>
     <t xml:space="preserve">Bublik is known for his unpredictable and often flashy style of play. He has a powerful serve and isn't afraid to use underarm serves to catch his opponents off guard. He also frequently employs drop shots and has a strong net game.</t>
@@ -507,7 +507,7 @@
     <t xml:space="preserve">SE</t>
   </si>
   <si>
-    <t xml:space="preserve">Big serve, local hero, speedy, agile, fighting spirit</t>
+    <t xml:space="preserve">big serve, local hero, speedy, agile, fighting spirit</t>
   </si>
   <si>
     <t xml:space="preserve">Ymer is a steady baseline player with a solid two-handed backhand. He's known for his speed and athleticism on the court, often engaging opponents in long rallies and outlasting them with his physicality and endurance.</t>
@@ -546,7 +546,7 @@
     <t xml:space="preserve">CH</t>
   </si>
   <si>
-    <t xml:space="preserve">Olympian, groundstroke, tactical, defensive, serve, footwork</t>
+    <t xml:space="preserve">olympian, groundstroke, tactical, defensive, serve, footwork</t>
   </si>
   <si>
     <t xml:space="preserve">Bencic possesses a versatile game marked by excellent court coverage and an ability to change direction of the ball with ease. Her smart tactical sense allows her to construct points effectively, often outmaneuvering her opponents with precise shot placement.</t>
@@ -579,7 +579,7 @@
     <t xml:space="preserve">Liudmila Samsonova</t>
   </si>
   <si>
-    <t xml:space="preserve">Long games, groundstrokes, aggressive, serve, consistent, mental toughness</t>
+    <t xml:space="preserve">long games, groundstrokes, aggressive, serve, consistent, mental toughness</t>
   </si>
   <si>
     <t xml:space="preserve">Samsonova is known for her aggressive game. She has powerful groundstrokes from both wings and a strong serve, which allows her to dictate play and keep opponents on the back foot.</t>
@@ -594,7 +594,7 @@
     <t xml:space="preserve">Victoria Azarenka</t>
   </si>
   <si>
-    <t xml:space="preserve">Outspoken, fighter, showman, Consistent, movement, groundstrokes, serve, competitive</t>
+    <t xml:space="preserve">outspoken, fighter, showman, consistent, movement, groundstrokes, serve, competitive</t>
   </si>
   <si>
     <t xml:space="preserve">A former world No. 1, Azarenka's game is characterized by her powerful baseline play and strong return of serve, often taking the ball early and redirecting with pace. She's also noted for her mental toughness and competitive spirit on court.</t>
@@ -618,7 +618,7 @@
     <t xml:space="preserve">Asia</t>
   </si>
   <si>
-    <t xml:space="preserve">Talented, Versatile, strong groundstrokes, powerful serve, aggressive, net play</t>
+    <t xml:space="preserve">talented, versatile, strong groundstrokes, powerful serve, aggressive, net play</t>
   </si>
   <si>
     <t xml:space="preserve">Zheng is a young player known for her aggressive game style, with a powerful serve and strong groundstrokes. She often looks to dictate the play and isn't afraid to go for winners.</t>
@@ -633,7 +633,7 @@
     <t xml:space="preserve">Ekaterina Alexandrova</t>
   </si>
   <si>
-    <t xml:space="preserve">Quiet, serve, aggressive, forehand, consistent, mental toughness</t>
+    <t xml:space="preserve">quiet, serve, aggressive, forehand, consistent, mental toughness</t>
   </si>
   <si>
     <t xml:space="preserve">Alexandrova is known for her aggressive baseline game. She possesses a powerful serve and forehand, often looking to finish points quickly rather than engage in extended rallies.</t>
@@ -654,7 +654,7 @@
     <t xml:space="preserve">BE</t>
   </si>
   <si>
-    <t xml:space="preserve">Lovely, respectful, interactive, Consistent, footwork, groundstrokes, serve, defensive</t>
+    <t xml:space="preserve">lovely, respectful, interactive, consistent, footwork, groundstrokes, serve, defensive</t>
   </si>
   <si>
     <t xml:space="preserve">Mertens has a well-rounded game, marked by solid groundstrokes, good court coverage and tactical intelligence. Her versatile game allows her to adapt to different playing styles and court surfaces.</t>
@@ -669,7 +669,7 @@
     <t xml:space="preserve">Petra Martic</t>
   </si>
   <si>
-    <t xml:space="preserve">Well-trained, groundstrokes, tactical, serve, net play, defensive</t>
+    <t xml:space="preserve">well-trained, groundstrokes, tactical, serve, net play, defensive</t>
   </si>
   <si>
     <t xml:space="preserve">Martic is a strategic player known for her variety, often mixing up pace and spin to disrupt her opponent's rhythm. She has a strong serve and is particularly effective at the net, with good volleying skills.</t>
@@ -684,7 +684,7 @@
     <t xml:space="preserve">Bianca Andreescu</t>
   </si>
   <si>
-    <t xml:space="preserve">Talented, entertaining, fighter, Versatile, groundstrokes, aggressive, serve, competitive</t>
+    <t xml:space="preserve">talented, entertaining, fighter, versatile, groundstrokes, aggressive, serve, competitive</t>
   </si>
   <si>
     <t xml:space="preserve">Andreescu's game is characterized by its variety and power. She has strong groundstrokes, a potent serve, and isn't afraid to come forward and finish points at the net. She also uses a variety of spins and paces to disrupt her opponents.</t>
@@ -720,7 +720,7 @@
     <t xml:space="preserve">CZ</t>
   </si>
   <si>
-    <t xml:space="preserve">Positive, runs a lot, Consistent, groundstrokes, movement, defensive, serve</t>
+    <t xml:space="preserve">positive, runs a lot, consistent, groundstrokes, movement, defensive, serve</t>
   </si>
   <si>
     <t xml:space="preserve">Bouzkova is known for her consistent baseline game and good court coverage. She has solid groundstrokes and a good defensive game, often forcing opponents into errors.</t>
@@ -738,7 +738,7 @@
     <t xml:space="preserve">Backhand down the line</t>
   </si>
   <si>
-    <t xml:space="preserve">Versatile, groundstrokes, serve, consistency, tactical</t>
+    <t xml:space="preserve">versatile, groundstrokes, serve, consistency, tactical</t>
   </si>
   <si>
     <t xml:space="preserve">Sasnovich is a consistent player with solid groundstrokes from both wings. She often plays a patient game from the baseline, waiting for her opponents to make errors.</t>
@@ -768,7 +768,7 @@
     <t xml:space="preserve">Karolina Muchova</t>
   </si>
   <si>
-    <t xml:space="preserve">Versatile, serve, groundstrokes, aggressive, net play</t>
+    <t xml:space="preserve">versatile, serve, groundstrokes, aggressive, net play</t>
   </si>
   <si>
     <t xml:space="preserve">Muchova has a versatile game, with a good mix of power and finesse. She often employs a variety of shots, including slices and drop shots, to disrupt her opponent's rhythm.</t>
@@ -783,7 +783,7 @@
     <t xml:space="preserve">Caty Mcnally</t>
   </si>
   <si>
-    <t xml:space="preserve">Aggressive, strong serve, versatile, doubles strength, net game</t>
+    <t xml:space="preserve">aggressive, strong serve, versatile, doubles strength, net game</t>
   </si>
   <si>
     <t xml:space="preserve">Known for her aggressive style and strong serve, Caty McNally is a versatile player who can excel on various surfaces. She's made a name for herself in doubles, often partnering with fellow American Coco Gauff, and has started to break through in singles as well. With a potent one-two punch of a big serve followed by a heavy groundstroke, McNally can quickly take control of points. She also possesses a rare weapon in the women's game: a strong net game, thanks to her doubles expertise.”</t>
@@ -798,7 +798,7 @@
     <t xml:space="preserve">Anna Blinkova</t>
   </si>
   <si>
-    <t xml:space="preserve">Aggressive, all-court player, powerful groundstrokes</t>
+    <t xml:space="preserve">aggressive, all-court player, powerful groundstrokes</t>
   </si>
   <si>
     <t xml:space="preserve">Anna Blinkova is a solid all-court player known for her powerful groundstrokes. Her aggressive style of play often sees her taking the ball on the rise and aiming for the lines. Blinkova has shown that she can compete at the top level and has recorded victories against higher-ranked opponents. Her ability to generate power from both wings and her willingness to attack and dictate play are key elements of her game.”</t>
@@ -810,7 +810,7 @@
     <t xml:space="preserve">Evgeniya Rodina</t>
   </si>
   <si>
-    <t xml:space="preserve">Consistent, tactical, changes pace, court awareness</t>
+    <t xml:space="preserve">consistent, tactical, changes pace, court awareness</t>
   </si>
   <si>
     <t xml:space="preserve">Evgeniya Rodina is a seasoned player with a well-rounded game. Known for her consistency and tactical intelligence, she can change up the pace and spin of her shots to disrupt her opponent's rhythm. While not the most powerful player on tour, Rodina uses her court awareness and shot selection effectively to construct points.</t>
@@ -825,7 +825,7 @@
     <t xml:space="preserve">Alison Riske-Amritraj</t>
   </si>
   <si>
-    <t xml:space="preserve">Aggressive, positive, powerful groundstrokes, strong serve, net play, tough competitor</t>
+    <t xml:space="preserve">aggressive, positive, powerful groundstrokes, strong serve, net play, tough competitor</t>
   </si>
   <si>
     <t xml:space="preserve">Alison Riske-Amritraj is known for her aggressive baseline play and powerful groundstrokes. Her strengths include a strong serve and a particularly effective backhand. She also has a knack for coming to the net, showcasing her versatile skill set. Over the years, Riske-Amritraj has developed a reputation for being a tough competitor, often playing her best tennis in tight situations.</t>
@@ -840,7 +840,7 @@
     <t xml:space="preserve">Ysaline Bonaventure</t>
   </si>
   <si>
-    <t xml:space="preserve">Left-handed, powerful serve, topspin forehand, aggressive, high-risk</t>
+    <t xml:space="preserve">left-handed, powerful serve, topspin forehand, aggressive, high-risk</t>
   </si>
   <si>
     <t xml:space="preserve">Ysaline Bonaventure is a left-handed player known for her powerful serve and heavy topspin forehand. Her game is characterized by aggressive shot-making and the ability to generate pace from both wings. While she can be erratic at times, her high-risk style of play can be very effective when she's in form.</t>
@@ -855,7 +855,7 @@
     <t xml:space="preserve">Rebecca Peterson</t>
   </si>
   <si>
-    <t xml:space="preserve">Baseline player, consistent, strong groundstrokes, defensive, counterpunching, fighting spirit</t>
+    <t xml:space="preserve">baseline player, consistent, strong groundstrokes, defensive, counterpunching, fighting spirit</t>
   </si>
   <si>
     <t xml:space="preserve">Rebecca Peterson is a solid baseline player with a consistent game. She uses her strong groundstrokes to construct points and can change direction of the ball effectively. Peterson also has a good defensive game, often turning defense into offense with her counterpunching ability. She's known for her fighting spirit on the court, often grinding out tough matches.</t>
@@ -897,7 +897,7 @@
     <t xml:space="preserve">UA</t>
   </si>
   <si>
-    <t xml:space="preserve">Consistent, excellent movement, defensive skills, solid groundstrokes, mental toughness, competitive spirit</t>
+    <t xml:space="preserve">consistent, excellent movement, defensive skills, solid groundstrokes, mental toughness, competitive spirit</t>
   </si>
   <si>
     <t xml:space="preserve">Elina Svitolina is one of the most consistent players on the WTA Tour, known for her excellent movement, strong defensive skills, and the ability to turn defense into offense. Her game is based around her solid groundstrokes and her ability to move her opponents around the court. Svitolina is also known for her mental toughness and strong competitive spirit, often elevating her game in important moments.</t>
@@ -1156,15 +1156,15 @@
   </sheetPr>
   <dimension ref="A1:AA1021"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.45"/>
@@ -6130,15 +6130,15 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E35" activeCellId="0" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.34"/>
@@ -7707,7 +7707,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>275</v>
       </c>
@@ -8027,7 +8027,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.45"/>
   </cols>

--- a/backend/data/Competitors.xlsx
+++ b/backend/data/Competitors.xlsx
@@ -156,7 +156,7 @@
     <t xml:space="preserve">Forehand</t>
   </si>
   <si>
-    <t xml:space="preserve">mr. nice guy, powerful serve, powerful forehand, athletic, powerful, emotiona</t>
+    <t xml:space="preserve">mr. nice guy, powerful serve, powerful forehand, athletic, powerful, emotional</t>
   </si>
   <si>
     <t xml:space="preserve">Auger-Aliassime is an athletic player with a complete game. His serve and forehand are his biggest weapons, but he's also known for his speed and agility, allowing him to defend well. He's still maturing in terms of strategy, but his raw talent and physical attributes make him a serious threat.</t>
@@ -546,7 +546,7 @@
     <t xml:space="preserve">CH</t>
   </si>
   <si>
-    <t xml:space="preserve">olympian, groundstroke, tactical, defensive, serve, footwork</t>
+    <t xml:space="preserve">olympian, groundstrokes, tactical, defensive, serve, footwork</t>
   </si>
   <si>
     <t xml:space="preserve">Bencic possesses a versatile game marked by excellent court coverage and an ability to change direction of the ball with ease. Her smart tactical sense allows her to construct points effectively, often outmaneuvering her opponents with precise shot placement.</t>
@@ -618,7 +618,7 @@
     <t xml:space="preserve">Asia</t>
   </si>
   <si>
-    <t xml:space="preserve">talented, versatile, strong groundstrokes, powerful serve, aggressive, net play</t>
+    <t xml:space="preserve">talented, versatile, groundstrokes, serve, aggressive, net play</t>
   </si>
   <si>
     <t xml:space="preserve">Zheng is a young player known for her aggressive game style, with a powerful serve and strong groundstrokes. She often looks to dictate the play and isn't afraid to go for winners.</t>
@@ -654,7 +654,7 @@
     <t xml:space="preserve">BE</t>
   </si>
   <si>
-    <t xml:space="preserve">lovely, respectful, interactive, consistent, footwork, groundstrokes, serve, defensive</t>
+    <t xml:space="preserve"> respectful, interactive, consistent, footwork, groundstrokes, serve, defensive</t>
   </si>
   <si>
     <t xml:space="preserve">Mertens has a well-rounded game, marked by solid groundstrokes, good court coverage and tactical intelligence. Her versatile game allows her to adapt to different playing styles and court surfaces.</t>
@@ -783,7 +783,7 @@
     <t xml:space="preserve">Caty Mcnally</t>
   </si>
   <si>
-    <t xml:space="preserve">aggressive, strong serve, versatile, doubles strength, net game</t>
+    <t xml:space="preserve">aggressive, powerful serve, versatile, doubles strength, net game</t>
   </si>
   <si>
     <t xml:space="preserve">Known for her aggressive style and strong serve, Caty McNally is a versatile player who can excel on various surfaces. She's made a name for herself in doubles, often partnering with fellow American Coco Gauff, and has started to break through in singles as well. With a potent one-two punch of a big serve followed by a heavy groundstroke, McNally can quickly take control of points. She also possesses a rare weapon in the women's game: a strong net game, thanks to her doubles expertise.”</t>
@@ -798,7 +798,7 @@
     <t xml:space="preserve">Anna Blinkova</t>
   </si>
   <si>
-    <t xml:space="preserve">aggressive, all-court player, powerful groundstrokes</t>
+    <t xml:space="preserve">aggressive, all-court player, groundstrokes</t>
   </si>
   <si>
     <t xml:space="preserve">Anna Blinkova is a solid all-court player known for her powerful groundstrokes. Her aggressive style of play often sees her taking the ball on the rise and aiming for the lines. Blinkova has shown that she can compete at the top level and has recorded victories against higher-ranked opponents. Her ability to generate power from both wings and her willingness to attack and dictate play are key elements of her game.”</t>
@@ -825,7 +825,7 @@
     <t xml:space="preserve">Alison Riske-Amritraj</t>
   </si>
   <si>
-    <t xml:space="preserve">aggressive, positive, powerful groundstrokes, strong serve, net play, tough competitor</t>
+    <t xml:space="preserve">aggressive, positive, groundstrokes, strong serve, net play, tough competitor</t>
   </si>
   <si>
     <t xml:space="preserve">Alison Riske-Amritraj is known for her aggressive baseline play and powerful groundstrokes. Her strengths include a strong serve and a particularly effective backhand. She also has a knack for coming to the net, showcasing her versatile skill set. Over the years, Riske-Amritraj has developed a reputation for being a tough competitor, often playing her best tennis in tight situations.</t>
@@ -855,7 +855,7 @@
     <t xml:space="preserve">Rebecca Peterson</t>
   </si>
   <si>
-    <t xml:space="preserve">baseline player, consistent, strong groundstrokes, defensive, counterpunching, fighting spirit</t>
+    <t xml:space="preserve">baseline player, consistent, groundstrokes, defensive, counterpunching, fighting spirit</t>
   </si>
   <si>
     <t xml:space="preserve">Rebecca Peterson is a solid baseline player with a consistent game. She uses her strong groundstrokes to construct points and can change direction of the ball effectively. Peterson also has a good defensive game, often turning defense into offense with her counterpunching ability. She's known for her fighting spirit on the court, often grinding out tough matches.</t>
@@ -897,7 +897,7 @@
     <t xml:space="preserve">UA</t>
   </si>
   <si>
-    <t xml:space="preserve">consistent, excellent movement, defensive skills, solid groundstrokes, mental toughness, competitive spirit</t>
+    <t xml:space="preserve">consistent, excellent movement, defensive skills, groundstrokes, mental toughness, competitive spirit</t>
   </si>
   <si>
     <t xml:space="preserve">Elina Svitolina is one of the most consistent players on the WTA Tour, known for her excellent movement, strong defensive skills, and the ability to turn defense into offense. Her game is based around her solid groundstrokes and her ability to move her opponents around the court. Svitolina is also known for her mental toughness and strong competitive spirit, often elevating her game in important moments.</t>
@@ -1157,14 +1157,14 @@
   <dimension ref="A1:AA1021"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" activeCellId="0" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.45"/>
@@ -6131,14 +6131,14 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.34"/>
@@ -7707,7 +7707,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>275</v>
       </c>
@@ -8027,7 +8027,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.45"/>
   </cols>

--- a/backend/data/Competitors.xlsx
+++ b/backend/data/Competitors.xlsx
@@ -24,8 +24,50 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="N26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Got 2</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">nd</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> place at Libema in 2019</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="396">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
@@ -537,6 +579,154 @@
     <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2022/05/van_rijthoven_tim_head_pp19.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Mackenzie McDonald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robby Ginepri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/mcdonald_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corentin Moutet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petar Popovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/moutet_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Purcell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayne Kelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/purcell_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Kubler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarrad Bunt, Stephen Huss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/kubler_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Luczak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/thompson_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Rinderknech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastien Villette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/rinderknech_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexei Popyrin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Bogajo, Xavier Malisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/popyrin_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilya Ivashka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Checa-Calvo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/ivashka_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Fils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurent Raymond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/fils_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Goffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germain Gigounon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/goffin_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pavel Kotov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan Poliakov, Igor Chelyshev 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/kotov_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zizou Bergs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruben  Bemelmans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/bergs_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rinky Hijikata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Draper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/hijikata_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gijs Brouwer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michiel Schapers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/brouwer_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alec Deckers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eddy Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildcard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/ghost-headshot-atp.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Belinda Bencic</t>
   </si>
   <si>
@@ -648,12 +838,6 @@
     <t xml:space="preserve">Elise Mertens</t>
   </si>
   <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> respectful, interactive, consistent, footwork, groundstrokes, serve, defensive</t>
   </si>
   <si>
@@ -907,6 +1091,168 @@
   </si>
   <si>
     <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Svitolina_Hero-Smile.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katie Volynets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henner Nehles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Volynets_crop.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalma Galfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Galfi_crop.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimberly Birrell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Birrell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yue Yuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Yuan_crop.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greet Minnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ann Devries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Minnen_crop.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessika Ponchet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktoria Hruncakova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Hruncak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Hruncakova_crop.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yanina Wickmayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Wickmayer_crop.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polina Kudermetova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priscilla Hon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillaume Peyre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Hon_crop.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva Lys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vladimir Lys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Lys_crop.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashlyn Krueger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Krueger_crop.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coco Vandeweghe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Craig Kardon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Vandeweghe_crop.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachia Vickery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrian Zeman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Vickery_crop.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Konjuh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio Veic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Konjuh_crop.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carol Zhao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://libema-open.nl/wp-content/uploads/2023/05/Zhao_crop.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emina Bektas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mai Hontama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaime Higa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raluka Serban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celine Naef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesley Pattinama Kerkhove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roel Oostdam</t>
   </si>
   <si>
     <t xml:space="preserve">Styles</t>
@@ -921,7 +1267,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -956,6 +1302,13 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -965,11 +1318,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -999,7 +1359,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1032,7 +1392,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1157,14 +1545,14 @@
   <dimension ref="A1:AA1021"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="Z25" activeCellId="0" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.45"/>
@@ -3050,75 +3438,1109 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
+    <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>59</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>178</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>48</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Q22" s="8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <f aca="false">2023-Q22</f>
+        <v>7</v>
+      </c>
+      <c r="S22" s="2" t="n">
+        <f aca="false">IF(B22&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="2" t="n">
+        <f aca="false">IF(O22&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="2" t="n">
+        <f aca="false">IF(B22=O22,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X22" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA22" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>61</v>
+      </c>
       <c r="C23" s="1"/>
+      <c r="D23" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="R23" s="1" t="n">
+        <f aca="false">2023-Q23</f>
+        <v>7</v>
+      </c>
+      <c r="S23" s="2" t="n">
+        <f aca="false">IF(B23&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="2" t="n">
+        <f aca="false">IF(O23&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="2" t="n">
+        <f aca="false">IF(B23=O23,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X23" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA23" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>67</v>
+      </c>
       <c r="C24" s="1"/>
+      <c r="D24" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <f aca="false">2023-Q24</f>
+        <v>7</v>
+      </c>
+      <c r="S24" s="2" t="n">
+        <f aca="false">IF(B24&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="2" t="n">
+        <f aca="false">IF(O24&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="2" t="n">
+        <f aca="false">IF(B24=O24,TRUE(),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X24" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA24" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>69</v>
+      </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="D25" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
+      <c r="N25" s="13" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <f aca="false">2023-Q25</f>
+        <v>12</v>
+      </c>
+      <c r="S25" s="2" t="n">
+        <f aca="false">IF(B25&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="2" t="n">
+        <f aca="false">IF(O25&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="2" t="n">
+        <f aca="false">IF(B25=O25,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X25" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA25" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>76</v>
+      </c>
       <c r="C26" s="1"/>
+      <c r="D26" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <f aca="false">2023-Q26</f>
+        <v>10</v>
+      </c>
+      <c r="S26" s="2" t="n">
+        <f aca="false">IF(B26&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="2" t="n">
+        <f aca="false">IF(O26&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="2" t="n">
+        <f aca="false">IF(B26=O26,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X26" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA26" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>78</v>
+      </c>
       <c r="C27" s="1"/>
+      <c r="D27" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <f aca="false">2023-Q27</f>
+        <v>5</v>
+      </c>
+      <c r="S27" s="2" t="n">
+        <f aca="false">IF(B27&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="2" t="n">
+        <f aca="false">IF(O27&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="2" t="n">
+        <f aca="false">IF(B27=O27,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X27" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA27" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>85</v>
+      </c>
       <c r="C28" s="1"/>
+      <c r="D28" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <f aca="false">2023-Q28</f>
+        <v>6</v>
+      </c>
+      <c r="S28" s="2" t="n">
+        <f aca="false">IF(B28&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="2" t="n">
+        <f aca="false">IF(O28&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="2" t="n">
+        <f aca="false">IF(B28=O28,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X28" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA28" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>73</v>
+      </c>
       <c r="C29" s="1"/>
+      <c r="D29" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <f aca="false">2023-Q29</f>
+        <v>10</v>
+      </c>
+      <c r="S29" s="2" t="n">
+        <f aca="false">IF(B29&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="2" t="n">
+        <f aca="false">IF(O29&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="2" t="n">
+        <f aca="false">IF(B29=O29,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X29" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA29" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>63</v>
+      </c>
       <c r="C30" s="1"/>
+      <c r="D30" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="R30" s="1" t="n">
+        <f aca="false">2023-Q30</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="2" t="n">
+        <f aca="false">IF(B30&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="2" t="n">
+        <f aca="false">IF(O30&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="2" t="n">
+        <f aca="false">IF(B30=O30,TRUE(),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="V30" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X30" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA30" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>111</v>
+      </c>
       <c r="C31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <f aca="false">2023-Q31</f>
+        <v>14</v>
+      </c>
+      <c r="S31" s="2" t="n">
+        <f aca="false">IF(B31&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="2" t="n">
+        <f aca="false">IF(O31&lt;11,TRUE(),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="U31" s="2" t="n">
+        <f aca="false">IF(B31=O31,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X31" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA31" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>121</v>
+      </c>
       <c r="C32" s="1"/>
+      <c r="D32" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="R32" s="1" t="n">
+        <f aca="false">2023-Q32</f>
+        <v>7</v>
+      </c>
+      <c r="S32" s="2" t="n">
+        <f aca="false">IF(B32&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="2" t="n">
+        <f aca="false">IF(O32&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="2" t="n">
+        <f aca="false">IF(B32=O32,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X32" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA32" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>131</v>
+      </c>
       <c r="C33" s="1"/>
+      <c r="D33" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="R33" s="1" t="n">
+        <f aca="false">2023-Q33</f>
+        <v>5</v>
+      </c>
+      <c r="S33" s="2" t="n">
+        <f aca="false">IF(B33&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="2" t="n">
+        <f aca="false">IF(O33&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="2" t="n">
+        <f aca="false">IF(B33=O33,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X33" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA33" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>136</v>
+      </c>
       <c r="C34" s="1"/>
+      <c r="D34" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <f aca="false">2023-Q34</f>
+        <v>2</v>
+      </c>
+      <c r="S34" s="2" t="n">
+        <f aca="false">IF(B34&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="2" t="n">
+        <f aca="false">IF(O34&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="2" t="n">
+        <f aca="false">IF(B34=O34,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X34" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA34" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>138</v>
+      </c>
       <c r="C35" s="1"/>
+      <c r="D35" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <f aca="false">2023-Q35</f>
+        <v>7</v>
+      </c>
+      <c r="S35" s="2" t="n">
+        <f aca="false">IF(B35&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="2" t="n">
+        <f aca="false">IF(O35&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="2" t="n">
+        <f aca="false">IF(B35=O35,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X35" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA35" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>601</v>
+      </c>
       <c r="C36" s="1"/>
+      <c r="D36" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>544</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <f aca="false">2023-Q36</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="2" t="n">
+        <f aca="false">IF(B36&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="2" t="n">
+        <f aca="false">IF(O36&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="2" t="n">
+        <f aca="false">IF(B36=O36,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="X36" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA36" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="1"/>
@@ -6076,12 +7498,12 @@
       <c r="C1021" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AMJ3 A5:AMJ1048576 A4:F4 I4:AMJ4">
+  <conditionalFormatting sqref="A1:AMJ3 A4:F4 I4:AMJ4 A5:AMJ1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>TRUE()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AMJ3 A5:AMJ21 A4:F4 I4:AMJ4">
+  <conditionalFormatting sqref="A1:AMJ3 A5:AMJ21 A4:F4 I4:AMJ4 R22:U36 W22:W36">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>1</formula>
     </cfRule>
@@ -6096,22 +7518,37 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Z6" r:id="rId1" display="https://libema-open.nl/wp-content/uploads/2023/05/carreno-busta-full-2022-may.png"/>
-    <hyperlink ref="Z7" r:id="rId2" display="https://libema-open.nl//wp-content/uploads/2023/05/cilic-full-2022-may.png"/>
-    <hyperlink ref="Z8" r:id="rId3" display="https://libema-open.nl/wp-content/uploads/2023/05/bautista-agut-full-2022-may.png"/>
-    <hyperlink ref="Z9" r:id="rId4" display="https://libema-open.nl/wp-content/uploads/2023/05/van-de-zandschulp-full-2022-may.png"/>
-    <hyperlink ref="Z10" r:id="rId5" display="https://libema-open.nl/wp-content/uploads/2023/05/raonic_full_ao20.png"/>
-    <hyperlink ref="Z11" r:id="rId6" display="https://libema-open.nl/wp-content/uploads/2023/05/griekspoor-full-2022-may.png"/>
-    <hyperlink ref="Z12" r:id="rId7" display="https://libema-open.nl/wp-content/uploads/2023/05/kecmanovic_full_2022_october-1.png"/>
-    <hyperlink ref="Z13" r:id="rId8" display="https://libema-open.nl/wp-content/uploads/2023/05/zapata_miralles_full_2022.png"/>
-    <hyperlink ref="Z14" r:id="rId9" display="https://libema-open.nl/wp-content/uploads/2023/05/cressy-full-2022-june.png"/>
-    <hyperlink ref="Z15" r:id="rId10" display="https://libema-open.nl/wp-content/uploads/2023/05/ruusuvuori_full_2023.png"/>
-    <hyperlink ref="Z16" r:id="rId11" display="https://libema-open.nl/wp-content/uploads/2023/05/mannarino-full-2022-may.png"/>
-    <hyperlink ref="Z17" r:id="rId12" display="https://libema-open.nl/wp-content/uploads/2023/05/nakashima-full-2022-may.png"/>
-    <hyperlink ref="Z18" r:id="rId13" display="https://libema-open.nl/wp-content/uploads/2023/05/bublik_full_2023_update.png"/>
-    <hyperlink ref="Z19" r:id="rId14" display="https://libema-open.nl/wp-content/uploads/2023/05/humbert-full-2022-june.png"/>
-    <hyperlink ref="Z20" r:id="rId15" display="https://libema-open.nl/wp-content/uploads/2023/05/ymer_m_full_ao20.png"/>
-    <hyperlink ref="Z21" r:id="rId16" display="https://libema-open.nl/wp-content/uploads/2022/05/van_rijthoven_tim_head_pp19.png"/>
+    <hyperlink ref="Z6" r:id="rId2" display="https://libema-open.nl/wp-content/uploads/2023/05/carreno-busta-full-2022-may.png"/>
+    <hyperlink ref="Z7" r:id="rId3" display="https://libema-open.nl//wp-content/uploads/2023/05/cilic-full-2022-may.png"/>
+    <hyperlink ref="Z8" r:id="rId4" display="https://libema-open.nl/wp-content/uploads/2023/05/bautista-agut-full-2022-may.png"/>
+    <hyperlink ref="Z9" r:id="rId5" display="https://libema-open.nl/wp-content/uploads/2023/05/van-de-zandschulp-full-2022-may.png"/>
+    <hyperlink ref="Z10" r:id="rId6" display="https://libema-open.nl/wp-content/uploads/2023/05/raonic_full_ao20.png"/>
+    <hyperlink ref="Z11" r:id="rId7" display="https://libema-open.nl/wp-content/uploads/2023/05/griekspoor-full-2022-may.png"/>
+    <hyperlink ref="Z12" r:id="rId8" display="https://libema-open.nl/wp-content/uploads/2023/05/kecmanovic_full_2022_october-1.png"/>
+    <hyperlink ref="Z13" r:id="rId9" display="https://libema-open.nl/wp-content/uploads/2023/05/zapata_miralles_full_2022.png"/>
+    <hyperlink ref="Z14" r:id="rId10" display="https://libema-open.nl/wp-content/uploads/2023/05/cressy-full-2022-june.png"/>
+    <hyperlink ref="Z15" r:id="rId11" display="https://libema-open.nl/wp-content/uploads/2023/05/ruusuvuori_full_2023.png"/>
+    <hyperlink ref="Z16" r:id="rId12" display="https://libema-open.nl/wp-content/uploads/2023/05/mannarino-full-2022-may.png"/>
+    <hyperlink ref="Z17" r:id="rId13" display="https://libema-open.nl/wp-content/uploads/2023/05/nakashima-full-2022-may.png"/>
+    <hyperlink ref="Z18" r:id="rId14" display="https://libema-open.nl/wp-content/uploads/2023/05/bublik_full_2023_update.png"/>
+    <hyperlink ref="Z19" r:id="rId15" display="https://libema-open.nl/wp-content/uploads/2023/05/humbert-full-2022-june.png"/>
+    <hyperlink ref="Z20" r:id="rId16" display="https://libema-open.nl/wp-content/uploads/2023/05/ymer_m_full_ao20.png"/>
+    <hyperlink ref="Z21" r:id="rId17" display="https://libema-open.nl/wp-content/uploads/2022/05/van_rijthoven_tim_head_pp19.png"/>
+    <hyperlink ref="Z22" r:id="rId18" display="https://libema-open.nl/wp-content/uploads/2023/05/mcdonald_full.png"/>
+    <hyperlink ref="Z23" r:id="rId19" display="https://libema-open.nl/wp-content/uploads/2023/05/moutet_full.png"/>
+    <hyperlink ref="Z24" r:id="rId20" display="https://libema-open.nl/wp-content/uploads/2023/05/purcell_full.png"/>
+    <hyperlink ref="Z25" r:id="rId21" display="https://libema-open.nl/wp-content/uploads/2023/05/kubler_full.png"/>
+    <hyperlink ref="Z26" r:id="rId22" display="https://libema-open.nl/wp-content/uploads/2023/05/thompson_full.png"/>
+    <hyperlink ref="Z27" r:id="rId23" display="https://libema-open.nl/wp-content/uploads/2023/05/rinderknech_full.png"/>
+    <hyperlink ref="Z28" r:id="rId24" display="https://libema-open.nl/wp-content/uploads/2023/05/popyrin_full.png"/>
+    <hyperlink ref="Z29" r:id="rId25" display="https://libema-open.nl/wp-content/uploads/2023/05/ivashka_full.png"/>
+    <hyperlink ref="Z30" r:id="rId26" display="https://libema-open.nl/wp-content/uploads/2023/05/fils_full.png"/>
+    <hyperlink ref="Z31" r:id="rId27" display="https://libema-open.nl/wp-content/uploads/2023/05/goffin_full.png"/>
+    <hyperlink ref="Z32" r:id="rId28" display="https://libema-open.nl/wp-content/uploads/2023/05/kotov_full.png"/>
+    <hyperlink ref="Z33" r:id="rId29" display="https://libema-open.nl/wp-content/uploads/2023/05/bergs_full.png"/>
+    <hyperlink ref="Z34" r:id="rId30" display="https://libema-open.nl/wp-content/uploads/2023/05/hijikata_full.png"/>
+    <hyperlink ref="Z35" r:id="rId31" display="https://libema-open.nl/wp-content/uploads/2023/05/brouwer_full.png"/>
+    <hyperlink ref="Z36" r:id="rId32" display="https://libema-open.nl/wp-content/uploads/2023/05/ghost-headshot-atp.png"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6120,6 +7557,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -6128,17 +7566,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Y45" activeCellId="0" sqref="Y45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.34"/>
@@ -6215,15 +7653,18 @@
         <v>24</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>12</v>
@@ -6238,10 +7679,10 @@
         <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>132</v>
@@ -6253,10 +7694,10 @@
         <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="M2" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -6276,7 +7717,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="S2" s="2" t="n">
         <f aca="false">IF(B2&lt;11,TRUE(),FALSE())</f>
@@ -6297,16 +7738,17 @@
       <c r="W2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>177</v>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>9</v>
@@ -6327,10 +7769,10 @@
         <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="M3" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -6350,7 +7792,7 @@
         <v>11</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="S3" s="2" t="n">
         <f aca="false">IF(B3&lt;11,TRUE(),FALSE())</f>
@@ -6371,16 +7813,17 @@
       <c r="W3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>177</v>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>15</v>
@@ -6401,10 +7844,10 @@
         <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="M4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -6424,7 +7867,7 @@
         <v>10</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="S4" s="2" t="n">
         <f aca="false">IF(B4&lt;11,TRUE(),FALSE())</f>
@@ -6445,16 +7888,17 @@
       <c r="W4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>177</v>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>18</v>
@@ -6475,10 +7919,10 @@
         <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="M5" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -6498,7 +7942,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="S5" s="2" t="n">
         <f aca="false">IF(B5&lt;11,TRUE(),FALSE())</f>
@@ -6519,16 +7963,17 @@
       <c r="W5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X5" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>177</v>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>19</v>
@@ -6543,22 +7988,22 @@
         <v>178</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="M6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -6573,12 +8018,12 @@
       <c r="P6" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="Q6" s="8" t="n">
+      <c r="Q6" s="14" t="n">
         <f aca="false">2023-P6</f>
         <v>5</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="S6" s="2" t="n">
         <f aca="false">IF(B6&lt;11,TRUE(),FALSE())</f>
@@ -6599,16 +8044,17 @@
       <c r="W6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X6" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>177</v>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>23</v>
@@ -6629,10 +8075,10 @@
         <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="M7" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -6652,7 +8098,7 @@
         <v>12</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="S7" s="2" t="n">
         <f aca="false">IF(B7&lt;11,TRUE(),FALSE())</f>
@@ -6673,16 +8119,17 @@
       <c r="W7" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="X7" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>177</v>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -6697,10 +8144,10 @@
         <v>179</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>85</v>
@@ -6712,10 +8159,10 @@
         <v>30</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="M8" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -6735,7 +8182,7 @@
         <v>13</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="S8" s="2" t="n">
         <f aca="false">IF(B8&lt;11,TRUE(),FALSE())</f>
@@ -6756,16 +8203,17 @@
       <c r="W8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X8" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>177</v>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>37</v>
@@ -6795,10 +8243,10 @@
         <v>30</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="M9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -6818,7 +8266,7 @@
         <v>18</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="S9" s="2" t="n">
         <f aca="false">IF(B9&lt;11,TRUE(),FALSE())</f>
@@ -6839,16 +8287,17 @@
       <c r="W9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X9" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>177</v>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>41</v>
@@ -6878,10 +8327,10 @@
         <v>30</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="M10" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -6901,7 +8350,7 @@
         <v>8</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="S10" s="2" t="n">
         <f aca="false">IF(B10&lt;11,TRUE(),FALSE())</f>
@@ -6922,16 +8371,17 @@
       <c r="W10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X10" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>177</v>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>33</v>
@@ -6961,10 +8411,10 @@
         <v>30</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="M11" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -6984,7 +8434,7 @@
         <v>14</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="S11" s="2" t="n">
         <f aca="false">IF(B11&lt;11,TRUE(),FALSE())</f>
@@ -7005,16 +8455,17 @@
       <c r="W11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X11" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>177</v>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>32</v>
@@ -7029,10 +8480,10 @@
         <v>180</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>50</v>
@@ -7044,10 +8495,10 @@
         <v>30</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>24</v>
@@ -7063,7 +8514,7 @@
         <v>10</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="S12" s="2" t="n">
         <f aca="false">IF(B12&lt;11,TRUE(),FALSE())</f>
@@ -7084,16 +8535,17 @@
       <c r="W12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X12" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>177</v>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>50</v>
@@ -7108,16 +8560,16 @@
         <v>174</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="M13" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -7137,7 +8589,7 @@
         <v>14</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="S13" s="2" t="n">
         <f aca="false">IF(B13&lt;11,TRUE(),FALSE())</f>
@@ -7158,16 +8610,17 @@
       <c r="W13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X13" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>177</v>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>44</v>
@@ -7185,10 +8638,10 @@
         <v>30</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="M14" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -7208,7 +8661,7 @@
         <v>7</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="S14" s="2" t="n">
         <f aca="false">IF(B14&lt;11,TRUE(),FALSE())</f>
@@ -7229,16 +8682,17 @@
       <c r="W14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X14" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>177</v>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>42</v>
@@ -7253,10 +8707,10 @@
         <v>180</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>50</v>
@@ -7268,10 +8722,10 @@
         <v>30</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="M15" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -7291,7 +8745,7 @@
         <v>10</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="S15" s="2" t="n">
         <f aca="false">IF(B15&lt;11,TRUE(),FALSE())</f>
@@ -7312,16 +8766,17 @@
       <c r="W15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X15" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>177</v>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>22</v>
@@ -7351,10 +8806,10 @@
         <v>30</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="M16" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -7374,7 +8829,7 @@
         <v>7</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="S16" s="2" t="n">
         <f aca="false">IF(B16&lt;11,TRUE(),FALSE())</f>
@@ -7395,16 +8850,17 @@
       <c r="W16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X16" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>177</v>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>66</v>
@@ -7422,10 +8878,10 @@
         <v>30</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="M17" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -7445,7 +8901,7 @@
         <v>8</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="S17" s="2" t="n">
         <f aca="false">IF(B17&lt;11,TRUE(),FALSE())</f>
@@ -7466,16 +8922,17 @@
       <c r="W17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X17" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>177</v>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>319</v>
@@ -7493,10 +8950,10 @@
         <v>30</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="M18" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -7516,7 +8973,7 @@
         <v>19</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="S18" s="2" t="n">
         <f aca="false">IF(B18&lt;11,TRUE(),FALSE())</f>
@@ -7537,16 +8994,17 @@
       <c r="W18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X18" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>177</v>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>83</v>
@@ -7576,10 +9034,10 @@
         <v>30</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="M19" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -7599,7 +9057,7 @@
         <v>19</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="S19" s="2" t="n">
         <f aca="false">IF(B19&lt;11,TRUE(),FALSE())</f>
@@ -7620,16 +9078,17 @@
       <c r="W19" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="X19" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>177</v>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>81</v>
@@ -7644,10 +9103,10 @@
         <v>178</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>85</v>
@@ -7656,10 +9115,10 @@
         <v>134</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="M20" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -7679,7 +9138,7 @@
         <v>14</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="S20" s="2" t="n">
         <f aca="false">IF(B20&lt;11,TRUE(),FALSE())</f>
@@ -7700,16 +9159,17 @@
       <c r="W20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X20" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>177</v>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>86</v>
@@ -7739,10 +9199,10 @@
         <v>30</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="M21" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -7762,7 +9222,7 @@
         <v>14</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="S21" s="2" t="n">
         <f aca="false">IF(B21&lt;11,TRUE(),FALSE())</f>
@@ -7783,16 +9243,17 @@
       <c r="W21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X21" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>177</v>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>91</v>
@@ -7807,10 +9268,10 @@
         <v>174</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>132</v>
@@ -7819,10 +9280,10 @@
         <v>30</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="M22" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -7842,7 +9303,7 @@
         <v>12</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="S22" s="2" t="n">
         <f aca="false">IF(B22&lt;11,TRUE(),FALSE())</f>
@@ -7863,16 +9324,17 @@
       <c r="W22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X22" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>177</v>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>508</v>
@@ -7887,10 +9349,10 @@
         <v>174</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>147</v>
@@ -7902,10 +9364,10 @@
         <v>30</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="M23" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -7925,7 +9387,7 @@
         <v>15</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="S23" s="2" t="n">
         <f aca="false">IF(B23&lt;11,TRUE(),FALSE())</f>
@@ -7936,7 +9398,7 @@
         <v>1</v>
       </c>
       <c r="U23" s="2" t="n">
-        <f aca="false">FALSE()</f>
+        <f aca="false">IF(B23=N23,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
       <c r="V23" s="2" t="n">
@@ -7946,11 +9408,1483 @@
       <c r="W23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X23" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>177</v>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>92</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>170</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="9" t="n">
+        <v>74</v>
+      </c>
+      <c r="O24" s="9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P24" s="9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="Q24" s="15" t="n">
+        <f aca="false">2023-P24</f>
+        <v>5</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="S24" s="10" t="n">
+        <f aca="false">IF(B24&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="10" t="n">
+        <f aca="false">IF(N24&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="10" t="n">
+        <f aca="false">IF(B24=N24,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y24" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z24" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <f aca="false">2023-P25</f>
+        <v>9</v>
+      </c>
+      <c r="S25" s="2" t="n">
+        <f aca="false">IF(B25&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="2" t="n">
+        <f aca="false">IF(N25&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="2" t="n">
+        <f aca="false">IF(B25=N25,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <f aca="false">2023-P26</f>
+        <v>10</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="S26" s="2" t="n">
+        <f aca="false">IF(B26&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="2" t="n">
+        <f aca="false">IF(N26&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="2" t="n">
+        <f aca="false">IF(B26=N26,TRUE(),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="V26" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <f aca="false">2023-P27</f>
+        <v>7</v>
+      </c>
+      <c r="S27" s="2" t="n">
+        <f aca="false">IF(B27&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="2" t="n">
+        <f aca="false">IF(N27&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="2" t="n">
+        <f aca="false">IF(B27=N27,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <f aca="false">2023-P28</f>
+        <v>10</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="S28" s="2" t="n">
+        <f aca="false">IF(B28&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="2" t="n">
+        <f aca="false">IF(N28&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="2" t="n">
+        <f aca="false">IF(B28=N28,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <f aca="false">2023-P29</f>
+        <v>11</v>
+      </c>
+      <c r="S29" s="2" t="n">
+        <f aca="false">IF(B29&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="2" t="n">
+        <f aca="false">IF(N29&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="2" t="n">
+        <f aca="false">IF(B29=N29,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <f aca="false">2023-P30</f>
+        <v>10</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="S30" s="2" t="n">
+        <f aca="false">IF(B30&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="2" t="n">
+        <f aca="false">IF(N30&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="2" t="n">
+        <f aca="false">IF(B30=N30,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y30" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <f aca="false">2023-P31</f>
+        <v>18</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="S31" s="2" t="n">
+        <f aca="false">IF(B31&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="2" t="n">
+        <f aca="false">IF(N31&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="2" t="n">
+        <f aca="false">IF(B31=N31,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <f aca="false">2023-P32</f>
+        <v>4</v>
+      </c>
+      <c r="S32" s="2" t="n">
+        <f aca="false">IF(B32&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="2" t="n">
+        <f aca="false">IF(N32&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="2" t="n">
+        <f aca="false">IF(B32=N32,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <f aca="false">2023-P33</f>
+        <v>10</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="S33" s="2" t="n">
+        <f aca="false">IF(B33&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="2" t="n">
+        <f aca="false">IF(N33&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="2" t="n">
+        <f aca="false">IF(B33=N33,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y33" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <f aca="false">2023-P34</f>
+        <v>5</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="S34" s="2" t="n">
+        <f aca="false">IF(B34&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="2" t="n">
+        <f aca="false">IF(N34&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="2" t="n">
+        <f aca="false">IF(B34=N34,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <f aca="false">2023-P35</f>
+        <v>2</v>
+      </c>
+      <c r="S35" s="2" t="n">
+        <f aca="false">IF(B35&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="2" t="n">
+        <f aca="false">IF(N35&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="2" t="n">
+        <f aca="false">IF(B35=N35,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X35" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <f aca="false">2023-P36</f>
+        <v>16</v>
+      </c>
+      <c r="R36" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="S36" s="2" t="n">
+        <f aca="false">IF(B36&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="2" t="n">
+        <f aca="false">IF(N36&lt;11,TRUE(),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="U36" s="2" t="n">
+        <f aca="false">IF(B36=N36,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X36" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <f aca="false">2023-P37</f>
+        <v>13</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="S37" s="2" t="n">
+        <f aca="false">IF(B37&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="2" t="n">
+        <f aca="false">IF(N37&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="2" t="n">
+        <f aca="false">IF(B37=N37,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X37" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y37" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <f aca="false">2023-P38</f>
+        <v>11</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="S38" s="2" t="n">
+        <f aca="false">IF(B38&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="2" t="n">
+        <f aca="false">IF(N38&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="2" t="n">
+        <f aca="false">IF(B38=N38,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X38" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y38" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <f aca="false">2023-P39</f>
+        <v>13</v>
+      </c>
+      <c r="S39" s="2" t="n">
+        <f aca="false">IF(B39&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="2" t="n">
+        <f aca="false">IF(N39&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="2" t="n">
+        <f aca="false">IF(B39=N39,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X39" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y39" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <f aca="false">2023-P40</f>
+        <v>10</v>
+      </c>
+      <c r="S40" s="2" t="n">
+        <f aca="false">IF(B40&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="2" t="n">
+        <f aca="false">IF(N40&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="2" t="n">
+        <f aca="false">IF(B40=N40,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X40" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <f aca="false">2023-P41</f>
+        <v>7</v>
+      </c>
+      <c r="R41" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="S41" s="2" t="n">
+        <f aca="false">IF(B41&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="2" t="n">
+        <f aca="false">IF(N41&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="2" t="n">
+        <f aca="false">IF(B41=N41,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X41" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y41" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <f aca="false">2023-P42</f>
+        <v>9</v>
+      </c>
+      <c r="S42" s="2" t="n">
+        <f aca="false">IF(B42&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="2" t="n">
+        <f aca="false">IF(N42&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="2" t="n">
+        <f aca="false">IF(B42=N42,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X42" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y42" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <f aca="false">2023-P43</f>
+        <v>2</v>
+      </c>
+      <c r="S43" s="2" t="n">
+        <f aca="false">IF(B43&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="2" t="n">
+        <f aca="false">IF(N43&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="2" t="n">
+        <f aca="false">IF(B43=N43,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V43" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X43" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y43" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <f aca="false">2023-P44</f>
+        <v>15</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="S44" s="2" t="n">
+        <f aca="false">IF(B44&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="2" t="n">
+        <f aca="false">IF(N44&lt;11,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="2" t="n">
+        <f aca="false">IF(B44=N44,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="X44" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -7959,12 +10893,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:AMJ1 G2:Q2 X2:AMJ6 G3:W6 S2:W2 G7:AMJ1048576 A1:F1048576">
+  <conditionalFormatting sqref="G1:AMJ1 G2:Q2 Y2:AMJ6 G3:X6 S2:X2 AA7:AMJ1048576 B1:F31 B45:Z1048576 G7:Z24 A1:A1048576 X26:Z31 W26:W31 W32:Z44 G25:U31 W25:Z25 V25:V44 B32:U44">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>TRUE()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:Y1 G2:Q2 X2:Y6 G3:W6 S2:W2 G7:Y23 A1:F23">
+  <conditionalFormatting sqref="G1:Z1 G2:Q2 Y2:Z6 G3:X6 S2:X2 G7:Z23 A1:F23 Q24:Q44 S24:U44 Z24:Z44">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>1</formula>
     </cfRule>
@@ -7983,28 +10917,49 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="X2" r:id="rId1" display="https://libema-open.nl/wp-content/uploads/2023/05/Bencic_Hero-Smile.webp"/>
-    <hyperlink ref="X3" r:id="rId2" display="https://libema-open.nl/wp-content/uploads/2023/05/Kudermetova_Hero-Smile.webp"/>
-    <hyperlink ref="X4" r:id="rId3" display="https://libema-open.nl/wp-content/uploads/2023/05/Samsonova_Crop.webp"/>
-    <hyperlink ref="X5" r:id="rId4" display="https://libema-open.nl/wp-content/uploads/2023/05/azarenka.webp"/>
-    <hyperlink ref="X6" r:id="rId5" display="https://libema-open.nl/wp-content/uploads/2023/05/Zheng-Torso_328120.webp"/>
-    <hyperlink ref="X7" r:id="rId6" display="https://libema-open.nl/wp-content/uploads/2023/05/Alexandrova_Hero-Smile.webp"/>
-    <hyperlink ref="X8" r:id="rId7" display="https://libema-open.nl/wp-content/uploads/2023/05/Mertens_Hero-Smile.webp"/>
-    <hyperlink ref="X9" r:id="rId8" display="https://libema-open.nl/wp-content/uploads/2023/05/Martic_Hero-Smile.webp"/>
-    <hyperlink ref="X10" r:id="rId9" display="https://libema-open.nl/wp-content/uploads/2023/05/Andreescu_crop.webp"/>
-    <hyperlink ref="X11" r:id="rId10" display="https://libema-open.nl/wp-content/uploads/2023/05/Rogers-Torso_317421.webp"/>
-    <hyperlink ref="X12" r:id="rId11" display="https://libema-open.nl/wp-content/uploads/2023/05/QcvLKQRa.webp"/>
-    <hyperlink ref="X13" r:id="rId12" display="https://libema-open.nl/wp-content/uploads/2023/05/MLBGcqtM.webp"/>
-    <hyperlink ref="X14" r:id="rId13" display="https://libema-open.nl/wp-content/uploads/2023/05/Gracheva_crop.webp"/>
-    <hyperlink ref="X15" r:id="rId14" display="https://libema-open.nl/wp-content/uploads/2023/05/Muchova_Hero-Smile.webp"/>
-    <hyperlink ref="X16" r:id="rId15" display="https://libema-open.nl/wp-content/uploads/2023/05/McNally_Crop.webp"/>
-    <hyperlink ref="X17" r:id="rId16" display="https://libema-open.nl/wp-content/uploads/2023/05/LiQQMObq.webp"/>
-    <hyperlink ref="X18" r:id="rId17" display="https://libema-open.nl/wp-content/uploads/2023/05/KxenXejL.webp"/>
-    <hyperlink ref="X19" r:id="rId18" display="https://libema-open.nl/wp-content/uploads/2023/05/SuWqgWYb.webp"/>
-    <hyperlink ref="X20" r:id="rId19" display="https://libema-open.nl/wp-content/uploads/2023/05/fNpQoEOl.webp"/>
-    <hyperlink ref="X21" r:id="rId20" display="https://libema-open.nl/wp-content/uploads/2023/05/ODTCCbpp.webp"/>
-    <hyperlink ref="X22" r:id="rId21" display="https://libema-open.nl/wp-content/uploads/2023/05/Friedsam_Crop.webp"/>
-    <hyperlink ref="X23" r:id="rId22" display="https://libema-open.nl/wp-content/uploads/2023/05/Svitolina_Hero-Smile.webp"/>
+    <hyperlink ref="Y2" r:id="rId1" display="https://libema-open.nl/wp-content/uploads/2023/05/Bencic_Hero-Smile.webp"/>
+    <hyperlink ref="Y3" r:id="rId2" display="https://libema-open.nl/wp-content/uploads/2023/05/Kudermetova_Hero-Smile.webp"/>
+    <hyperlink ref="Y4" r:id="rId3" display="https://libema-open.nl/wp-content/uploads/2023/05/Samsonova_Crop.webp"/>
+    <hyperlink ref="Y5" r:id="rId4" display="https://libema-open.nl/wp-content/uploads/2023/05/azarenka.webp"/>
+    <hyperlink ref="Y6" r:id="rId5" display="https://libema-open.nl/wp-content/uploads/2023/05/Zheng-Torso_328120.webp"/>
+    <hyperlink ref="Y7" r:id="rId6" display="https://libema-open.nl/wp-content/uploads/2023/05/Alexandrova_Hero-Smile.webp"/>
+    <hyperlink ref="Y8" r:id="rId7" display="https://libema-open.nl/wp-content/uploads/2023/05/Mertens_Hero-Smile.webp"/>
+    <hyperlink ref="Y9" r:id="rId8" display="https://libema-open.nl/wp-content/uploads/2023/05/Martic_Hero-Smile.webp"/>
+    <hyperlink ref="Y10" r:id="rId9" display="https://libema-open.nl/wp-content/uploads/2023/05/Andreescu_crop.webp"/>
+    <hyperlink ref="Y11" r:id="rId10" display="https://libema-open.nl/wp-content/uploads/2023/05/Rogers-Torso_317421.webp"/>
+    <hyperlink ref="Y12" r:id="rId11" display="https://libema-open.nl/wp-content/uploads/2023/05/QcvLKQRa.webp"/>
+    <hyperlink ref="Y13" r:id="rId12" display="https://libema-open.nl/wp-content/uploads/2023/05/MLBGcqtM.webp"/>
+    <hyperlink ref="Y14" r:id="rId13" display="https://libema-open.nl/wp-content/uploads/2023/05/Gracheva_crop.webp"/>
+    <hyperlink ref="Y15" r:id="rId14" display="https://libema-open.nl/wp-content/uploads/2023/05/Muchova_Hero-Smile.webp"/>
+    <hyperlink ref="Y16" r:id="rId15" display="https://libema-open.nl/wp-content/uploads/2023/05/McNally_Crop.webp"/>
+    <hyperlink ref="Y17" r:id="rId16" display="https://libema-open.nl/wp-content/uploads/2023/05/LiQQMObq.webp"/>
+    <hyperlink ref="Y18" r:id="rId17" display="https://libema-open.nl/wp-content/uploads/2023/05/KxenXejL.webp"/>
+    <hyperlink ref="Y19" r:id="rId18" display="https://libema-open.nl/wp-content/uploads/2023/05/SuWqgWYb.webp"/>
+    <hyperlink ref="Y20" r:id="rId19" display="https://libema-open.nl/wp-content/uploads/2023/05/fNpQoEOl.webp"/>
+    <hyperlink ref="Y21" r:id="rId20" display="https://libema-open.nl/wp-content/uploads/2023/05/ODTCCbpp.webp"/>
+    <hyperlink ref="Y22" r:id="rId21" display="https://libema-open.nl/wp-content/uploads/2023/05/Friedsam_Crop.webp"/>
+    <hyperlink ref="Y23" r:id="rId22" display="https://libema-open.nl/wp-content/uploads/2023/05/Svitolina_Hero-Smile.webp"/>
+    <hyperlink ref="Y24" r:id="rId23" display="https://libema-open.nl"/>
+    <hyperlink ref="Y25" r:id="rId24" display="https://libema-open.nl"/>
+    <hyperlink ref="Y26" r:id="rId25" display="https://libema-open.nl"/>
+    <hyperlink ref="Y27" r:id="rId26" display="https://libema-open.nl"/>
+    <hyperlink ref="Y28" r:id="rId27" display="https://libema-open.nl"/>
+    <hyperlink ref="Y29" r:id="rId28" display="https://libema-open.nl"/>
+    <hyperlink ref="Y30" r:id="rId29" display="https://libema-open.nl"/>
+    <hyperlink ref="Y31" r:id="rId30" display="https://libema-open.nl"/>
+    <hyperlink ref="Y32" r:id="rId31" display="https://libema-open.nl"/>
+    <hyperlink ref="Y33" r:id="rId32" display="https://libema-open.nl"/>
+    <hyperlink ref="Y34" r:id="rId33" display="https://libema-open.nl"/>
+    <hyperlink ref="Y35" r:id="rId34" display="https://libema-open.nl"/>
+    <hyperlink ref="Y36" r:id="rId35" display="https://libema-open.nl"/>
+    <hyperlink ref="Y37" r:id="rId36" display="https://libema-open.nl"/>
+    <hyperlink ref="Y38" r:id="rId37" display="https://libema-open.nl"/>
+    <hyperlink ref="Y39" r:id="rId38" display="https://libema-open.nl"/>
+    <hyperlink ref="Y40" r:id="rId39" display="https://libema-open.nl"/>
+    <hyperlink ref="Y41" r:id="rId40" display="https://libema-open.nl"/>
+    <hyperlink ref="Y42" r:id="rId41" display="https://libema-open.nl"/>
+    <hyperlink ref="Y43" r:id="rId42" display="https://libema-open.nl"/>
+    <hyperlink ref="Y44" r:id="rId43" display="https://libema-open.nl"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8027,14 +10982,14 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>294</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/backend/data/Competitors.xlsx
+++ b/backend/data/Competitors.xlsx
@@ -7573,7 +7573,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y45" activeCellId="0" sqref="Y45"/>
+      <selection pane="bottomRight" activeCell="W7" activeCellId="0" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/data/Competitors.xlsx
+++ b/backend/data/Competitors.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="395">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
@@ -917,9 +917,6 @@
   </si>
   <si>
     <t xml:space="preserve">Aliaksandra Sasnovich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backhand down the line</t>
   </si>
   <si>
     <t xml:space="preserve">versatile, groundstrokes, serve, consistency, tactical</t>
@@ -1552,7 +1549,7 @@
       <selection pane="bottomRight" activeCell="Z25" activeCellId="0" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.45"/>
@@ -7569,14 +7566,14 @@
   <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W7" activeCellId="0" sqref="W7"/>
+      <selection pane="bottomRight" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.34"/>
@@ -8560,16 +8557,16 @@
         <v>174</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>283</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="M13" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -8589,7 +8586,7 @@
         <v>14</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S13" s="2" t="n">
         <f aca="false">IF(B13&lt;11,TRUE(),FALSE())</f>
@@ -8612,7 +8609,7 @@
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>226</v>
@@ -8620,7 +8617,7 @@
     </row>
     <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>44</v>
@@ -8638,10 +8635,10 @@
         <v>30</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="M14" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -8661,7 +8658,7 @@
         <v>7</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S14" s="2" t="n">
         <f aca="false">IF(B14&lt;11,TRUE(),FALSE())</f>
@@ -8684,7 +8681,7 @@
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>226</v>
@@ -8692,7 +8689,7 @@
     </row>
     <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>42</v>
@@ -8722,10 +8719,10 @@
         <v>30</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="M15" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -8745,7 +8742,7 @@
         <v>10</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S15" s="2" t="n">
         <f aca="false">IF(B15&lt;11,TRUE(),FALSE())</f>
@@ -8768,7 +8765,7 @@
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>226</v>
@@ -8776,7 +8773,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>22</v>
@@ -8806,10 +8803,10 @@
         <v>30</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="M16" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -8829,7 +8826,7 @@
         <v>7</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S16" s="2" t="n">
         <f aca="false">IF(B16&lt;11,TRUE(),FALSE())</f>
@@ -8852,7 +8849,7 @@
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>226</v>
@@ -8860,7 +8857,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>66</v>
@@ -8878,10 +8875,10 @@
         <v>30</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M17" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -8901,7 +8898,7 @@
         <v>8</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S17" s="2" t="n">
         <f aca="false">IF(B17&lt;11,TRUE(),FALSE())</f>
@@ -8924,7 +8921,7 @@
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>226</v>
@@ -8932,7 +8929,7 @@
     </row>
     <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>319</v>
@@ -8950,10 +8947,10 @@
         <v>30</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M18" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -8973,7 +8970,7 @@
         <v>19</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S18" s="2" t="n">
         <f aca="false">IF(B18&lt;11,TRUE(),FALSE())</f>
@@ -8996,7 +8993,7 @@
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>226</v>
@@ -9004,7 +9001,7 @@
     </row>
     <row r="19" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>83</v>
@@ -9034,10 +9031,10 @@
         <v>30</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="M19" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -9057,7 +9054,7 @@
         <v>19</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S19" s="2" t="n">
         <f aca="false">IF(B19&lt;11,TRUE(),FALSE())</f>
@@ -9080,7 +9077,7 @@
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>226</v>
@@ -9088,7 +9085,7 @@
     </row>
     <row r="20" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>81</v>
@@ -9115,10 +9112,10 @@
         <v>134</v>
       </c>
       <c r="K20" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="M20" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -9138,7 +9135,7 @@
         <v>14</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S20" s="2" t="n">
         <f aca="false">IF(B20&lt;11,TRUE(),FALSE())</f>
@@ -9161,7 +9158,7 @@
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>226</v>
@@ -9169,7 +9166,7 @@
     </row>
     <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>86</v>
@@ -9199,10 +9196,10 @@
         <v>30</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="M21" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -9222,7 +9219,7 @@
         <v>14</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S21" s="2" t="n">
         <f aca="false">IF(B21&lt;11,TRUE(),FALSE())</f>
@@ -9245,7 +9242,7 @@
       </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>226</v>
@@ -9253,7 +9250,7 @@
     </row>
     <row r="22" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>91</v>
@@ -9268,10 +9265,10 @@
         <v>174</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>132</v>
@@ -9280,10 +9277,10 @@
         <v>30</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="M22" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -9303,7 +9300,7 @@
         <v>12</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S22" s="2" t="n">
         <f aca="false">IF(B22&lt;11,TRUE(),FALSE())</f>
@@ -9326,7 +9323,7 @@
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>226</v>
@@ -9334,7 +9331,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>508</v>
@@ -9349,10 +9346,10 @@
         <v>174</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>147</v>
@@ -9364,10 +9361,10 @@
         <v>30</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="M23" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -9387,7 +9384,7 @@
         <v>15</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S23" s="2" t="n">
         <f aca="false">IF(B23&lt;11,TRUE(),FALSE())</f>
@@ -9410,7 +9407,7 @@
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>226</v>
@@ -9418,7 +9415,7 @@
     </row>
     <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B24" s="9" t="n">
         <v>92</v>
@@ -9459,7 +9456,7 @@
         <v>5</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S24" s="10" t="n">
         <f aca="false">IF(B24&lt;11,TRUE(),FALSE())</f>
@@ -9482,7 +9479,7 @@
         <v>172</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Z24" s="15" t="s">
         <v>226</v>
@@ -9490,7 +9487,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>98</v>
@@ -9502,10 +9499,10 @@
         <v>178</v>
       </c>
       <c r="F25" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>346</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>50</v>
@@ -9550,7 +9547,7 @@
         <v>172</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>226</v>
@@ -9558,7 +9555,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>110</v>
@@ -9602,7 +9599,7 @@
         <v>10</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S26" s="2" t="n">
         <f aca="false">IF(B26&lt;11,TRUE(),FALSE())</f>
@@ -9624,7 +9621,7 @@
         <v>172</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>226</v>
@@ -9632,7 +9629,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>116</v>
@@ -9692,7 +9689,7 @@
         <v>172</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>226</v>
@@ -9700,7 +9697,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>56</v>
@@ -9744,7 +9741,7 @@
         <v>10</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S28" s="2" t="n">
         <f aca="false">IF(B28&lt;11,TRUE(),FALSE())</f>
@@ -9766,7 +9763,7 @@
         <v>172</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>226</v>
@@ -9774,7 +9771,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>123</v>
@@ -9834,7 +9831,7 @@
         <v>172</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>226</v>
@@ -9842,7 +9839,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>106</v>
@@ -9854,10 +9851,10 @@
         <v>180</v>
       </c>
       <c r="F30" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="G30" s="0" t="s">
         <v>358</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>359</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>50</v>
@@ -9883,7 +9880,7 @@
         <v>10</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S30" s="2" t="n">
         <f aca="false">IF(B30&lt;11,TRUE(),FALSE())</f>
@@ -9905,7 +9902,7 @@
         <v>172</v>
       </c>
       <c r="Y30" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>226</v>
@@ -9913,7 +9910,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>89</v>
@@ -9954,7 +9951,7 @@
         <v>18</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S31" s="2" t="n">
         <f aca="false">IF(B31&lt;11,TRUE(),FALSE())</f>
@@ -9976,7 +9973,7 @@
         <v>172</v>
       </c>
       <c r="Y31" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>226</v>
@@ -9984,7 +9981,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>142</v>
@@ -10035,7 +10032,7 @@
         <v>172</v>
       </c>
       <c r="Y32" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>226</v>
@@ -10043,7 +10040,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>154</v>
@@ -10087,7 +10084,7 @@
         <v>10</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S33" s="2" t="n">
         <f aca="false">IF(B33&lt;11,TRUE(),FALSE())</f>
@@ -10109,7 +10106,7 @@
         <v>172</v>
       </c>
       <c r="Y33" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>226</v>
@@ -10117,7 +10114,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>156</v>
@@ -10129,10 +10126,10 @@
         <v>165</v>
       </c>
       <c r="F34" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>329</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>132</v>
@@ -10158,7 +10155,7 @@
         <v>5</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S34" s="2" t="n">
         <f aca="false">IF(B34&lt;11,TRUE(),FALSE())</f>
@@ -10180,7 +10177,7 @@
         <v>172</v>
       </c>
       <c r="Y34" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>226</v>
@@ -10188,7 +10185,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>114</v>
@@ -10248,7 +10245,7 @@
         <v>172</v>
       </c>
       <c r="Y35" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>226</v>
@@ -10256,7 +10253,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>165</v>
@@ -10297,7 +10294,7 @@
         <v>16</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S36" s="2" t="n">
         <f aca="false">IF(B36&lt;11,TRUE(),FALSE())</f>
@@ -10319,7 +10316,7 @@
         <v>172</v>
       </c>
       <c r="Y36" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>226</v>
@@ -10327,7 +10324,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>170</v>
@@ -10374,7 +10371,7 @@
         <v>13</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S37" s="2" t="n">
         <f aca="false">IF(B37&lt;11,TRUE(),FALSE())</f>
@@ -10396,7 +10393,7 @@
         <v>172</v>
       </c>
       <c r="Y37" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>226</v>
@@ -10404,7 +10401,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>173</v>
@@ -10445,7 +10442,7 @@
         <v>11</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S38" s="2" t="n">
         <f aca="false">IF(B38&lt;11,TRUE(),FALSE())</f>
@@ -10467,7 +10464,7 @@
         <v>172</v>
       </c>
       <c r="Y38" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>226</v>
@@ -10475,7 +10472,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>178</v>
@@ -10535,7 +10532,7 @@
         <v>172</v>
       </c>
       <c r="Y39" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>226</v>
@@ -10543,7 +10540,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>148</v>
@@ -10603,7 +10600,7 @@
         <v>172</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>226</v>
@@ -10611,7 +10608,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>159</v>
@@ -10623,10 +10620,10 @@
         <v>164</v>
       </c>
       <c r="F41" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>386</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>387</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>245</v>
@@ -10652,7 +10649,7 @@
         <v>7</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S41" s="2" t="n">
         <f aca="false">IF(B41&lt;11,TRUE(),FALSE())</f>
@@ -10674,7 +10671,7 @@
         <v>172</v>
       </c>
       <c r="Y41" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z41" s="1" t="s">
         <v>226</v>
@@ -10682,7 +10679,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>194</v>
@@ -10694,10 +10691,10 @@
         <v>188</v>
       </c>
       <c r="F42" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="G42" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>65</v>
@@ -10742,7 +10739,7 @@
         <v>172</v>
       </c>
       <c r="Y42" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z42" s="1" t="s">
         <v>226</v>
@@ -10750,7 +10747,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>197</v>
@@ -10810,7 +10807,7 @@
         <v>172</v>
       </c>
       <c r="Y43" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>226</v>
@@ -10818,7 +10815,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>210</v>
@@ -10859,7 +10856,7 @@
         <v>15</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S44" s="2" t="n">
         <f aca="false">IF(B44&lt;11,TRUE(),FALSE())</f>
@@ -10881,7 +10878,7 @@
         <v>217</v>
       </c>
       <c r="Y44" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z44" s="1" t="s">
         <v>226</v>
@@ -10939,27 +10936,27 @@
     <hyperlink ref="Y21" r:id="rId20" display="https://libema-open.nl/wp-content/uploads/2023/05/ODTCCbpp.webp"/>
     <hyperlink ref="Y22" r:id="rId21" display="https://libema-open.nl/wp-content/uploads/2023/05/Friedsam_Crop.webp"/>
     <hyperlink ref="Y23" r:id="rId22" display="https://libema-open.nl/wp-content/uploads/2023/05/Svitolina_Hero-Smile.webp"/>
-    <hyperlink ref="Y24" r:id="rId23" display="https://libema-open.nl"/>
-    <hyperlink ref="Y25" r:id="rId24" display="https://libema-open.nl"/>
-    <hyperlink ref="Y26" r:id="rId25" display="https://libema-open.nl"/>
-    <hyperlink ref="Y27" r:id="rId26" display="https://libema-open.nl"/>
-    <hyperlink ref="Y28" r:id="rId27" display="https://libema-open.nl"/>
-    <hyperlink ref="Y29" r:id="rId28" display="https://libema-open.nl"/>
-    <hyperlink ref="Y30" r:id="rId29" display="https://libema-open.nl"/>
-    <hyperlink ref="Y31" r:id="rId30" display="https://libema-open.nl"/>
-    <hyperlink ref="Y32" r:id="rId31" display="https://libema-open.nl"/>
-    <hyperlink ref="Y33" r:id="rId32" display="https://libema-open.nl"/>
-    <hyperlink ref="Y34" r:id="rId33" display="https://libema-open.nl"/>
-    <hyperlink ref="Y35" r:id="rId34" display="https://libema-open.nl"/>
-    <hyperlink ref="Y36" r:id="rId35" display="https://libema-open.nl"/>
-    <hyperlink ref="Y37" r:id="rId36" display="https://libema-open.nl"/>
-    <hyperlink ref="Y38" r:id="rId37" display="https://libema-open.nl"/>
-    <hyperlink ref="Y39" r:id="rId38" display="https://libema-open.nl"/>
-    <hyperlink ref="Y40" r:id="rId39" display="https://libema-open.nl"/>
-    <hyperlink ref="Y41" r:id="rId40" display="https://libema-open.nl"/>
-    <hyperlink ref="Y42" r:id="rId41" display="https://libema-open.nl"/>
-    <hyperlink ref="Y43" r:id="rId42" display="https://libema-open.nl"/>
-    <hyperlink ref="Y44" r:id="rId43" display="https://libema-open.nl"/>
+    <hyperlink ref="Y24" r:id="rId23" display="https://libema-open.nl/wp-content/uploads/2023/05/Volynets_crop.webp"/>
+    <hyperlink ref="Y25" r:id="rId24" display="https://libema-open.nl/wp-content/uploads/2023/05/Galfi_crop.webp"/>
+    <hyperlink ref="Y26" r:id="rId25" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
+    <hyperlink ref="Y27" r:id="rId26" display="https://libema-open.nl/wp-content/uploads/2023/05/Yuan_crop.webp"/>
+    <hyperlink ref="Y28" r:id="rId27" display="https://libema-open.nl/wp-content/uploads/2023/05/Minnen_crop.webp"/>
+    <hyperlink ref="Y29" r:id="rId28" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
+    <hyperlink ref="Y30" r:id="rId29" display="https://libema-open.nl/wp-content/uploads/2023/05/Hruncakova_crop.webp"/>
+    <hyperlink ref="Y31" r:id="rId30" display="https://libema-open.nl/wp-content/uploads/2023/05/Wickmayer_crop.webp"/>
+    <hyperlink ref="Y32" r:id="rId31" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
+    <hyperlink ref="Y33" r:id="rId32" display="https://libema-open.nl/wp-content/uploads/2023/05/Hon_crop.webp"/>
+    <hyperlink ref="Y34" r:id="rId33" display="https://libema-open.nl/wp-content/uploads/2023/05/Lys_crop.webp"/>
+    <hyperlink ref="Y35" r:id="rId34" display="https://libema-open.nl/wp-content/uploads/2023/05/Krueger_crop.webp"/>
+    <hyperlink ref="Y36" r:id="rId35" display="https://libema-open.nl/wp-content/uploads/2023/05/Vandeweghe_crop.webp"/>
+    <hyperlink ref="Y37" r:id="rId36" display="https://libema-open.nl/wp-content/uploads/2023/05/Vickery_crop.webp"/>
+    <hyperlink ref="Y38" r:id="rId37" display="https://libema-open.nl/wp-content/uploads/2023/05/Konjuh_crop.webp"/>
+    <hyperlink ref="Y39" r:id="rId38" display="https://libema-open.nl/wp-content/uploads/2023/05/Zhao_crop.webp"/>
+    <hyperlink ref="Y40" r:id="rId39" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
+    <hyperlink ref="Y41" r:id="rId40" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
+    <hyperlink ref="Y42" r:id="rId41" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
+    <hyperlink ref="Y43" r:id="rId42" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
+    <hyperlink ref="Y44" r:id="rId43" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -10982,14 +10979,14 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/backend/data/Competitors.xlsx
+++ b/backend/data/Competitors.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="474">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
@@ -1381,6 +1381,9 @@
     <t xml:space="preserve">Petr Kralert</t>
   </si>
   <si>
+    <t xml:space="preserve">https://photoresources.wtatennis.com/photo-resources/2023/01/03/4a0ef227-f0c2-4904-86b5-5d0bb36e476f/Makeckova_Crop.jpg?width=500&amp;height=660</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lexie Stevens</t>
   </si>
   <si>
@@ -1400,6 +1403,9 @@
   </si>
   <si>
     <t xml:space="preserve">Susan Bandecchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://photoresources.wtatennis.com/photo-resources/2021/11/19/ca9548a8-4803-456f-bf9a-0fc56f1ff2b4/Bandecchi_crop.jpg?width=500&amp;height=660</t>
   </si>
   <si>
     <t xml:space="preserve">Magali Kempen</t>
@@ -6075,7 +6081,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C39" activeCellId="0" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9789,7 +9795,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="33" t="s">
         <v>435</v>
       </c>
@@ -9857,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="32" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="Z50" s="19" t="s">
         <v>258</v>
@@ -9865,7 +9871,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="33" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B51" s="19" t="n">
         <v>414</v>
@@ -9933,7 +9939,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="33" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B52" s="19" t="n">
         <v>735</v>
@@ -10001,7 +10007,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="33" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B53" s="19" t="n">
         <v>222</v>
@@ -10057,7 +10063,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="33" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B54" s="19" t="n">
         <v>225</v>
@@ -10069,10 +10075,10 @@
         <v>174</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H54" s="19" t="s">
         <v>237</v>
@@ -10120,9 +10126,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="33" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B55" s="19" t="n">
         <v>358</v>
@@ -10179,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="32" t="s">
-        <v>380</v>
+        <v>445</v>
       </c>
       <c r="Z55" s="19" t="s">
         <v>258</v>
@@ -10187,7 +10193,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="33" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B56" s="19" t="n">
         <v>196</v>
@@ -10255,7 +10261,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="33" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B57" s="19" t="n">
         <v>460</v>
@@ -10320,7 +10326,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="33" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B58" s="19" t="n">
         <v>219</v>
@@ -10376,7 +10382,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="33" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B59" s="19" t="n">
         <v>292</v>
@@ -10420,7 +10426,7 @@
         <v>19</v>
       </c>
       <c r="R59" s="19" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="S59" s="25" t="n">
         <f aca="false">IF(B59&lt;11,TRUE(),FALSE())</f>
@@ -10450,7 +10456,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="33" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B60" s="19" t="n">
         <v>31</v>
@@ -10491,7 +10497,7 @@
         <v>12</v>
       </c>
       <c r="R60" s="19" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="S60" s="25" t="n">
         <f aca="false">IF(B60&lt;11,TRUE(),FALSE())</f>
@@ -10521,7 +10527,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="33" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B61" s="19" t="n">
         <v>15</v>
@@ -10545,7 +10551,7 @@
         <v>71</v>
       </c>
       <c r="J61" s="19" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M61" s="19" t="b">
         <f aca="false">FALSE()</f>
@@ -10565,7 +10571,7 @@
         <v>10</v>
       </c>
       <c r="R61" s="19" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="S61" s="25" t="n">
         <f aca="false">IF(B61&lt;11,TRUE(),FALSE())</f>
@@ -10595,7 +10601,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="33" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B62" s="19" t="n">
         <v>151</v>
@@ -10607,10 +10613,10 @@
         <v>163</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H62" s="19" t="s">
         <v>237</v>
@@ -10636,7 +10642,7 @@
         <v>14</v>
       </c>
       <c r="R62" s="19" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="S62" s="25" t="n">
         <f aca="false">IF(B62&lt;11,TRUE(),FALSE())</f>
@@ -10666,7 +10672,7 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="18" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B63" s="19" t="n">
         <v>1527</v>
@@ -10678,16 +10684,16 @@
         <v>184</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H63" s="19" t="s">
         <v>147</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M63" s="23" t="n">
         <f aca="false">FALSE()</f>
@@ -10734,7 +10740,7 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="19" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B64" s="19" t="n">
         <v>940</v>
@@ -10802,7 +10808,7 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="19" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B65" s="19" t="n">
         <v>582</v>
@@ -10814,10 +10820,10 @@
         <v>182</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>56</v>
@@ -10870,7 +10876,7 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="20" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B66" s="19" t="n">
         <v>696</v>
@@ -10911,7 +10917,7 @@
         <v>29</v>
       </c>
       <c r="R66" s="19" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="S66" s="22" t="b">
         <f aca="false">IF(B66&lt;11,TRUE(),FALSE())</f>
@@ -10933,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="21" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Z66" s="19" t="s">
         <v>258</v>
@@ -10941,7 +10947,7 @@
     </row>
     <row r="67" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="20" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B67" s="19" t="n">
         <v>111</v>
@@ -10985,7 +10991,7 @@
         <v>8</v>
       </c>
       <c r="R67" s="34" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="S67" s="22" t="b">
         <f aca="false">IF(B67&lt;11,TRUE(),FALSE())</f>
@@ -11007,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="35" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Z67" s="19" t="s">
         <v>258</v>
@@ -11092,12 +11098,12 @@
     <hyperlink ref="Y47" r:id="rId46" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
     <hyperlink ref="Y48" r:id="rId47" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
     <hyperlink ref="Y49" r:id="rId48" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
-    <hyperlink ref="Y50" r:id="rId49" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
+    <hyperlink ref="Y50" r:id="rId49" display="https://photoresources.wtatennis.com/photo-resources/2023/01/03/4a0ef227-f0c2-4904-86b5-5d0bb36e476f/Makeckova_Crop.jpg?width=500&amp;height=660"/>
     <hyperlink ref="Y51" r:id="rId50" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
     <hyperlink ref="Y52" r:id="rId51" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
     <hyperlink ref="Y53" r:id="rId52" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
     <hyperlink ref="Y54" r:id="rId53" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
-    <hyperlink ref="Y55" r:id="rId54" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
+    <hyperlink ref="Y55" r:id="rId54" display="https://photoresources.wtatennis.com/photo-resources/2021/11/19/ca9548a8-4803-456f-bf9a-0fc56f1ff2b4/Bandecchi_crop.jpg?width=500&amp;height=660"/>
     <hyperlink ref="Y56" r:id="rId55" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
     <hyperlink ref="Y57" r:id="rId56" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
     <hyperlink ref="Y58" r:id="rId57" display="https://libema-open.nl/wp-content/uploads/2023/05/player-placeholder.png"/>
@@ -11139,7 +11145,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
